--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="201">
   <si>
     <t>Doi</t>
   </si>
@@ -644,6 +644,87 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,  Rajesh%Kumari%NULL%1,  Garima%Kachhawa%NULL%1,  Anjolie%Chhabra%NULL%1,  Ramesh%Agarwal%NULL%1,  Akash%Sharma%NULL%1,  Sunesh%Kumar%NULL%1,  Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,   Caitlin%Baptiste%NULL%0,   Cynthia%Gyamfi-Bannerman%NULL%0,   Russell%Miller%NULL%0,   Rebecca%Martinez%NULL%0,   Kyra%Bernstein%NULL%0,   Laurence%Ring%NULL%0,   Ruth%Landau%NULL%0,   Stephanie%Purisch%NULL%0,   Alexander M.%Friedman%NULL%0,   Karin%Fuchs%NULL%0,   Desmond%Sutton%NULL%0,   Maria%Andrikopoulou%NULL%0,   Devon%Rupley%NULL%0,   Jean-Ju%Sheen%NULL%0,   Janice%Aubey%NULL%0,   Noelia%Zork%NULL%0,   Leslie%Moroz%NULL%0,   Mirella%Mourad%NULL%0,   Ronald%Wapner%NULL%0,   Lynn L.%Simpson%NULL%0,   Mary E.%D’Alton%NULL%0,   Dena%Goffman%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,   Munir%Nazir%NULL%1,   Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,   Jolene%Muscat%NULL%2,   Jolene%Muscat%NULL%0,   Eva%Hoffmann%NULL%1,   Nicole S.%John%NULL%1,   Rosanne%Vertichio%NULL%1,   Anthony M.%Vintzileos%NULL%1,   Duc%Vo%NULL%2,   Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,   Yousef%Al Ahwel%NULL%1,   Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,   Rachael%Overcash%NULL%1,   Neggin%Mokhtari%NULL%1,   Haleema%Saeed%NULL%1,   Stacey%Gold%NULL%1,   Tamika%Auguste%NULL%1,   Muhammad-Usman%Mirza%NULL%1,   Maria-Elena%Ruiz%NULL%1,   Joeffrey J.%Chahine%NULL%2,   Joeffrey J.%Chahine%NULL%0,   Masashi%Waga%NULL%2,   Masashi%Waga%NULL%0,   Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,   Jennifer B.%Linfert%NULL%1,   Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,   Juanjuan%Guo%NULL%0,   Cuifang%Fan%NULL%0,   Juan%Juan%NULL%0,   Xuechen%Yu%NULL%0,   Jiafu%Li%NULL%0,   Ling%Feng%NULL%0,   Chunyan%Li%NULL%0,   Huijun%Chen%NULL%0,   Yuan%Qiao%NULL%0,   Di%Lei%NULL%0,   Chen%Wang%NULL%0,   Guoping%Xiong%NULL%0,   Fengyi%Xiao%NULL%0,   Wencong%He%NULL%0,   Qiumei%Pang%NULL%0,   Xiaoling%Hu%NULL%0,   Suqing%Wang%NULL%0,   Dunjin%Chen%NULL%0,   Yuanzhen%Zhang%NULL%0,   Liona C.%Poon%NULL%0,   Huixia%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,   Zhiqiang%Zhou%NULL%2,   Jianping%Zhang%NULL%2,   Fengfeng%Zhu%NULL%2,   Yongyan%Tang%NULL%2,   Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,   Yue%Sun%101799@qdfe.com%1,   Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,   Huan%Yang%NULL%1,   Junfeng%Kong%NULL%2,   Junfeng%Kong%NULL%0,   Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,   Mingxing%Li%NULL%1,   Kai%Guo%NULL%1,   Weijia%Wang%NULL%1,   Binfei%Li%NULL%1,   Jianwei%Li%NULL%1,   Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,   Hong%Wei%NULL%2,   Hong%Wei%NULL%0,   Zhihong%Zhang%NULL%1,   Jing%Chang%NULL%1,   Xiaopeng%Ma%NULL%1,   Xiang%Gao%NULL%1,   Qiang%Chen%qiangchen2015@sina.com%1,   Qiumei%Pang%pqm19650930@sina.com%0,   Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,   Jianhui%Wang%NULL%1,   Yunbo%Mo%NULL%1,   Wei%Duan%NULL%1,   Guangjun%Xiang%NULL%1,   Ming%Yi%NULL%1,   Lei%Bao%NULL%1,   Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,   Lin%Sang%NULL%2,   Shihua%Du%NULL%2,   Tao%Li%NULL%0,   Yange%Chang%NULL%2,   Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,   Luigi%Frigerio%NULL%0,   Irene%Cetin%NULL%0,   Patrizia%Vergani%NULL%0,   Arsenio%Spinillo%NULL%0,   Federico%Prefumo%NULL%0,   Edda%Pellegrini%NULL%0,   Gianluigi%Gargantini%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,   Alexandre J.%Vivanti%NULL%1,   Nadine%Shehata%NULL%1,   Alexandra%Benachi%NULL%1,   Agnes%Le Gouez%NULL%1,   Celine%Desconclois%NULL%1,   Wendy%Whittle%NULL%1,   John%Snelgrove%NULL%1,   Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,   Itzel Carolina%Fuentes-Barahona%NULL%2,   Itzel Carolina%Fuentes-Barahona%NULL%0,   Daysi Anabell%Bejarano-Torres%NULL%1,   Carolina%Bustillo%NULL%2,   Gloria%Gonzales%NULL%1,   Gissela%Vallecillo-Chinchilla%NULL%1,   Fredal Eduardo%Sanchez-Martínez%NULL%2,   Fredal Eduardo%Sanchez-Martínez%NULL%0,   Jorge Alberto%Valle-Reconco%NULL%1,   Manuel%Sierra%NULL%2,   Manuel%Sierra%NULL%0,   D. Katterine%Bonilla-Aldana%NULL%0,   D. Katterine%Bonilla-Aldana%NULL%0,   Jaime A.%Cardona-Ospina%NULL%0,   Jaime A.%Cardona-Ospina%NULL%0,   Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,   Jihyang%Lee%NULL%4,   Jihyang%Lee%NULL%0,   Eunju%Kim%NULL%4,   Eunju%Kim%NULL%0,   Kyeongyoon%Woo%NULL%4,   Kyeongyoon%Woo%NULL%0,   Hak Youle%Park%NULL%4,   Hak Youle%Park%NULL%0,   Jihyun%An%NULL%4,   Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,  Kalafat%Erkan%coreGivesNoEmail%1,  KO\u00c7%ASLI%coreGivesNoEmail%1,  Ozisik%S.%coreGivesNoEmail%1,  UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,  VARLI%BULUT%coreGivesNoEmail%1,  Yaprak%E.%coreGivesNoEmail%1,  \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,   Maliheh%Naghavi%NULL%1,   Abdolamir%Feyzi%NULL%1,   Mehdi%Aghamohammadi%NULL%1,   Mohammad Sadegh%Novin%NULL%1,   Ahmadreza%Mobaien%NULL%1,   Mohamad%Qorbanisani%NULL%1,   Aida%Karami%NULL%1,   Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,   Benjamin%Bopp%NULL%2,   Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,   J.%Ocampo Pérez%NULL%1,   L.%González Bautista%NULL%1,   L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,   Tania%Paredes%NULL%4,   Tania%Paredes%NULL%0,   David%Caceres%NULL%2,   Camille M.%Webb%NULL%2,   Luis M.%Valdez%NULL%2,   Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,   Rajesh%Kumari%NULL%1,   Garima%Kachhawa%NULL%1,   Anjolie%Chhabra%NULL%1,   Ramesh%Agarwal%NULL%1,   Akash%Sharma%NULL%1,   Sunesh%Kumar%NULL%1,   Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -972,6 +1053,9 @@
       <c r="H1" t="s">
         <v>42</v>
       </c>
+      <c r="I1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -987,7 +1071,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
@@ -997,6 +1081,9 @@
       </c>
       <c r="H2" t="s">
         <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="3">
@@ -1013,7 +1100,7 @@
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -1023,6 +1110,9 @@
       </c>
       <c r="H3" t="s">
         <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -1039,7 +1129,7 @@
         <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
         <v>56</v>
@@ -1049,6 +1139,9 @@
       </c>
       <c r="H4" t="s">
         <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="5">
@@ -1065,7 +1158,7 @@
         <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>60</v>
@@ -1075,6 +1168,9 @@
       </c>
       <c r="H5" t="s">
         <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6">
@@ -1091,7 +1187,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F6" t="s">
         <v>64</v>
@@ -1101,6 +1197,9 @@
       </c>
       <c r="H6" t="s">
         <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7">
@@ -1117,7 +1216,7 @@
         <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
         <v>68</v>
@@ -1127,6 +1226,9 @@
       </c>
       <c r="H7" t="s">
         <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1245,7 @@
         <v>71</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
         <v>73</v>
@@ -1153,6 +1255,9 @@
       </c>
       <c r="H8" t="s">
         <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -1180,6 +1285,9 @@
       <c r="H9" t="s">
         <v>48</v>
       </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -1195,7 +1303,7 @@
         <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
         <v>78</v>
@@ -1205,6 +1313,9 @@
       </c>
       <c r="H10" t="s">
         <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="11">
@@ -1221,7 +1332,7 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
         <v>81</v>
@@ -1231,6 +1342,9 @@
       </c>
       <c r="H11" t="s">
         <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="12">
@@ -1247,7 +1361,7 @@
         <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
         <v>85</v>
@@ -1257,6 +1371,9 @@
       </c>
       <c r="H12" t="s">
         <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13">
@@ -1273,7 +1390,7 @@
         <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
         <v>90</v>
@@ -1283,6 +1400,9 @@
       </c>
       <c r="H13" t="s">
         <v>91</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14">
@@ -1299,7 +1419,7 @@
         <v>93</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="F14" t="s">
         <v>95</v>
@@ -1309,6 +1429,9 @@
       </c>
       <c r="H14" t="s">
         <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="15">
@@ -1325,7 +1448,7 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="F15" t="s">
         <v>100</v>
@@ -1335,6 +1458,9 @@
       </c>
       <c r="H15" t="s">
         <v>101</v>
+      </c>
+      <c r="I15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16">
@@ -1351,7 +1477,7 @@
         <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
         <v>105</v>
@@ -1361,6 +1487,9 @@
       </c>
       <c r="H16" t="s">
         <v>106</v>
+      </c>
+      <c r="I16" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="17">
@@ -1377,7 +1506,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1387,6 +1516,9 @@
       </c>
       <c r="H17" t="s">
         <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -1414,6 +1546,9 @@
       <c r="H18" t="s">
         <v>48</v>
       </c>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -1429,7 +1564,7 @@
         <v>113</v>
       </c>
       <c r="E19" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
         <v>115</v>
@@ -1439,6 +1574,9 @@
       </c>
       <c r="H19" t="s">
         <v>116</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -1455,7 +1593,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
         <v>119</v>
@@ -1465,6 +1603,9 @@
       </c>
       <c r="H20" t="s">
         <v>120</v>
+      </c>
+      <c r="I20" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21">
@@ -1481,7 +1622,7 @@
         <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
         <v>124</v>
@@ -1491,6 +1632,9 @@
       </c>
       <c r="H21" t="s">
         <v>125</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -1510,13 +1654,16 @@
         <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
         <v>48</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -1533,16 +1680,19 @@
         <v>167</v>
       </c>
       <c r="E23" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
         <v>48</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24">
@@ -1559,7 +1709,7 @@
         <v>54</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="F24" t="s">
         <v>128</v>
@@ -1569,6 +1719,9 @@
       </c>
       <c r="H24" t="s">
         <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25">
@@ -1585,7 +1738,7 @@
         <v>130</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
         <v>132</v>
@@ -1595,6 +1748,9 @@
       </c>
       <c r="H25" t="s">
         <v>133</v>
+      </c>
+      <c r="I25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="26">
@@ -1611,7 +1767,7 @@
         <v>54</v>
       </c>
       <c r="E26" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F26" t="s">
         <v>136</v>
@@ -1621,6 +1777,9 @@
       </c>
       <c r="H26" t="s">
         <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="27">
@@ -1637,7 +1796,7 @@
         <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="F27" t="s">
         <v>140</v>
@@ -1647,6 +1806,9 @@
       </c>
       <c r="H27" t="s">
         <v>96</v>
+      </c>
+      <c r="I27" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28">
@@ -1663,7 +1825,7 @@
         <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
         <v>144</v>
@@ -1673,6 +1835,9 @@
       </c>
       <c r="H28" t="s">
         <v>145</v>
+      </c>
+      <c r="I28" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\2023USRAResearch\CovidClef2023\covidClef2023\Covid_19_Dataset_and_References\References\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE35201-A863-40FC-824C-F4E4F0AFC952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="250">
   <si>
     <t>Doi</t>
   </si>
@@ -155,9 +162,6 @@
 </t>
   </si>
   <si>
-    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0, Caitlin%Baptiste%NULL%1, Cynthia%Gyamfi-Bannerman%NULL%1, Russell%Miller%NULL%1, Rebecca%Martinez%NULL%1, Kyra%Bernstein%NULL%1, Laurence%Ring%NULL%1, Ruth%Landau%NULL%1, Stephanie%Purisch%NULL%1, Alexander M.%Friedman%NULL%1, Karin%Fuchs%NULL%1, Desmond%Sutton%NULL%0, Maria%Andrikopoulou%NULL%1, Devon%Rupley%NULL%1, Jean-Ju%Sheen%NULL%1, Janice%Aubey%NULL%1, Noelia%Zork%NULL%1, Leslie%Moroz%NULL%1, Mirella%Mourad%NULL%1, Ronald%Wapner%NULL%1, Lynn L.%Simpson%NULL%1, Mary E.%D’Alton%NULL%1, Dena%Goffman%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7144599</t>
   </si>
   <si>
@@ -178,9 +182,6 @@
 </t>
   </si>
   <si>
-    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1, Munir%Nazir%NULL%1, Martin%Gimovsky%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7194868</t>
   </si>
   <si>
@@ -188,9 +189,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>[William S.%Vintzileos%NULL%1, Jolene%Muscat%NULL%2, Jolene%Muscat%NULL%0, Eva%Hoffmann%NULL%1, Nicole S.%John%NULL%1, Rosanne%Vertichio%NULL%1, Anthony M.%Vintzileos%NULL%1, Duc%Vo%NULL%2, Duc%Vo%NULL%0]</t>
   </si>
   <si>
     <t>PMC7194835</t>
@@ -205,9 +203,6 @@
 </t>
   </si>
   <si>
-    <t>[William T.%Schnettler%william_schnettler@trihealth.com%1, Yousef%Al Ahwel%NULL%1, Anju%Suhag%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7194528</t>
   </si>
   <si>
@@ -215,9 +210,6 @@
   </si>
   <si>
     <t>An Uncomplicated Delivery in a Patient with Covid-19 in the United States</t>
-  </si>
-  <si>
-    <t>[Sara N.%Iqbal%NULL%1, Rachael%Overcash%NULL%1, Neggin%Mokhtari%NULL%1, Haleema%Saeed%NULL%1, Stacey%Gold%NULL%1, Tamika%Auguste%NULL%1, Muhammad-Usman%Mirza%NULL%1, Maria-Elena%Ruiz%NULL%1, Joeffrey J.%Chahine%NULL%2, Joeffrey J.%Chahine%NULL%0, Masashi%Waga%NULL%2, Masashi%Waga%NULL%0, Glenn%Wortmann%NULL%1]</t>
   </si>
   <si>
     <t>PMC7153431</t>
@@ -230,9 +222,6 @@
  This case report describes successful treatment of preterm labor during acute COVID-19 infection.
  Standard treatment for preterm labor may allow patients with acute COVID-19 infection to recover without the need for preterm delivery.
 </t>
-  </si>
-  <si>
-    <t>[Paul C.%Browne%NULL%1, Jennifer B.%Linfert%NULL%1, Emilio%Perez-Jorge%NULL%1]</t>
   </si>
   <si>
     <t>PMC7356059</t>
@@ -267,9 +256,6 @@
 </t>
   </si>
   <si>
-    <t>[Jie%Yan%NULL%0, Juanjuan%Guo%NULL%1, Cuifang%Fan%NULL%1, Juan%Juan%NULL%1, Xuechen%Yu%NULL%1, Jiafu%Li%NULL%1, Ling%Feng%NULL%1, Chunyan%Li%NULL%1, Huijun%Chen%NULL%0, Yuan%Qiao%NULL%1, Di%Lei%NULL%1, Chen%Wang%NULL%1, Guoping%Xiong%NULL%1, Fengyi%Xiao%NULL%1, Wencong%He%NULL%1, Qiumei%Pang%NULL%3, Xiaoling%Hu%NULL%1, Suqing%Wang%NULL%1, Dunjin%Chen%NULL%1, Yuanzhen%Zhang%NULL%1, Liona C.%Poon%NULL%1, Huixia%Yang%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7177142</t>
   </si>
   <si>
@@ -282,18 +268,12 @@
     <t>We presented a case of a 30-week pregnant woman with COVID-19 delivering a healthy baby with no evidence of COVID-19.</t>
   </si>
   <si>
-    <t>[Xiaotong%Wang%NULL%1, Zhiqiang%Zhou%NULL%1, Jianping%Zhang%NULL%1, Fengfeng%Zhu%NULL%1, Yongyan%Tang%NULL%1, Xinghua%Shen%luckydrx@163.com%1]</t>
-  </si>
-  <si>
     <t>PMC7108126</t>
   </si>
   <si>
     <t>A patient with SARS-CoV-2 infection during pregnancy in Qingdao, China</t>
   </si>
   <si>
-    <t>[Rong%Wen%wenxueqian_1111@163.com%1, Yue%Sun%101799@qdfe.com%1, Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
-  </si>
-  <si>
     <t>PMC7128446</t>
   </si>
   <si>
@@ -301,9 +281,6 @@
   </si>
   <si>
     <t>Chest CT Findings in a Pregnant Patient with 2019 Novel Coronavirus Disease</t>
-  </si>
-  <si>
-    <t>[Xinggui%Liao%NULL%1, Huan%Yang%NULL%1, Junfeng%Kong%NULL%2, Junfeng%Kong%NULL%0, Hongbing%Yang%NULL%1]</t>
   </si>
   <si>
     <t>PMC7285659</t>
@@ -323,9 +300,6 @@
 </t>
   </si>
   <si>
-    <t>[Liusheng%Hou%NULL%1, Mingxing%Li%NULL%1, Kai%Guo%NULL%1, Weijia%Wang%NULL%1, Binfei%Li%NULL%1, Jianwei%Li%NULL%1, Yong%Yuan%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7441876</t>
   </si>
   <si>
@@ -341,9 +315,6 @@
  A live birth without severe acute respiratory syndrome coronavirus 2 (SARS‐CoV‐2) infection was performed successfully via the vagina.
  The findings from our case indicate that there is no intrauterine transmission in this woman who developed COVID‐19 pneumonia in late pregnancy.
 </t>
-  </si>
-  <si>
-    <t>[Xiali%Xiong%NULL%1, Hong%Wei%NULL%2, Hong%Wei%NULL%0, Zhihong%Zhang%NULL%1, Jing%Chang%NULL%1, Xiaopeng%Ma%NULL%1, Xiang%Gao%NULL%1, Qiang%Chen%qiangchen2015@sina.com%1, Qiumei%Pang%pqm19650930@sina.com%0, Qiumei%Pang%pqm19650930@sina.com%0]</t>
   </si>
   <si>
     <t>PMC7262245</t>
@@ -363,9 +334,6 @@
  The nucleic acid test from the mother's amniotic fluid, vaginal secretions, cord blood, placenta, serum, anal swab, and breast milk were also negative.
  The most comprehensively tested case reported to date confirmed that the vertical transmission of COVID is unlikely, but still, more evidence is needed.
 </t>
-  </si>
-  <si>
-    <t>[Zhoujie%Peng%NULL%1, Jianhui%Wang%NULL%1, Yunbo%Mo%NULL%1, Wei%Duan%NULL%1, Guangjun%Xiang%NULL%1, Ming%Yi%NULL%1, Lei%Bao%NULL%1, Yuan%Shi%NULL%0]</t>
   </si>
   <si>
     <t>PMC7151521</t>
@@ -386,9 +354,6 @@
  The puerpera returned to normal after the operation and two times of throat swab COVID‐19 nucleic acid test were all negative after antiviral therapy.
  We reported an asymptomatic COVID‐19 pregnant woman with detailed clinical information and our result indicated that for late pregnant women with asymptomatic COVID‐19 infection, there might be no intrauterine infection caused by vertical transmission.
 </t>
-  </si>
-  <si>
-    <t>[Dawei%Lu%NULL%1, Lin%Sang%NULL%1, Shihua%Du%NULL%1, Tao%Li%NULL%1, Yange%Chang%NULL%1, Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
   </si>
   <si>
     <t>PMC7264617</t>
@@ -414,9 +379,6 @@
 </t>
   </si>
   <si>
-    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0, Luigi%Frigerio%NULL%1, Irene%Cetin%NULL%1, Patrizia%Vergani%NULL%1, Arsenio%Spinillo%NULL%1, Federico%Prefumo%NULL%1, Edda%Pellegrini%NULL%1, Gianluigi%Gargantini%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC9087792</t>
   </si>
   <si>
@@ -435,9 +397,6 @@
 </t>
   </si>
   <si>
-    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1, Alexandre J.%Vivanti%NULL%1, Nadine%Shehata%NULL%1, Alexandra%Benachi%NULL%1, Agnes%Le Gouez%NULL%1, Celine%Desconclois%NULL%1, Wendy%Whittle%NULL%1, John%Snelgrove%NULL%1, Ann Kinga%Malinowski%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC9770955</t>
   </si>
   <si>
@@ -445,9 +404,6 @@
   </si>
   <si>
     <t>A pregnant woman with COVID-19 in Central America</t>
-  </si>
-  <si>
-    <t>[Lysien I.%Zambrano%NULL%1, Itzel Carolina%Fuentes-Barahona%NULL%2, Itzel Carolina%Fuentes-Barahona%NULL%0, Daysi Anabell%Bejarano-Torres%NULL%1, Carolina%Bustillo%NULL%1, Gloria%Gonzales%NULL%1, Gissela%Vallecillo-Chinchilla%NULL%1, Fredal Eduardo%Sanchez-Martínez%NULL%2, Fredal Eduardo%Sanchez-Martínez%NULL%0, Jorge Alberto%Valle-Reconco%NULL%1, Manuel%Sierra%NULL%2, Manuel%Sierra%NULL%0, D. Katterine%Bonilla-Aldana%NULL%2, D. Katterine%Bonilla-Aldana%NULL%0, Jaime A.%Cardona-Ospina%NULL%2, Jaime A.%Cardona-Ospina%NULL%0, Alfonso J.%Rodríguez-Morales%NULL%1]</t>
   </si>
   <si>
     <t>PMC7271224</t>
@@ -470,9 +426,6 @@
 </t>
   </si>
   <si>
-    <t>[Dong Hwan%Lee%NULL%1, Jihyang%Lee%NULL%2, Jihyang%Lee%NULL%0, Eunju%Kim%NULL%2, Eunju%Kim%NULL%0, Kyeongyoon%Woo%NULL%2, Kyeongyoon%Woo%NULL%0, Hak Youle%Park%NULL%2, Hak Youle%Park%NULL%0, Jihyun%An%NULL%2, Jihyun%An%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7403113</t>
   </si>
   <si>
@@ -480,9 +433,6 @@
   </si>
   <si>
     <t>WITHDRAWN: Mortality of a pregnant patient diagnosed with COVID-19: A case report with clinical, radiological, and histopathological findings</t>
-  </si>
-  <si>
-    <t>[Parisa%Karami%NULL%1, Maliheh%Naghavi%NULL%1, Abdolamir%Feyzi%NULL%1, Mehdi%Aghamohammadi%NULL%1, Mohammad Sadegh%Novin%NULL%1, Ahmadreza%Mobaien%NULL%1, Mohamad%Qorbanisani%NULL%1, Aida%Karami%NULL%1, Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
   </si>
   <si>
     <t>PMC7151464</t>
@@ -500,9 +450,6 @@
 </t>
   </si>
   <si>
-    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1, Benjamin%Bopp%NULL%2, Benjamin%Bopp%NULL%0]</t>
-  </si>
-  <si>
     <t>PMC7262173</t>
   </si>
   <si>
@@ -510,9 +457,6 @@
   </si>
   <si>
     <t>Pronóstico perinatal y de la paciente embarazada con infección por COVID-19</t>
-  </si>
-  <si>
-    <t>[D.%González Romero%NULL%1, J.%Ocampo Pérez%NULL%1, L.%González Bautista%NULL%1, L.%Santana-Cabrera%NULL%1]</t>
   </si>
   <si>
     <t>PMC7164884</t>
@@ -535,9 +479,6 @@
 </t>
   </si>
   <si>
-    <t>[Maria Claudia%Alzamora%NULL%1, Tania%Paredes%NULL%2, Tania%Paredes%NULL%0, David%Caceres%NULL%1, Camille M.%Webb%NULL%1, Luis M.%Valdez%NULL%1, Mauricio%La Rosa%NULL%1]</t>
-  </si>
-  <si>
     <t>PMC7356080</t>
   </si>
   <si>
@@ -548,73 +489,13 @@
 </t>
   </si>
   <si>
-    <t>[K. Aparna%Sharma%NULL%1, Rajesh%Kumari%NULL%1, Garima%Kachhawa%NULL%1, Anjolie%Chhabra%NULL%1, Ramesh%Agarwal%NULL%1, Akash%Sharma%NULL%1, Sunesh%Kumar%NULL%1, Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
-  </si>
-  <si>
     <t>PMC9087786</t>
   </si>
   <si>
     <t>2020-04-20</t>
   </si>
   <si>
-    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,  Caitlin%Baptiste%NULL%0,  Cynthia%Gyamfi-Bannerman%NULL%0,  Russell%Miller%NULL%0,  Rebecca%Martinez%NULL%0,  Kyra%Bernstein%NULL%0,  Laurence%Ring%NULL%0,  Ruth%Landau%NULL%0,  Stephanie%Purisch%NULL%0,  Alexander M.%Friedman%NULL%0,  Karin%Fuchs%NULL%0,  Desmond%Sutton%NULL%0,  Maria%Andrikopoulou%NULL%0,  Devon%Rupley%NULL%0,  Jean-Ju%Sheen%NULL%0,  Janice%Aubey%NULL%0,  Noelia%Zork%NULL%0,  Leslie%Moroz%NULL%0,  Mirella%Mourad%NULL%0,  Ronald%Wapner%NULL%0,  Lynn L.%Simpson%NULL%0,  Mary E.%D’Alton%NULL%0,  Dena%Goffman%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,  Munir%Nazir%NULL%1,  Martin%Gimovsky%NULL%1]</t>
-  </si>
-  <si>
-    <t>[William S.%Vintzileos%NULL%1,  Jolene%Muscat%NULL%2,  Jolene%Muscat%NULL%0,  Eva%Hoffmann%NULL%1,  Nicole S.%John%NULL%1,  Rosanne%Vertichio%NULL%1,  Anthony M.%Vintzileos%NULL%1,  Duc%Vo%NULL%2,  Duc%Vo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,  Yousef%Al Ahwel%NULL%2,  Anju%Suhag%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Sara N.%Iqbal%NULL%2,  Rachael%Overcash%NULL%2,  Neggin%Mokhtari%NULL%2,  Haleema%Saeed%NULL%2,  Stacey%Gold%NULL%2,  Tamika%Auguste%NULL%2,  Muhammad-Usman%Mirza%NULL%2,  Maria-Elena%Ruiz%NULL%2,  Joeffrey J.%Chahine%NULL%4,  Joeffrey J.%Chahine%NULL%0,  Masashi%Waga%NULL%4,  Masashi%Waga%NULL%0,  Glenn%Wortmann%NULL%2]</t>
-  </si>
-  <si>
-    <t>[Paul C.%Browne%NULL%1,  Jennifer B.%Linfert%NULL%1,  Emilio%Perez-Jorge%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jie%Yan%NULL%0,  Juanjuan%Guo%NULL%0,  Cuifang%Fan%NULL%0,  Juan%Juan%NULL%0,  Xuechen%Yu%NULL%0,  Jiafu%Li%NULL%0,  Ling%Feng%NULL%0,  Chunyan%Li%NULL%0,  Huijun%Chen%NULL%0,  Yuan%Qiao%NULL%0,  Di%Lei%NULL%0,  Chen%Wang%NULL%0,  Guoping%Xiong%NULL%0,  Fengyi%Xiao%NULL%0,  Wencong%He%NULL%0,  Qiumei%Pang%NULL%0,  Xiaoling%Hu%NULL%0,  Suqing%Wang%NULL%0,  Dunjin%Chen%NULL%0,  Yuanzhen%Zhang%NULL%0,  Liona C.%Poon%NULL%0,  Huixia%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaotong%Wang%NULL%3,  Zhiqiang%Zhou%NULL%3,  Jianping%Zhang%NULL%3,  Fengfeng%Zhu%NULL%3,  Yongyan%Tang%NULL%3,  Xinghua%Shen%luckydrx@163.com%3]</t>
-  </si>
-  <si>
-    <t>[Rong%Wen%wenxueqian_1111@163.com%1,  Yue%Sun%101799@qdfe.com%1,  Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
-  </si>
-  <si>
-    <t>[Xinggui%Liao%NULL%1,  Huan%Yang%NULL%1,  Junfeng%Kong%NULL%2,  Junfeng%Kong%NULL%0,  Hongbing%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Liusheng%Hou%NULL%1,  Mingxing%Li%NULL%1,  Kai%Guo%NULL%1,  Weijia%Wang%NULL%1,  Binfei%Li%NULL%1,  Jianwei%Li%NULL%2,  Yong%Yuan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiali%Xiong%NULL%2,  Hong%Wei%NULL%4,  Hong%Wei%NULL%0,  Zhihong%Zhang%NULL%2,  Jing%Chang%NULL%2,  Xiaopeng%Ma%NULL%2,  Xiang%Gao%NULL%2,  Qiang%Chen%qiangchen2015@sina.com%2,  Qiumei%Pang%pqm19650930@sina.com%0,  Qiumei%Pang%pqm19650930@sina.com%0]</t>
-  </si>
-  <si>
-    <t>[Zhoujie%Peng%NULL%2,  Jianhui%Wang%NULL%2,  Yunbo%Mo%NULL%2,  Wei%Duan%NULL%2,  Guangjun%Xiang%NULL%2,  Ming%Yi%NULL%2,  Lei%Bao%NULL%2,  Yuan%Shi%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Dawei%Lu%NULL%2,  Lin%Sang%NULL%2,  Shihua%Du%NULL%2,  Tao%Li%NULL%0,  Yange%Chang%NULL%2,  Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,  Luigi%Frigerio%NULL%0,  Irene%Cetin%NULL%0,  Patrizia%Vergani%NULL%0,  Arsenio%Spinillo%NULL%0,  Federico%Prefumo%NULL%0,  Edda%Pellegrini%NULL%0,  Gianluigi%Gargantini%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,  Alexandre J.%Vivanti%NULL%1,  Nadine%Shehata%NULL%1,  Alexandra%Benachi%NULL%1,  Agnes%Le Gouez%NULL%1,  Celine%Desconclois%NULL%1,  Wendy%Whittle%NULL%1,  John%Snelgrove%NULL%1,  Ann Kinga%Malinowski%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Lysien I.%Zambrano%NULL%1,  Itzel Carolina%Fuentes-Barahona%NULL%2,  Itzel Carolina%Fuentes-Barahona%NULL%0,  Daysi Anabell%Bejarano-Torres%NULL%1,  Carolina%Bustillo%NULL%2,  Gloria%Gonzales%NULL%1,  Gissela%Vallecillo-Chinchilla%NULL%1,  Fredal Eduardo%Sanchez-Martínez%NULL%2,  Fredal Eduardo%Sanchez-Martínez%NULL%0,  Jorge Alberto%Valle-Reconco%NULL%1,  Manuel%Sierra%NULL%2,  Manuel%Sierra%NULL%0,  D. Katterine%Bonilla-Aldana%NULL%0,  D. Katterine%Bonilla-Aldana%NULL%0,  Jaime A.%Cardona-Ospina%NULL%0,  Jaime A.%Cardona-Ospina%NULL%0,  Alfonso J.%Rodríguez-Morales%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Dong Hwan%Lee%NULL%4,  Jihyang%Lee%NULL%8,  Jihyang%Lee%NULL%0,  Eunju%Kim%NULL%8,  Eunju%Kim%NULL%0,  Kyeongyoon%Woo%NULL%8,  Kyeongyoon%Woo%NULL%0,  Hak Youle%Park%NULL%8,  Hak Youle%Park%NULL%0,  Jihyun%An%NULL%8,  Jihyun%An%NULL%0]</t>
-  </si>
-  <si>
     <t>COVID\u201019 in pregnancy with comorbidities: More liberal testing strategy is needed</t>
-  </si>
-  <si>
-    <t>CORE</t>
   </si>
   <si>
     <t>Lung ultrasound and computed tomographic findings in pregnant woman with COVID-19</t>
@@ -628,137 +509,413 @@
  Published by John Wiley \u0026 Sons Ltd</t>
   </si>
   <si>
-    <t>[AZAP%ALPAY%coreGivesNoEmail%1, Kalafat%Erkan%coreGivesNoEmail%1, KO\u00c7%ASLI%coreGivesNoEmail%1, Ozisik%S.%coreGivesNoEmail%1, UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1, VARLI%BULUT%coreGivesNoEmail%1, Yaprak%E.%coreGivesNoEmail%1, \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Parisa%Karami%NULL%1,  Maliheh%Naghavi%NULL%1,  Abdolamir%Feyzi%NULL%1,  Mehdi%Aghamohammadi%NULL%1,  Mohammad Sadegh%Novin%NULL%1,  Ahmadreza%Mobaien%NULL%1,  Mohamad%Qorbanisani%NULL%1,  Aida%Karami%NULL%1,  Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,  Benjamin%Bopp%NULL%2,  Benjamin%Bopp%NULL%0]</t>
-  </si>
-  <si>
-    <t>[D.%González Romero%NULL%1,  J.%Ocampo Pérez%NULL%1,  L.%González Bautista%NULL%1,  L.%Santana-Cabrera%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Maria Claudia%Alzamora%NULL%3,  Tania%Paredes%NULL%6,  Tania%Paredes%NULL%0,  David%Caceres%NULL%3,  Camille M.%Webb%NULL%3,  Luis M.%Valdez%NULL%3,  Mauricio%La Rosa%NULL%3]</t>
-  </si>
-  <si>
-    <t>[K. Aparna%Sharma%NULL%1,  Rajesh%Kumari%NULL%1,  Garima%Kachhawa%NULL%1,  Anjolie%Chhabra%NULL%1,  Ramesh%Agarwal%NULL%1,  Akash%Sharma%NULL%1,  Sunesh%Kumar%NULL%1,  Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
-  </si>
-  <si>
     <t>Other found locations</t>
   </si>
   <si>
-    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,   Caitlin%Baptiste%NULL%0,   Cynthia%Gyamfi-Bannerman%NULL%0,   Russell%Miller%NULL%0,   Rebecca%Martinez%NULL%0,   Kyra%Bernstein%NULL%0,   Laurence%Ring%NULL%0,   Ruth%Landau%NULL%0,   Stephanie%Purisch%NULL%0,   Alexander M.%Friedman%NULL%0,   Karin%Fuchs%NULL%0,   Desmond%Sutton%NULL%0,   Maria%Andrikopoulou%NULL%0,   Devon%Rupley%NULL%0,   Jean-Ju%Sheen%NULL%0,   Janice%Aubey%NULL%0,   Noelia%Zork%NULL%0,   Leslie%Moroz%NULL%0,   Mirella%Mourad%NULL%0,   Ronald%Wapner%NULL%0,   Lynn L.%Simpson%NULL%0,   Mary E.%D’Alton%NULL%0,   Dena%Goffman%NULL%0]</t>
-  </si>
-  <si>
     <t>_PMC_elsevier</t>
   </si>
   <si>
-    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,   Munir%Nazir%NULL%1,   Martin%Gimovsky%NULL%1]</t>
-  </si>
-  <si>
-    <t>[William S.%Vintzileos%NULL%1,   Jolene%Muscat%NULL%2,   Jolene%Muscat%NULL%0,   Eva%Hoffmann%NULL%1,   Nicole S.%John%NULL%1,   Rosanne%Vertichio%NULL%1,   Anthony M.%Vintzileos%NULL%1,   Duc%Vo%NULL%2,   Duc%Vo%NULL%0]</t>
-  </si>
-  <si>
-    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,   Yousef%Al Ahwel%NULL%1,   Anju%Suhag%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Sara N.%Iqbal%NULL%2,   Rachael%Overcash%NULL%1,   Neggin%Mokhtari%NULL%1,   Haleema%Saeed%NULL%1,   Stacey%Gold%NULL%1,   Tamika%Auguste%NULL%1,   Muhammad-Usman%Mirza%NULL%1,   Maria-Elena%Ruiz%NULL%1,   Joeffrey J.%Chahine%NULL%2,   Joeffrey J.%Chahine%NULL%0,   Masashi%Waga%NULL%2,   Masashi%Waga%NULL%0,   Glenn%Wortmann%NULL%1]</t>
-  </si>
-  <si>
     <t>_PMC</t>
   </si>
   <si>
-    <t>[Paul C.%Browne%NULL%1,   Jennifer B.%Linfert%NULL%1,   Emilio%Perez-Jorge%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Jie%Yan%NULL%0,   Juanjuan%Guo%NULL%0,   Cuifang%Fan%NULL%0,   Juan%Juan%NULL%0,   Xuechen%Yu%NULL%0,   Jiafu%Li%NULL%0,   Ling%Feng%NULL%0,   Chunyan%Li%NULL%0,   Huijun%Chen%NULL%0,   Yuan%Qiao%NULL%0,   Di%Lei%NULL%0,   Chen%Wang%NULL%0,   Guoping%Xiong%NULL%0,   Fengyi%Xiao%NULL%0,   Wencong%He%NULL%0,   Qiumei%Pang%NULL%0,   Xiaoling%Hu%NULL%0,   Suqing%Wang%NULL%0,   Dunjin%Chen%NULL%0,   Yuanzhen%Zhang%NULL%0,   Liona C.%Poon%NULL%0,   Huixia%Yang%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Xiaotong%Wang%NULL%3,   Zhiqiang%Zhou%NULL%2,   Jianping%Zhang%NULL%2,   Fengfeng%Zhu%NULL%2,   Yongyan%Tang%NULL%2,   Xinghua%Shen%luckydrx@163.com%2]</t>
-  </si>
-  <si>
-    <t>[Rong%Wen%wenxueqian_1111@163.com%1,   Yue%Sun%101799@qdfe.com%1,   Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
-  </si>
-  <si>
-    <t>[Xinggui%Liao%NULL%1,   Huan%Yang%NULL%1,   Junfeng%Kong%NULL%2,   Junfeng%Kong%NULL%0,   Hongbing%Yang%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Liusheng%Hou%NULL%1,   Mingxing%Li%NULL%1,   Kai%Guo%NULL%1,   Weijia%Wang%NULL%1,   Binfei%Li%NULL%1,   Jianwei%Li%NULL%1,   Yong%Yuan%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Xiali%Xiong%NULL%2,   Hong%Wei%NULL%2,   Hong%Wei%NULL%0,   Zhihong%Zhang%NULL%1,   Jing%Chang%NULL%1,   Xiaopeng%Ma%NULL%1,   Xiang%Gao%NULL%1,   Qiang%Chen%qiangchen2015@sina.com%1,   Qiumei%Pang%pqm19650930@sina.com%0,   Qiumei%Pang%pqm19650930@sina.com%0]</t>
-  </si>
-  <si>
-    <t>[Zhoujie%Peng%NULL%2,   Jianhui%Wang%NULL%1,   Yunbo%Mo%NULL%1,   Wei%Duan%NULL%1,   Guangjun%Xiang%NULL%1,   Ming%Yi%NULL%1,   Lei%Bao%NULL%1,   Yuan%Shi%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Dawei%Lu%NULL%2,   Lin%Sang%NULL%2,   Shihua%Du%NULL%2,   Tao%Li%NULL%0,   Yange%Chang%NULL%2,   Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%2]</t>
-  </si>
-  <si>
-    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,   Luigi%Frigerio%NULL%0,   Irene%Cetin%NULL%0,   Patrizia%Vergani%NULL%0,   Arsenio%Spinillo%NULL%0,   Federico%Prefumo%NULL%0,   Edda%Pellegrini%NULL%0,   Gianluigi%Gargantini%NULL%0]</t>
-  </si>
-  <si>
-    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,   Alexandre J.%Vivanti%NULL%1,   Nadine%Shehata%NULL%1,   Alexandra%Benachi%NULL%1,   Agnes%Le Gouez%NULL%1,   Celine%Desconclois%NULL%1,   Wendy%Whittle%NULL%1,   John%Snelgrove%NULL%1,   Ann Kinga%Malinowski%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Lysien I.%Zambrano%NULL%1,   Itzel Carolina%Fuentes-Barahona%NULL%2,   Itzel Carolina%Fuentes-Barahona%NULL%0,   Daysi Anabell%Bejarano-Torres%NULL%1,   Carolina%Bustillo%NULL%2,   Gloria%Gonzales%NULL%1,   Gissela%Vallecillo-Chinchilla%NULL%1,   Fredal Eduardo%Sanchez-Martínez%NULL%2,   Fredal Eduardo%Sanchez-Martínez%NULL%0,   Jorge Alberto%Valle-Reconco%NULL%1,   Manuel%Sierra%NULL%2,   Manuel%Sierra%NULL%0,   D. Katterine%Bonilla-Aldana%NULL%0,   D. Katterine%Bonilla-Aldana%NULL%0,   Jaime A.%Cardona-Ospina%NULL%0,   Jaime A.%Cardona-Ospina%NULL%0,   Alfonso J.%Rodríguez-Morales%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Dong Hwan%Lee%NULL%4,   Jihyang%Lee%NULL%4,   Jihyang%Lee%NULL%0,   Eunju%Kim%NULL%4,   Eunju%Kim%NULL%0,   Kyeongyoon%Woo%NULL%4,   Kyeongyoon%Woo%NULL%0,   Hak Youle%Park%NULL%4,   Hak Youle%Park%NULL%0,   Jihyun%An%NULL%4,   Jihyun%An%NULL%0]</t>
-  </si>
-  <si>
-    <t>[AZAP%ALPAY%coreGivesNoEmail%2,  Kalafat%Erkan%coreGivesNoEmail%1,  KO\u00c7%ASLI%coreGivesNoEmail%1,  Ozisik%S.%coreGivesNoEmail%1,  UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,  VARLI%BULUT%coreGivesNoEmail%1,  Yaprak%E.%coreGivesNoEmail%1,  \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
-  </si>
-  <si>
-    <t>[Parisa%Karami%NULL%1,   Maliheh%Naghavi%NULL%1,   Abdolamir%Feyzi%NULL%1,   Mehdi%Aghamohammadi%NULL%1,   Mohammad Sadegh%Novin%NULL%1,   Ahmadreza%Mobaien%NULL%1,   Mohamad%Qorbanisani%NULL%1,   Aida%Karami%NULL%1,   Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
-  </si>
-  <si>
-    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,   Benjamin%Bopp%NULL%2,   Benjamin%Bopp%NULL%0]</t>
-  </si>
-  <si>
-    <t>[D.%González Romero%NULL%1,   J.%Ocampo Pérez%NULL%1,   L.%González Bautista%NULL%1,   L.%Santana-Cabrera%NULL%1]</t>
-  </si>
-  <si>
-    <t>[Maria Claudia%Alzamora%NULL%3,   Tania%Paredes%NULL%4,   Tania%Paredes%NULL%0,   David%Caceres%NULL%2,   Camille M.%Webb%NULL%2,   Luis M.%Valdez%NULL%2,   Mauricio%La Rosa%NULL%2]</t>
-  </si>
-  <si>
-    <t>[K. Aparna%Sharma%NULL%1,   Rajesh%Kumari%NULL%1,   Garima%Kachhawa%NULL%1,   Anjolie%Chhabra%NULL%1,   Ramesh%Agarwal%NULL%1,   Akash%Sharma%NULL%1,   Sunesh%Kumar%NULL%1,   Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,    Caitlin%Baptiste%NULL%1,    Cynthia%Gyamfi-Bannerman%NULL%1,    Russell%Miller%NULL%1,    Rebecca%Martinez%NULL%1,    Kyra%Bernstein%NULL%1,    Laurence%Ring%NULL%1,    Ruth%Landau%NULL%1,    Stephanie%Purisch%NULL%1,    Alexander M.%Friedman%NULL%1,    Karin%Fuchs%NULL%1,    Desmond%Sutton%NULL%1,    Maria%Andrikopoulou%NULL%1,    Devon%Rupley%NULL%1,    Jean-Ju%Sheen%NULL%1,    Janice%Aubey%NULL%1,    Noelia%Zork%NULL%1,    Leslie%Moroz%NULL%1,    Mirella%Mourad%NULL%1,    Ronald%Wapner%NULL%1,    Lynn L.%Simpson%NULL%1,    Mary E.%D’Alton%NULL%1,    Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,    Munir%Nazir%NULL%1,    Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,    Jolene%Muscat%NULL%2,    Jolene%Muscat%NULL%0,    Eva%Hoffmann%NULL%1,    Nicole S.%John%NULL%1,    Rosanne%Vertichio%NULL%1,    Anthony M.%Vintzileos%NULL%1,    Duc%Vo%NULL%2,    Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,    Yousef%Al Ahwel%NULL%1,    Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,    Rachael%Overcash%NULL%1,    Neggin%Mokhtari%NULL%1,    Haleema%Saeed%NULL%1,    Stacey%Gold%NULL%1,    Tamika%Auguste%NULL%1,    Muhammad-Usman%Mirza%NULL%1,    Maria-Elena%Ruiz%NULL%1,    Joeffrey J.%Chahine%NULL%2,    Joeffrey J.%Chahine%NULL%0,    Masashi%Waga%NULL%2,    Masashi%Waga%NULL%0,    Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,    Jennifer B.%Linfert%NULL%1,    Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,    Juanjuan%Guo%NULL%1,    Cuifang%Fan%NULL%1,    Juan%Juan%NULL%1,    Xuechen%Yu%NULL%1,    Jiafu%Li%NULL%1,    Ling%Feng%NULL%1,    Chunyan%Li%NULL%1,    Huijun%Chen%NULL%1,    Yuan%Qiao%NULL%1,    Di%Lei%NULL%1,    Chen%Wang%NULL%1,    Guoping%Xiong%NULL%1,    Fengyi%Xiao%NULL%1,    Wencong%He%NULL%1,    Qiumei%Pang%NULL%3,    Xiaoling%Hu%NULL%1,    Suqing%Wang%NULL%1,    Dunjin%Chen%NULL%1,    Yuanzhen%Zhang%NULL%1,    Liona C.%Poon%NULL%1,    Huixia%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,    Zhiqiang%Zhou%NULL%2,    Jianping%Zhang%NULL%2,    Fengfeng%Zhu%NULL%2,    Yongyan%Tang%NULL%2,    Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,    Yue%Sun%101799@qdfe.com%1,    Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,    Huan%Yang%NULL%1,    Junfeng%Kong%NULL%2,    Junfeng%Kong%NULL%0,    Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,    Mingxing%Li%NULL%1,    Kai%Guo%NULL%1,    Weijia%Wang%NULL%1,    Binfei%Li%NULL%1,    Jianwei%Li%NULL%1,    Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,    Hong%Wei%NULL%2,    Hong%Wei%NULL%0,    Zhihong%Zhang%NULL%1,    Jing%Chang%NULL%1,    Xiaopeng%Ma%NULL%1,    Xiang%Gao%NULL%1,    Qiang%Chen%qiangchen2015@sina.com%1,    Qiumei%Pang%pqm19650930@sina.com%0,    Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,    Jianhui%Wang%NULL%1,    Yunbo%Mo%NULL%1,    Wei%Duan%NULL%0,    Guangjun%Xiang%NULL%1,    Ming%Yi%NULL%1,    Lei%Bao%NULL%1,    Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,    Lin%Sang%NULL%2,    Shihua%Du%NULL%2,    Tao%Li%NULL%0,    Yange%Chang%NULL%2,    Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,    Luigi%Frigerio%NULL%1,    Irene%Cetin%NULL%1,    Patrizia%Vergani%NULL%1,    Arsenio%Spinillo%NULL%1,    Federico%Prefumo%NULL%1,    Edda%Pellegrini%NULL%1,    Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,    Alexandre J.%Vivanti%NULL%1,    Nadine%Shehata%NULL%1,    Alexandra%Benachi%NULL%1,    Agnes%Le Gouez%NULL%1,    Celine%Desconclois%NULL%1,    Wendy%Whittle%NULL%1,    John%Snelgrove%NULL%1,    Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,    Itzel Carolina%Fuentes-Barahona%NULL%2,    Itzel Carolina%Fuentes-Barahona%NULL%0,    Daysi Anabell%Bejarano-Torres%NULL%1,    Carolina%Bustillo%NULL%2,    Gloria%Gonzales%NULL%1,    Gissela%Vallecillo-Chinchilla%NULL%1,    Fredal Eduardo%Sanchez-Martínez%NULL%2,    Fredal Eduardo%Sanchez-Martínez%NULL%0,    Jorge Alberto%Valle-Reconco%NULL%1,    Manuel%Sierra%NULL%2,    Manuel%Sierra%NULL%0,    D. Katterine%Bonilla-Aldana%NULL%2,    D. Katterine%Bonilla-Aldana%NULL%0,    Jaime A.%Cardona-Ospina%NULL%2,    Jaime A.%Cardona-Ospina%NULL%0,    Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,    Jihyang%Lee%NULL%4,    Jihyang%Lee%NULL%0,    Eunju%Kim%NULL%4,    Eunju%Kim%NULL%0,    Kyeongyoon%Woo%NULL%4,    Kyeongyoon%Woo%NULL%0,    Hak Youle%Park%NULL%4,    Hak Youle%Park%NULL%0,    Jihyun%An%NULL%4,    Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,   Kalafat%Erkan%coreGivesNoEmail%1,   KO\u00c7%ASLI%coreGivesNoEmail%1,   Ozisik%S.%coreGivesNoEmail%1,   UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,   VARLI%BULUT%coreGivesNoEmail%1,   Yaprak%E.%coreGivesNoEmail%1,   \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,    Maliheh%Naghavi%NULL%1,    Abdolamir%Feyzi%NULL%1,    Mehdi%Aghamohammadi%NULL%1,    Mohammad Sadegh%Novin%NULL%1,    Ahmadreza%Mobaien%NULL%1,    Mohamad%Qorbanisani%NULL%1,    Aida%Karami%NULL%1,    Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,    Benjamin%Bopp%NULL%2,    Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,    J.%Ocampo Pérez%NULL%1,    L.%González Bautista%NULL%1,    L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,    Tania%Paredes%NULL%4,    Tania%Paredes%NULL%0,    David%Caceres%NULL%2,    Camille M.%Webb%NULL%2,    Luis M.%Valdez%NULL%2,    Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,    Rajesh%Kumari%NULL%1,    Garima%Kachhawa%NULL%1,    Anjolie%Chhabra%NULL%1,    Ramesh%Agarwal%NULL%1,    Akash%Sharma%NULL%1,    Sunesh%Kumar%NULL%1,    Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,     Caitlin%Baptiste%NULL%2,     Cynthia%Gyamfi-Bannerman%NULL%2,     Russell%Miller%NULL%2,     Rebecca%Martinez%NULL%2,     Kyra%Bernstein%NULL%2,     Laurence%Ring%NULL%2,     Ruth%Landau%NULL%2,     Stephanie%Purisch%NULL%2,     Alexander M.%Friedman%NULL%2,     Karin%Fuchs%NULL%2,     Desmond%Sutton%NULL%2,     Maria%Andrikopoulou%NULL%2,     Devon%Rupley%NULL%2,     Jean-Ju%Sheen%NULL%2,     Janice%Aubey%NULL%2,     Noelia%Zork%NULL%2,     Leslie%Moroz%NULL%2,     Mirella%Mourad%NULL%2,     Ronald%Wapner%NULL%2,     Lynn L.%Simpson%NULL%2,     Mary E.%D’Alton%NULL%2,     Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,     Munir%Nazir%NULL%1,     Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,     Jolene%Muscat%NULL%2,     Jolene%Muscat%NULL%0,     Eva%Hoffmann%NULL%1,     Nicole S.%John%NULL%1,     Rosanne%Vertichio%NULL%1,     Anthony M.%Vintzileos%NULL%1,     Duc%Vo%NULL%2,     Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,     Yousef%Al Ahwel%NULL%2,     Anju%Suhag%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,     Rachael%Overcash%NULL%1,     Neggin%Mokhtari%NULL%1,     Haleema%Saeed%NULL%1,     Stacey%Gold%NULL%1,     Tamika%Auguste%NULL%1,     Muhammad-Usman%Mirza%NULL%1,     Maria-Elena%Ruiz%NULL%1,     Joeffrey J.%Chahine%NULL%2,     Joeffrey J.%Chahine%NULL%0,     Masashi%Waga%NULL%2,     Masashi%Waga%NULL%0,     Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,     Jennifer B.%Linfert%NULL%1,     Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,     Juanjuan%Guo%NULL%1,     Cuifang%Fan%NULL%1,     Juan%Juan%NULL%1,     Xuechen%Yu%NULL%1,     Jiafu%Li%NULL%1,     Ling%Feng%NULL%2,     Chunyan%Li%NULL%1,     Huijun%Chen%NULL%1,     Yuan%Qiao%NULL%1,     Di%Lei%NULL%1,     Chen%Wang%NULL%1,     Guoping%Xiong%NULL%1,     Fengyi%Xiao%NULL%1,     Wencong%He%NULL%1,     Qiumei%Pang%NULL%5,     Xiaoling%Hu%NULL%1,     Suqing%Wang%NULL%1,     Dunjin%Chen%NULL%1,     Yuanzhen%Zhang%NULL%1,     Liona C.%Poon%NULL%1,     Huixia%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,     Zhiqiang%Zhou%NULL%2,     Jianping%Zhang%NULL%2,     Fengfeng%Zhu%NULL%2,     Yongyan%Tang%NULL%2,     Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,     Yue%Sun%101799@qdfe.com%1,     Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,     Huan%Yang%NULL%1,     Junfeng%Kong%NULL%2,     Junfeng%Kong%NULL%0,     Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,     Mingxing%Li%NULL%1,     Kai%Guo%NULL%1,     Weijia%Wang%NULL%1,     Binfei%Li%NULL%1,     Jianwei%Li%NULL%1,     Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,     Hong%Wei%NULL%4,     Hong%Wei%NULL%0,     Zhihong%Zhang%NULL%2,     Jing%Chang%NULL%2,     Xiaopeng%Ma%NULL%2,     Xiang%Gao%NULL%2,     Qiang%Chen%qiangchen2015@sina.com%2,     Qiumei%Pang%pqm19650930@sina.com%0,     Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,     Jianhui%Wang%NULL%2,     Yunbo%Mo%NULL%2,     Wei%Duan%NULL%0,     Guangjun%Xiang%NULL%2,     Ming%Yi%NULL%2,     Lei%Bao%NULL%2,     Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,     Lin%Sang%NULL%1,     Shihua%Du%NULL%1,     Tao%Li%NULL%0,     Yange%Chang%NULL%1,     Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,     Luigi%Frigerio%NULL%1,     Irene%Cetin%NULL%1,     Patrizia%Vergani%NULL%1,     Arsenio%Spinillo%NULL%1,     Federico%Prefumo%NULL%1,     Edda%Pellegrini%NULL%1,     Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,     Alexandre J.%Vivanti%NULL%1,     Nadine%Shehata%NULL%1,     Alexandra%Benachi%NULL%1,     Agnes%Le Gouez%NULL%1,     Celine%Desconclois%NULL%1,     Wendy%Whittle%NULL%1,     John%Snelgrove%NULL%1,     Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,     Itzel Carolina%Fuentes-Barahona%NULL%2,     Itzel Carolina%Fuentes-Barahona%NULL%0,     Daysi Anabell%Bejarano-Torres%NULL%1,     Carolina%Bustillo%NULL%2,     Gloria%Gonzales%NULL%1,     Gissela%Vallecillo-Chinchilla%NULL%1,     Fredal Eduardo%Sanchez-Martínez%NULL%2,     Fredal Eduardo%Sanchez-Martínez%NULL%0,     Jorge Alberto%Valle-Reconco%NULL%1,     Manuel%Sierra%NULL%2,     Manuel%Sierra%NULL%0,     D. Katterine%Bonilla-Aldana%NULL%2,     D. Katterine%Bonilla-Aldana%NULL%0,     Jaime A.%Cardona-Ospina%NULL%2,     Jaime A.%Cardona-Ospina%NULL%0,     Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,     Jihyang%Lee%NULL%2,     Jihyang%Lee%NULL%0,     Eunju%Kim%NULL%2,     Eunju%Kim%NULL%0,     Kyeongyoon%Woo%NULL%2,     Kyeongyoon%Woo%NULL%0,     Hak Youle%Park%NULL%2,     Hak Youle%Park%NULL%0,     Jihyun%An%NULL%2,     Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,    Kalafat%Erkan%coreGivesNoEmail%2,    KO\u00c7%ASLI%coreGivesNoEmail%2,    Ozisik%S.%coreGivesNoEmail%2,    UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%2,    VARLI%BULUT%coreGivesNoEmail%2,    Yaprak%E.%coreGivesNoEmail%2,    \u00c7INAR%G\u00dcLE%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,     Maliheh%Naghavi%NULL%1,     Abdolamir%Feyzi%NULL%1,     Mehdi%Aghamohammadi%NULL%1,     Mohammad Sadegh%Novin%NULL%1,     Ahmadreza%Mobaien%NULL%1,     Mohamad%Qorbanisani%NULL%1,     Aida%Karami%NULL%1,     Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,     Benjamin%Bopp%NULL%2,     Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,     J.%Ocampo Pérez%NULL%1,     L.%González Bautista%NULL%1,     L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,     Tania%Paredes%NULL%2,     Tania%Paredes%NULL%0,     David%Caceres%NULL%1,     Camille M.%Webb%NULL%1,     Luis M.%Valdez%NULL%1,     Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,     Rajesh%Kumari%NULL%1,     Garima%Kachhawa%NULL%1,     Anjolie%Chhabra%NULL%1,     Ramesh%Agarwal%NULL%1,     Akash%Sharma%NULL%1,     Sunesh%Kumar%NULL%1,     Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,      Caitlin%Baptiste%NULL%2,      Cynthia%Gyamfi-Bannerman%NULL%2,      Russell%Miller%NULL%2,      Rebecca%Martinez%NULL%2,      Kyra%Bernstein%NULL%2,      Laurence%Ring%NULL%2,      Ruth%Landau%NULL%2,      Stephanie%Purisch%NULL%2,      Alexander M.%Friedman%NULL%2,      Karin%Fuchs%NULL%2,      Desmond%Sutton%NULL%2,      Maria%Andrikopoulou%NULL%2,      Devon%Rupley%NULL%2,      Jean-Ju%Sheen%NULL%2,      Janice%Aubey%NULL%2,      Noelia%Zork%NULL%2,      Leslie%Moroz%NULL%2,      Mirella%Mourad%NULL%2,      Ronald%Wapner%NULL%2,      Lynn L.%Simpson%NULL%2,      Mary E.%D’Alton%NULL%2,      Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,      Munir%Nazir%NULL%1,      Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,      Jolene%Muscat%NULL%2,      Jolene%Muscat%NULL%0,      Eva%Hoffmann%NULL%1,      Nicole S.%John%NULL%1,      Rosanne%Vertichio%NULL%1,      Anthony M.%Vintzileos%NULL%1,      Duc%Vo%NULL%2,      Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,      Yousef%Al Ahwel%NULL%2,      Anju%Suhag%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,      Rachael%Overcash%NULL%1,      Neggin%Mokhtari%NULL%1,      Haleema%Saeed%NULL%1,      Stacey%Gold%NULL%1,      Tamika%Auguste%NULL%1,      Muhammad-Usman%Mirza%NULL%1,      Maria-Elena%Ruiz%NULL%1,      Joeffrey J.%Chahine%NULL%2,      Joeffrey J.%Chahine%NULL%0,      Masashi%Waga%NULL%2,      Masashi%Waga%NULL%0,      Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,      Jennifer B.%Linfert%NULL%1,      Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,      Juanjuan%Guo%NULL%1,      Cuifang%Fan%NULL%1,      Juan%Juan%NULL%1,      Xuechen%Yu%NULL%1,      Jiafu%Li%NULL%1,      Ling%Feng%NULL%2,      Chunyan%Li%NULL%1,      Huijun%Chen%NULL%1,      Yuan%Qiao%NULL%1,      Di%Lei%NULL%1,      Chen%Wang%NULL%1,      Guoping%Xiong%NULL%1,      Fengyi%Xiao%NULL%1,      Wencong%He%NULL%1,      Qiumei%Pang%NULL%5,      Xiaoling%Hu%NULL%1,      Suqing%Wang%NULL%1,      Dunjin%Chen%NULL%1,      Yuanzhen%Zhang%NULL%1,      Liona C.%Poon%NULL%1,      Huixia%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,      Zhiqiang%Zhou%NULL%2,      Jianping%Zhang%NULL%2,      Fengfeng%Zhu%NULL%2,      Yongyan%Tang%NULL%2,      Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,      Yue%Sun%101799@qdfe.com%1,      Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,      Huan%Yang%NULL%1,      Junfeng%Kong%NULL%2,      Junfeng%Kong%NULL%0,      Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,      Mingxing%Li%NULL%1,      Kai%Guo%NULL%1,      Weijia%Wang%NULL%1,      Binfei%Li%NULL%1,      Jianwei%Li%NULL%1,      Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,      Hong%Wei%NULL%4,      Hong%Wei%NULL%0,      Zhihong%Zhang%NULL%2,      Jing%Chang%NULL%2,      Xiaopeng%Ma%NULL%2,      Xiang%Gao%NULL%2,      Qiang%Chen%qiangchen2015@sina.com%2,      Qiumei%Pang%pqm19650930@sina.com%0,      Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,      Jianhui%Wang%NULL%2,      Yunbo%Mo%NULL%2,      Wei%Duan%NULL%0,      Guangjun%Xiang%NULL%2,      Ming%Yi%NULL%2,      Lei%Bao%NULL%2,      Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,      Lin%Sang%NULL%1,      Shihua%Du%NULL%1,      Tao%Li%NULL%0,      Yange%Chang%NULL%1,      Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,      Luigi%Frigerio%NULL%1,      Irene%Cetin%NULL%1,      Patrizia%Vergani%NULL%1,      Arsenio%Spinillo%NULL%1,      Federico%Prefumo%NULL%1,      Edda%Pellegrini%NULL%1,      Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,      Alexandre J.%Vivanti%NULL%1,      Nadine%Shehata%NULL%1,      Alexandra%Benachi%NULL%1,      Agnes%Le Gouez%NULL%1,      Celine%Desconclois%NULL%1,      Wendy%Whittle%NULL%1,      John%Snelgrove%NULL%1,      Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,      Itzel Carolina%Fuentes-Barahona%NULL%2,      Itzel Carolina%Fuentes-Barahona%NULL%0,      Daysi Anabell%Bejarano-Torres%NULL%1,      Carolina%Bustillo%NULL%2,      Gloria%Gonzales%NULL%1,      Gissela%Vallecillo-Chinchilla%NULL%1,      Fredal Eduardo%Sanchez-Martínez%NULL%2,      Fredal Eduardo%Sanchez-Martínez%NULL%0,      Jorge Alberto%Valle-Reconco%NULL%1,      Manuel%Sierra%NULL%2,      Manuel%Sierra%NULL%0,      D. Katterine%Bonilla-Aldana%NULL%2,      D. Katterine%Bonilla-Aldana%NULL%0,      Jaime A.%Cardona-Ospina%NULL%2,      Jaime A.%Cardona-Ospina%NULL%0,      Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,      Jihyang%Lee%NULL%2,      Jihyang%Lee%NULL%0,      Eunju%Kim%NULL%2,      Eunju%Kim%NULL%0,      Kyeongyoon%Woo%NULL%2,      Kyeongyoon%Woo%NULL%0,      Hak Youle%Park%NULL%2,      Hak Youle%Park%NULL%0,      Jihyun%An%NULL%2,      Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,     Kalafat%Erkan%coreGivesNoEmail%2,     KO\u00c7%ASLI%coreGivesNoEmail%2,     Ozisik%S.%coreGivesNoEmail%2,     UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%2,     VARLI%BULUT%coreGivesNoEmail%2,     Yaprak%E.%coreGivesNoEmail%2,     \u00c7INAR%G\u00dcLE%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,      Maliheh%Naghavi%NULL%1,      Abdolamir%Feyzi%NULL%1,      Mehdi%Aghamohammadi%NULL%1,      Mohammad Sadegh%Novin%NULL%1,      Ahmadreza%Mobaien%NULL%1,      Mohamad%Qorbanisani%NULL%1,      Aida%Karami%NULL%1,      Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,      Benjamin%Bopp%NULL%2,      Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,      J.%Ocampo Pérez%NULL%1,      L.%González Bautista%NULL%1,      L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,      Tania%Paredes%NULL%2,      Tania%Paredes%NULL%0,      David%Caceres%NULL%1,      Camille M.%Webb%NULL%1,      Luis M.%Valdez%NULL%1,      Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,      Rajesh%Kumari%NULL%1,      Garima%Kachhawa%NULL%1,      Anjolie%Chhabra%NULL%1,      Ramesh%Agarwal%NULL%1,      Akash%Sharma%NULL%1,      Sunesh%Kumar%NULL%1,      Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,       Caitlin%Baptiste%NULL%2,       Cynthia%Gyamfi-Bannerman%NULL%2,       Russell%Miller%NULL%2,       Rebecca%Martinez%NULL%2,       Kyra%Bernstein%NULL%2,       Laurence%Ring%NULL%2,       Ruth%Landau%NULL%2,       Stephanie%Purisch%NULL%2,       Alexander M.%Friedman%NULL%2,       Karin%Fuchs%NULL%2,       Desmond%Sutton%NULL%2,       Maria%Andrikopoulou%NULL%2,       Devon%Rupley%NULL%2,       Jean-Ju%Sheen%NULL%2,       Janice%Aubey%NULL%2,       Noelia%Zork%NULL%2,       Leslie%Moroz%NULL%2,       Mirella%Mourad%NULL%2,       Ronald%Wapner%NULL%2,       Lynn L.%Simpson%NULL%2,       Mary E.%D’Alton%NULL%2,       Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,       Munir%Nazir%NULL%1,       Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,       Jolene%Muscat%NULL%2,       Jolene%Muscat%NULL%0,       Eva%Hoffmann%NULL%1,       Nicole S.%John%NULL%1,       Rosanne%Vertichio%NULL%1,       Anthony M.%Vintzileos%NULL%1,       Duc%Vo%NULL%2,       Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,       Yousef%Al Ahwel%NULL%2,       Anju%Suhag%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,       Rachael%Overcash%NULL%1,       Neggin%Mokhtari%NULL%1,       Haleema%Saeed%NULL%1,       Stacey%Gold%NULL%1,       Tamika%Auguste%NULL%1,       Muhammad-Usman%Mirza%NULL%1,       Maria-Elena%Ruiz%NULL%1,       Joeffrey J.%Chahine%NULL%2,       Joeffrey J.%Chahine%NULL%0,       Masashi%Waga%NULL%2,       Masashi%Waga%NULL%0,       Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,       Jennifer B.%Linfert%NULL%1,       Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,       Juanjuan%Guo%NULL%1,       Cuifang%Fan%NULL%1,       Juan%Juan%NULL%1,       Xuechen%Yu%NULL%1,       Jiafu%Li%NULL%1,       Ling%Feng%NULL%2,       Chunyan%Li%NULL%1,       Huijun%Chen%NULL%1,       Yuan%Qiao%NULL%1,       Di%Lei%NULL%1,       Chen%Wang%NULL%1,       Guoping%Xiong%NULL%1,       Fengyi%Xiao%NULL%1,       Wencong%He%NULL%1,       Qiumei%Pang%NULL%5,       Xiaoling%Hu%NULL%1,       Suqing%Wang%NULL%1,       Dunjin%Chen%NULL%1,       Yuanzhen%Zhang%NULL%1,       Liona C.%Poon%NULL%1,       Huixia%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,       Zhiqiang%Zhou%NULL%2,       Jianping%Zhang%NULL%2,       Fengfeng%Zhu%NULL%2,       Yongyan%Tang%NULL%2,       Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,       Yue%Sun%101799@qdfe.com%1,       Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,       Huan%Yang%NULL%1,       Junfeng%Kong%NULL%2,       Junfeng%Kong%NULL%0,       Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,       Mingxing%Li%NULL%1,       Kai%Guo%NULL%1,       Weijia%Wang%NULL%1,       Binfei%Li%NULL%1,       Jianwei%Li%NULL%1,       Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,       Hong%Wei%NULL%4,       Hong%Wei%NULL%0,       Zhihong%Zhang%NULL%2,       Jing%Chang%NULL%2,       Xiaopeng%Ma%NULL%2,       Xiang%Gao%NULL%2,       Qiang%Chen%qiangchen2015@sina.com%2,       Qiumei%Pang%pqm19650930@sina.com%0,       Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,       Jianhui%Wang%NULL%2,       Yunbo%Mo%NULL%2,       Wei%Duan%NULL%0,       Guangjun%Xiang%NULL%2,       Ming%Yi%NULL%2,       Lei%Bao%NULL%2,       Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,       Lin%Sang%NULL%1,       Shihua%Du%NULL%1,       Tao%Li%NULL%0,       Yange%Chang%NULL%1,       Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,       Luigi%Frigerio%NULL%1,       Irene%Cetin%NULL%1,       Patrizia%Vergani%NULL%1,       Arsenio%Spinillo%NULL%1,       Federico%Prefumo%NULL%1,       Edda%Pellegrini%NULL%1,       Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,       Alexandre J.%Vivanti%NULL%1,       Nadine%Shehata%NULL%1,       Alexandra%Benachi%NULL%1,       Agnes%Le Gouez%NULL%1,       Celine%Desconclois%NULL%1,       Wendy%Whittle%NULL%1,       John%Snelgrove%NULL%1,       Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,       Itzel Carolina%Fuentes-Barahona%NULL%2,       Itzel Carolina%Fuentes-Barahona%NULL%0,       Daysi Anabell%Bejarano-Torres%NULL%1,       Carolina%Bustillo%NULL%2,       Gloria%Gonzales%NULL%1,       Gissela%Vallecillo-Chinchilla%NULL%1,       Fredal Eduardo%Sanchez-Martínez%NULL%2,       Fredal Eduardo%Sanchez-Martínez%NULL%0,       Jorge Alberto%Valle-Reconco%NULL%1,       Manuel%Sierra%NULL%2,       Manuel%Sierra%NULL%0,       D. Katterine%Bonilla-Aldana%NULL%2,       D. Katterine%Bonilla-Aldana%NULL%0,       Jaime A.%Cardona-Ospina%NULL%2,       Jaime A.%Cardona-Ospina%NULL%0,       Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,       Jihyang%Lee%NULL%2,       Jihyang%Lee%NULL%0,       Eunju%Kim%NULL%2,       Eunju%Kim%NULL%0,       Kyeongyoon%Woo%NULL%2,       Kyeongyoon%Woo%NULL%0,       Hak Youle%Park%NULL%2,       Hak Youle%Park%NULL%0,       Jihyun%An%NULL%2,       Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,      Kalafat%Erkan%coreGivesNoEmail%2,      KO\u00c7%ASLI%coreGivesNoEmail%2,      Ozisik%S.%coreGivesNoEmail%2,      UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%2,      VARLI%BULUT%coreGivesNoEmail%2,      Yaprak%E.%coreGivesNoEmail%2,      \u00c7INAR%G\u00dcLE%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,       Maliheh%Naghavi%NULL%1,       Abdolamir%Feyzi%NULL%1,       Mehdi%Aghamohammadi%NULL%1,       Mohammad Sadegh%Novin%NULL%1,       Ahmadreza%Mobaien%NULL%1,       Mohamad%Qorbanisani%NULL%1,       Aida%Karami%NULL%1,       Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,       Benjamin%Bopp%NULL%2,       Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,       J.%Ocampo Pérez%NULL%1,       L.%González Bautista%NULL%1,       L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,       Tania%Paredes%NULL%2,       Tania%Paredes%NULL%0,       David%Caceres%NULL%1,       Camille M.%Webb%NULL%1,       Luis M.%Valdez%NULL%1,       Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,       Rajesh%Kumari%NULL%1,       Garima%Kachhawa%NULL%1,       Anjolie%Chhabra%NULL%1,       Ramesh%Agarwal%NULL%1,       Akash%Sharma%NULL%1,       Sunesh%Kumar%NULL%1,       Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,        Caitlin%Baptiste%NULL%2,        Cynthia%Gyamfi-Bannerman%NULL%2,        Russell%Miller%NULL%2,        Rebecca%Martinez%NULL%2,        Kyra%Bernstein%NULL%2,        Laurence%Ring%NULL%2,        Ruth%Landau%NULL%2,        Stephanie%Purisch%NULL%2,        Alexander M.%Friedman%NULL%2,        Karin%Fuchs%NULL%2,        Desmond%Sutton%NULL%2,        Maria%Andrikopoulou%NULL%2,        Devon%Rupley%NULL%2,        Jean-Ju%Sheen%NULL%2,        Janice%Aubey%NULL%2,        Noelia%Zork%NULL%2,        Leslie%Moroz%NULL%2,        Mirella%Mourad%NULL%2,        Ronald%Wapner%NULL%2,        Lynn L.%Simpson%NULL%2,        Mary E.%D’Alton%NULL%2,        Dena%Goffman%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,        Munir%Nazir%NULL%1,        Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,        Jolene%Muscat%NULL%2,        Jolene%Muscat%NULL%0,        Eva%Hoffmann%NULL%1,        Nicole S.%John%NULL%1,        Rosanne%Vertichio%NULL%1,        Anthony M.%Vintzileos%NULL%1,        Duc%Vo%NULL%2,        Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,        Yousef%Al Ahwel%NULL%2,        Anju%Suhag%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,        Rachael%Overcash%NULL%1,        Neggin%Mokhtari%NULL%1,        Haleema%Saeed%NULL%1,        Stacey%Gold%NULL%1,        Tamika%Auguste%NULL%1,        Muhammad-Usman%Mirza%NULL%1,        Maria-Elena%Ruiz%NULL%1,        Joeffrey J.%Chahine%NULL%2,        Joeffrey J.%Chahine%NULL%0,        Masashi%Waga%NULL%2,        Masashi%Waga%NULL%0,        Glenn%Wortmann%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,        Jennifer B.%Linfert%NULL%1,        Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,        Juanjuan%Guo%NULL%1,        Cuifang%Fan%NULL%1,        Juan%Juan%NULL%1,        Xuechen%Yu%NULL%1,        Jiafu%Li%NULL%1,        Ling%Feng%NULL%2,        Chunyan%Li%NULL%1,        Huijun%Chen%NULL%1,        Yuan%Qiao%NULL%1,        Di%Lei%NULL%1,        Chen%Wang%NULL%1,        Guoping%Xiong%NULL%1,        Fengyi%Xiao%NULL%1,        Wencong%He%NULL%1,        Qiumei%Pang%NULL%5,        Xiaoling%Hu%NULL%1,        Suqing%Wang%NULL%1,        Dunjin%Chen%NULL%1,        Yuanzhen%Zhang%NULL%1,        Liona C.%Poon%NULL%1,        Huixia%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,        Zhiqiang%Zhou%NULL%2,        Jianping%Zhang%NULL%2,        Fengfeng%Zhu%NULL%2,        Yongyan%Tang%NULL%2,        Xinghua%Shen%luckydrx@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,        Yue%Sun%101799@qdfe.com%1,        Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,        Huan%Yang%NULL%1,        Junfeng%Kong%NULL%2,        Junfeng%Kong%NULL%0,        Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,        Mingxing%Li%NULL%1,        Kai%Guo%NULL%1,        Weijia%Wang%NULL%1,        Binfei%Li%NULL%1,        Jianwei%Li%NULL%1,        Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,        Hong%Wei%NULL%4,        Hong%Wei%NULL%0,        Zhihong%Zhang%NULL%2,        Jing%Chang%NULL%2,        Xiaopeng%Ma%NULL%2,        Xiang%Gao%NULL%2,        Qiang%Chen%qiangchen2015@sina.com%2,        Qiumei%Pang%pqm19650930@sina.com%0,        Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,        Jianhui%Wang%NULL%2,        Yunbo%Mo%NULL%2,        Wei%Duan%NULL%0,        Guangjun%Xiang%NULL%2,        Ming%Yi%NULL%2,        Lei%Bao%NULL%2,        Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,        Lin%Sang%NULL%1,        Shihua%Du%NULL%1,        Tao%Li%NULL%0,        Yange%Chang%NULL%1,        Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,        Luigi%Frigerio%NULL%1,        Irene%Cetin%NULL%1,        Patrizia%Vergani%NULL%1,        Arsenio%Spinillo%NULL%1,        Federico%Prefumo%NULL%1,        Edda%Pellegrini%NULL%1,        Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,        Alexandre J.%Vivanti%NULL%1,        Nadine%Shehata%NULL%1,        Alexandra%Benachi%NULL%1,        Agnes%Le Gouez%NULL%1,        Celine%Desconclois%NULL%1,        Wendy%Whittle%NULL%1,        John%Snelgrove%NULL%1,        Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,        Itzel Carolina%Fuentes-Barahona%NULL%2,        Itzel Carolina%Fuentes-Barahona%NULL%0,        Daysi Anabell%Bejarano-Torres%NULL%1,        Carolina%Bustillo%NULL%2,        Gloria%Gonzales%NULL%1,        Gissela%Vallecillo-Chinchilla%NULL%1,        Fredal Eduardo%Sanchez-Martínez%NULL%2,        Fredal Eduardo%Sanchez-Martínez%NULL%0,        Jorge Alberto%Valle-Reconco%NULL%1,        Manuel%Sierra%NULL%2,        Manuel%Sierra%NULL%0,        D. Katterine%Bonilla-Aldana%NULL%2,        D. Katterine%Bonilla-Aldana%NULL%0,        Jaime A.%Cardona-Ospina%NULL%2,        Jaime A.%Cardona-Ospina%NULL%0,        Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,        Jihyang%Lee%NULL%2,        Jihyang%Lee%NULL%0,        Eunju%Kim%NULL%2,        Eunju%Kim%NULL%0,        Kyeongyoon%Woo%NULL%2,        Kyeongyoon%Woo%NULL%0,        Hak Youle%Park%NULL%2,        Hak Youle%Park%NULL%0,        Jihyun%An%NULL%2,        Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,       Kalafat%Erkan%coreGivesNoEmail%2,       KO\u00c7%ASLI%coreGivesNoEmail%2,       Ozisik%S.%coreGivesNoEmail%2,       UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%2,       VARLI%BULUT%coreGivesNoEmail%2,       Yaprak%E.%coreGivesNoEmail%2,       \u00c7INAR%G\u00dcLE%coreGivesNoEmail%2]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,        Maliheh%Naghavi%NULL%1,        Abdolamir%Feyzi%NULL%1,        Mehdi%Aghamohammadi%NULL%1,        Mohammad Sadegh%Novin%NULL%1,        Ahmadreza%Mobaien%NULL%1,        Mohamad%Qorbanisani%NULL%1,        Aida%Karami%NULL%1,        Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,        Benjamin%Bopp%NULL%2,        Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,        J.%Ocampo Pérez%NULL%1,        L.%González Bautista%NULL%1,        L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,        Tania%Paredes%NULL%2,        Tania%Paredes%NULL%0,        David%Caceres%NULL%1,        Camille M.%Webb%NULL%1,        Luis M.%Valdez%NULL%1,        Mauricio%La Rosa%NULL%1]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,        Rajesh%Kumari%NULL%1,        Garima%Kachhawa%NULL%1,        Anjolie%Chhabra%NULL%1,        Ramesh%Agarwal%NULL%1,        Akash%Sharma%NULL%1,        Sunesh%Kumar%NULL%1,        Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="yyyy mmmm"/>
-    <numFmt numFmtId="165" formatCode="yyyy mmm"/>
-    <numFmt numFmtId="166" formatCode="yyyy mmm d"/>
-    <numFmt numFmtId="167" formatCode="yyyy mmmm d"/>
-    <numFmt numFmtId="168" formatCode="d mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="yyyy\ mmmm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\ mmm"/>
+    <numFmt numFmtId="166" formatCode="yyyy\ mmm\ d"/>
+    <numFmt numFmtId="167" formatCode="yyyy\ mmmm\ d"/>
+    <numFmt numFmtId="168" formatCode="d\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -766,7 +923,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -776,56 +933,49 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1015,20 +1165,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,15 +1209,15 @@
         <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C2" t="s">
         <v>43</v>
@@ -1071,167 +1226,167 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
       <c r="I3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
       <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
         <v>57</v>
       </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>179</v>
-      </c>
-      <c r="F5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>43937.0</v>
+        <v>43937</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
       <c r="I6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1239,33 +1394,33 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="7">
-        <v>43976.0</v>
+        <v>43976</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -1283,100 +1438,100 @@
         <v>41</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5">
-        <v>44040.0</v>
+        <v>44040</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
       <c r="I10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="5">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
@@ -1384,149 +1539,149 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3">
-        <v>43952.0</v>
+        <v>43952</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="4">
-        <v>44075.0</v>
+        <v>44075</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="4">
-        <v>43922.0</v>
+        <v>43922</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -1544,42 +1699,42 @@
         <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1587,65 +1742,65 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>242</v>
       </c>
       <c r="F20" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>44044.0</v>
+        <v>44044</v>
       </c>
       <c r="C21" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
@@ -1660,216 +1815,216 @@
         <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>195</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="9">
-        <v>43932.0</v>
+        <v>43932</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="F24" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
         <v>47</v>
       </c>
-      <c r="H24" t="s">
-        <v>48</v>
-      </c>
       <c r="I24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>44136.0</v>
+        <v>44136</v>
       </c>
       <c r="C26" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
         <v>47</v>
       </c>
-      <c r="H26" t="s">
-        <v>48</v>
-      </c>
       <c r="I26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>43983.0</v>
+        <v>43983</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>44013.0</v>
+        <v>44013</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="F28" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2"/>
-    <hyperlink r:id="rId2" ref="A3"/>
-    <hyperlink r:id="rId3" ref="A4"/>
-    <hyperlink r:id="rId4" ref="A5"/>
-    <hyperlink r:id="rId5" ref="A6"/>
-    <hyperlink r:id="rId6" ref="A7"/>
-    <hyperlink r:id="rId7" ref="A8"/>
-    <hyperlink r:id="rId8" ref="A9"/>
-    <hyperlink r:id="rId9" ref="A10"/>
-    <hyperlink r:id="rId10" ref="A11"/>
-    <hyperlink r:id="rId11" ref="A12"/>
-    <hyperlink r:id="rId12" ref="A13"/>
-    <hyperlink r:id="rId13" ref="A14"/>
-    <hyperlink r:id="rId14" ref="A15"/>
-    <hyperlink r:id="rId15" ref="A16"/>
-    <hyperlink r:id="rId16" ref="A17"/>
-    <hyperlink r:id="rId17" ref="A18"/>
-    <hyperlink r:id="rId18" ref="A19"/>
-    <hyperlink r:id="rId19" ref="A20"/>
-    <hyperlink r:id="rId20" ref="A21"/>
-    <hyperlink r:id="rId21" ref="A22"/>
-    <hyperlink r:id="rId22" ref="A23"/>
-    <hyperlink r:id="rId23" ref="A24"/>
-    <hyperlink r:id="rId24" ref="A25"/>
-    <hyperlink r:id="rId25" ref="A26"/>
-    <hyperlink r:id="rId26" ref="A27"/>
-    <hyperlink r:id="rId27" ref="A28"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="298">
   <si>
     <t>Doi</t>
   </si>
@@ -879,6 +879,150 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,        Rajesh%Kumari%NULL%1,        Garima%Kachhawa%NULL%1,        Anjolie%Chhabra%NULL%1,        Ramesh%Agarwal%NULL%1,        Akash%Sharma%NULL%1,        Sunesh%Kumar%NULL%1,        Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,         Caitlin%Baptiste%NULL%1,         Cynthia%Gyamfi-Bannerman%NULL%1,         Russell%Miller%NULL%1,         Rebecca%Martinez%NULL%1,         Kyra%Bernstein%NULL%1,         Laurence%Ring%NULL%1,         Ruth%Landau%NULL%1,         Stephanie%Purisch%NULL%1,         Alexander M.%Friedman%NULL%1,         Karin%Fuchs%NULL%1,         Desmond%Sutton%NULL%1,         Maria%Andrikopoulou%NULL%1,         Devon%Rupley%NULL%1,         Jean-Ju%Sheen%NULL%1,         Janice%Aubey%NULL%1,         Noelia%Zork%NULL%1,         Leslie%Moroz%NULL%1,         Mirella%Mourad%NULL%1,         Ronald%Wapner%NULL%1,         Lynn L.%Simpson%NULL%1,         Mary E.%D’Alton%NULL%1,         Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,         Munir%Nazir%NULL%1,         Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,         Jolene%Muscat%NULL%2,         Jolene%Muscat%NULL%0,         Eva%Hoffmann%NULL%1,         Nicole S.%John%NULL%1,         Rosanne%Vertichio%NULL%1,         Anthony M.%Vintzileos%NULL%1,         Duc%Vo%NULL%2,         Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,         Yousef%Al Ahwel%NULL%1,         Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,         Rachael%Overcash%NULL%2,         Neggin%Mokhtari%NULL%2,         Haleema%Saeed%NULL%2,         Stacey%Gold%NULL%2,         Tamika%Auguste%NULL%2,         Muhammad-Usman%Mirza%NULL%2,         Maria-Elena%Ruiz%NULL%2,         Joeffrey J.%Chahine%NULL%4,         Joeffrey J.%Chahine%NULL%0,         Masashi%Waga%NULL%4,         Masashi%Waga%NULL%0,         Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,         Jennifer B.%Linfert%NULL%1,         Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,         Juanjuan%Guo%NULL%2,         Cuifang%Fan%NULL%1,         Juan%Juan%NULL%1,         Xuechen%Yu%NULL%2,         Jiafu%Li%NULL%2,         Ling%Feng%NULL%1,         Chunyan%Li%NULL%1,         Huijun%Chen%NULL%1,         Yuan%Qiao%NULL%1,         Di%Lei%NULL%1,         Chen%Wang%NULL%3,         Guoping%Xiong%NULL%1,         Fengyi%Xiao%NULL%1,         Wencong%He%NULL%1,         Qiumei%Pang%NULL%3,         Xiaoling%Hu%NULL%1,         Suqing%Wang%NULL%1,         Dunjin%Chen%NULL%1,         Yuanzhen%Zhang%NULL%2,         Liona C.%Poon%NULL%1,         Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,         Zhiqiang%Zhou%NULL%1,         Jianping%Zhang%NULL%1,         Fengfeng%Zhu%NULL%1,         Yongyan%Tang%NULL%1,         Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,         Yue%Sun%101799@qdfe.com%1,         Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,         Huan%Yang%NULL%1,         Junfeng%Kong%NULL%2,         Junfeng%Kong%NULL%0,         Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,         Mingxing%Li%NULL%1,         Kai%Guo%NULL%1,         Weijia%Wang%NULL%1,         Binfei%Li%NULL%1,         Jianwei%Li%NULL%2,         Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,         Hong%Wei%NULL%2,         Hong%Wei%NULL%0,         Zhihong%Zhang%NULL%1,         Jing%Chang%NULL%1,         Xiaopeng%Ma%NULL%1,         Xiang%Gao%NULL%1,         Qiang%Chen%qiangchen2015@sina.com%1,         Qiumei%Pang%pqm19650930@sina.com%0,         Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,         Jianhui%Wang%NULL%1,         Yunbo%Mo%NULL%1,         Wei%Duan%NULL%1,         Guangjun%Xiang%NULL%1,         Ming%Yi%NULL%1,         Lei%Bao%NULL%1,         Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,         Lin%Sang%NULL%1,         Shihua%Du%NULL%1,         Tao%Li%NULL%0,         Yange%Chang%NULL%1,         Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,         Luigi%Frigerio%NULL%1,         Irene%Cetin%NULL%1,         Patrizia%Vergani%NULL%1,         Arsenio%Spinillo%NULL%1,         Federico%Prefumo%NULL%1,         Edda%Pellegrini%NULL%1,         Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,         Alexandre J.%Vivanti%NULL%1,         Nadine%Shehata%NULL%1,         Alexandra%Benachi%NULL%1,         Agnes%Le Gouez%NULL%1,         Celine%Desconclois%NULL%1,         Wendy%Whittle%NULL%1,         John%Snelgrove%NULL%1,         Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,         Itzel Carolina%Fuentes-Barahona%NULL%2,         Itzel Carolina%Fuentes-Barahona%NULL%0,         Daysi Anabell%Bejarano-Torres%NULL%1,         Carolina%Bustillo%NULL%2,         Gloria%Gonzales%NULL%1,         Gissela%Vallecillo-Chinchilla%NULL%1,         Fredal Eduardo%Sanchez-Martínez%NULL%2,         Fredal Eduardo%Sanchez-Martínez%NULL%0,         Jorge Alberto%Valle-Reconco%NULL%1,         Manuel%Sierra%NULL%2,         Manuel%Sierra%NULL%0,         D. Katterine%Bonilla-Aldana%NULL%2,         D. Katterine%Bonilla-Aldana%NULL%0,         Jaime A.%Cardona-Ospina%NULL%2,         Jaime A.%Cardona-Ospina%NULL%0,         Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,         Jihyang%Lee%NULL%6,         Jihyang%Lee%NULL%0,         Eunju%Kim%NULL%6,         Eunju%Kim%NULL%0,         Kyeongyoon%Woo%NULL%6,         Kyeongyoon%Woo%NULL%0,         Hak Youle%Park%NULL%6,         Hak Youle%Park%NULL%0,         Jihyun%An%NULL%6,         Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,        Kalafat%Erkan%coreGivesNoEmail%1,        KO\u00c7%ASLI%coreGivesNoEmail%1,        Ozisik%S.%coreGivesNoEmail%1,        UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,        VARLI%BULUT%coreGivesNoEmail%1,        Yaprak%E.%coreGivesNoEmail%1,        \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,         Maliheh%Naghavi%NULL%1,         Abdolamir%Feyzi%NULL%1,         Mehdi%Aghamohammadi%NULL%1,         Mohammad Sadegh%Novin%NULL%1,         Ahmadreza%Mobaien%NULL%1,         Mohamad%Qorbanisani%NULL%1,         Aida%Karami%NULL%1,         Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,         Benjamin%Bopp%NULL%2,         Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,         J.%Ocampo Pérez%NULL%1,         L.%González Bautista%NULL%1,         L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,         Tania%Paredes%NULL%4,         Tania%Paredes%NULL%0,         David%Caceres%NULL%2,         Camille M.%Webb%NULL%2,         Luis M.%Valdez%NULL%2,         Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,         Rajesh%Kumari%NULL%1,         Garima%Kachhawa%NULL%1,         Anjolie%Chhabra%NULL%1,         Ramesh%Agarwal%NULL%1,         Akash%Sharma%NULL%1,         Sunesh%Kumar%NULL%1,         Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,          Caitlin%Baptiste%NULL%1,          Cynthia%Gyamfi-Bannerman%NULL%1,          Russell%Miller%NULL%1,          Rebecca%Martinez%NULL%1,          Kyra%Bernstein%NULL%1,          Laurence%Ring%NULL%1,          Ruth%Landau%NULL%1,          Stephanie%Purisch%NULL%1,          Alexander M.%Friedman%NULL%1,          Karin%Fuchs%NULL%1,          Desmond%Sutton%NULL%1,          Maria%Andrikopoulou%NULL%1,          Devon%Rupley%NULL%1,          Jean-Ju%Sheen%NULL%1,          Janice%Aubey%NULL%1,          Noelia%Zork%NULL%1,          Leslie%Moroz%NULL%1,          Mirella%Mourad%NULL%1,          Ronald%Wapner%NULL%1,          Lynn L.%Simpson%NULL%1,          Mary E.%D’Alton%NULL%1,          Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,          Munir%Nazir%NULL%1,          Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,          Jolene%Muscat%NULL%2,          Jolene%Muscat%NULL%0,          Eva%Hoffmann%NULL%1,          Nicole S.%John%NULL%1,          Rosanne%Vertichio%NULL%1,          Anthony M.%Vintzileos%NULL%1,          Duc%Vo%NULL%2,          Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,          Yousef%Al Ahwel%NULL%1,          Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,          Rachael%Overcash%NULL%2,          Neggin%Mokhtari%NULL%2,          Haleema%Saeed%NULL%2,          Stacey%Gold%NULL%2,          Tamika%Auguste%NULL%2,          Muhammad-Usman%Mirza%NULL%2,          Maria-Elena%Ruiz%NULL%2,          Joeffrey J.%Chahine%NULL%4,          Joeffrey J.%Chahine%NULL%0,          Masashi%Waga%NULL%4,          Masashi%Waga%NULL%0,          Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,          Jennifer B.%Linfert%NULL%1,          Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,          Juanjuan%Guo%NULL%2,          Cuifang%Fan%NULL%1,          Juan%Juan%NULL%1,          Xuechen%Yu%NULL%2,          Jiafu%Li%NULL%2,          Ling%Feng%NULL%1,          Chunyan%Li%NULL%1,          Huijun%Chen%NULL%1,          Yuan%Qiao%NULL%1,          Di%Lei%NULL%1,          Chen%Wang%NULL%3,          Guoping%Xiong%NULL%1,          Fengyi%Xiao%NULL%1,          Wencong%He%NULL%1,          Qiumei%Pang%NULL%3,          Xiaoling%Hu%NULL%1,          Suqing%Wang%NULL%1,          Dunjin%Chen%NULL%1,          Yuanzhen%Zhang%NULL%2,          Liona C.%Poon%NULL%1,          Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,          Zhiqiang%Zhou%NULL%1,          Jianping%Zhang%NULL%1,          Fengfeng%Zhu%NULL%1,          Yongyan%Tang%NULL%1,          Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,          Yue%Sun%101799@qdfe.com%1,          Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,          Huan%Yang%NULL%1,          Junfeng%Kong%NULL%2,          Junfeng%Kong%NULL%0,          Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,          Mingxing%Li%NULL%1,          Kai%Guo%NULL%1,          Weijia%Wang%NULL%1,          Binfei%Li%NULL%1,          Jianwei%Li%NULL%2,          Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,          Hong%Wei%NULL%2,          Hong%Wei%NULL%0,          Zhihong%Zhang%NULL%1,          Jing%Chang%NULL%1,          Xiaopeng%Ma%NULL%1,          Xiang%Gao%NULL%1,          Qiang%Chen%qiangchen2015@sina.com%1,          Qiumei%Pang%pqm19650930@sina.com%0,          Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,          Jianhui%Wang%NULL%1,          Yunbo%Mo%NULL%1,          Wei%Duan%NULL%1,          Guangjun%Xiang%NULL%1,          Ming%Yi%NULL%1,          Lei%Bao%NULL%1,          Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,          Lin%Sang%NULL%1,          Shihua%Du%NULL%1,          Tao%Li%NULL%0,          Yange%Chang%NULL%1,          Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,          Luigi%Frigerio%NULL%1,          Irene%Cetin%NULL%1,          Patrizia%Vergani%NULL%1,          Arsenio%Spinillo%NULL%1,          Federico%Prefumo%NULL%1,          Edda%Pellegrini%NULL%1,          Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,          Alexandre J.%Vivanti%NULL%1,          Nadine%Shehata%NULL%1,          Alexandra%Benachi%NULL%1,          Agnes%Le Gouez%NULL%1,          Celine%Desconclois%NULL%1,          Wendy%Whittle%NULL%1,          John%Snelgrove%NULL%1,          Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,          Itzel Carolina%Fuentes-Barahona%NULL%2,          Itzel Carolina%Fuentes-Barahona%NULL%0,          Daysi Anabell%Bejarano-Torres%NULL%1,          Carolina%Bustillo%NULL%2,          Gloria%Gonzales%NULL%1,          Gissela%Vallecillo-Chinchilla%NULL%1,          Fredal Eduardo%Sanchez-Martínez%NULL%2,          Fredal Eduardo%Sanchez-Martínez%NULL%0,          Jorge Alberto%Valle-Reconco%NULL%1,          Manuel%Sierra%NULL%2,          Manuel%Sierra%NULL%0,          D. Katterine%Bonilla-Aldana%NULL%2,          D. Katterine%Bonilla-Aldana%NULL%0,          Jaime A.%Cardona-Ospina%NULL%2,          Jaime A.%Cardona-Ospina%NULL%0,          Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,          Jihyang%Lee%NULL%6,          Jihyang%Lee%NULL%0,          Eunju%Kim%NULL%6,          Eunju%Kim%NULL%0,          Kyeongyoon%Woo%NULL%6,          Kyeongyoon%Woo%NULL%0,          Hak Youle%Park%NULL%6,          Hak Youle%Park%NULL%0,          Jihyun%An%NULL%6,          Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,         Kalafat%Erkan%coreGivesNoEmail%1,         KO\u00c7%ASLI%coreGivesNoEmail%1,         Ozisik%S.%coreGivesNoEmail%1,         UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,         VARLI%BULUT%coreGivesNoEmail%1,         Yaprak%E.%coreGivesNoEmail%1,         \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,          Maliheh%Naghavi%NULL%1,          Abdolamir%Feyzi%NULL%1,          Mehdi%Aghamohammadi%NULL%1,          Mohammad Sadegh%Novin%NULL%1,          Ahmadreza%Mobaien%NULL%1,          Mohamad%Qorbanisani%NULL%1,          Aida%Karami%NULL%1,          Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,          Benjamin%Bopp%NULL%2,          Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,          J.%Ocampo Pérez%NULL%1,          L.%González Bautista%NULL%1,          L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,          Tania%Paredes%NULL%4,          Tania%Paredes%NULL%0,          David%Caceres%NULL%2,          Camille M.%Webb%NULL%2,          Luis M.%Valdez%NULL%2,          Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,          Rajesh%Kumari%NULL%1,          Garima%Kachhawa%NULL%1,          Anjolie%Chhabra%NULL%1,          Ramesh%Agarwal%NULL%1,          Akash%Sharma%NULL%1,          Sunesh%Kumar%NULL%1,          Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1370,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1255,7 +1399,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1284,7 +1428,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1313,7 +1457,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1342,7 +1486,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1371,7 +1515,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1400,7 +1544,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -1458,7 +1602,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1487,7 +1631,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1516,7 +1660,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1545,7 +1689,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1574,7 +1718,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -1603,7 +1747,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -1632,7 +1776,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -1661,7 +1805,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -1719,7 +1863,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -1748,7 +1892,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -1777,7 +1921,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -1835,7 +1979,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -1864,7 +2008,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -1893,7 +2037,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -1922,7 +2066,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -1951,7 +2095,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -1980,7 +2124,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="346">
   <si>
     <t>Doi</t>
   </si>
@@ -1023,6 +1023,150 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,          Rajesh%Kumari%NULL%1,          Garima%Kachhawa%NULL%1,          Anjolie%Chhabra%NULL%1,          Ramesh%Agarwal%NULL%1,          Akash%Sharma%NULL%1,          Sunesh%Kumar%NULL%1,          Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,           Caitlin%Baptiste%NULL%1,           Cynthia%Gyamfi-Bannerman%NULL%1,           Russell%Miller%NULL%1,           Rebecca%Martinez%NULL%1,           Kyra%Bernstein%NULL%1,           Laurence%Ring%NULL%1,           Ruth%Landau%NULL%1,           Stephanie%Purisch%NULL%1,           Alexander M.%Friedman%NULL%1,           Karin%Fuchs%NULL%1,           Desmond%Sutton%NULL%1,           Maria%Andrikopoulou%NULL%1,           Devon%Rupley%NULL%1,           Jean-Ju%Sheen%NULL%1,           Janice%Aubey%NULL%1,           Noelia%Zork%NULL%1,           Leslie%Moroz%NULL%1,           Mirella%Mourad%NULL%1,           Ronald%Wapner%NULL%1,           Lynn L.%Simpson%NULL%1,           Mary E.%D’Alton%NULL%1,           Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,           Munir%Nazir%NULL%1,           Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,           Jolene%Muscat%NULL%2,           Jolene%Muscat%NULL%0,           Eva%Hoffmann%NULL%1,           Nicole S.%John%NULL%1,           Rosanne%Vertichio%NULL%1,           Anthony M.%Vintzileos%NULL%1,           Duc%Vo%NULL%2,           Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,           Yousef%Al Ahwel%NULL%1,           Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,           Rachael%Overcash%NULL%2,           Neggin%Mokhtari%NULL%2,           Haleema%Saeed%NULL%2,           Stacey%Gold%NULL%2,           Tamika%Auguste%NULL%2,           Muhammad-Usman%Mirza%NULL%2,           Maria-Elena%Ruiz%NULL%2,           Joeffrey J.%Chahine%NULL%4,           Joeffrey J.%Chahine%NULL%0,           Masashi%Waga%NULL%4,           Masashi%Waga%NULL%0,           Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,           Jennifer B.%Linfert%NULL%1,           Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,           Juanjuan%Guo%NULL%2,           Cuifang%Fan%NULL%1,           Juan%Juan%NULL%1,           Xuechen%Yu%NULL%2,           Jiafu%Li%NULL%2,           Ling%Feng%NULL%1,           Chunyan%Li%NULL%1,           Huijun%Chen%NULL%1,           Yuan%Qiao%NULL%1,           Di%Lei%NULL%1,           Chen%Wang%NULL%3,           Guoping%Xiong%NULL%1,           Fengyi%Xiao%NULL%1,           Wencong%He%NULL%1,           Qiumei%Pang%NULL%3,           Xiaoling%Hu%NULL%1,           Suqing%Wang%NULL%1,           Dunjin%Chen%NULL%1,           Yuanzhen%Zhang%NULL%2,           Liona C.%Poon%NULL%1,           Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,           Zhiqiang%Zhou%NULL%1,           Jianping%Zhang%NULL%1,           Fengfeng%Zhu%NULL%1,           Yongyan%Tang%NULL%1,           Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,           Yue%Sun%101799@qdfe.com%1,           Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,           Huan%Yang%NULL%1,           Junfeng%Kong%NULL%2,           Junfeng%Kong%NULL%0,           Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,           Mingxing%Li%NULL%1,           Kai%Guo%NULL%1,           Weijia%Wang%NULL%1,           Binfei%Li%NULL%1,           Jianwei%Li%NULL%2,           Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,           Hong%Wei%NULL%2,           Hong%Wei%NULL%0,           Zhihong%Zhang%NULL%1,           Jing%Chang%NULL%1,           Xiaopeng%Ma%NULL%1,           Xiang%Gao%NULL%1,           Qiang%Chen%qiangchen2015@sina.com%1,           Qiumei%Pang%pqm19650930@sina.com%0,           Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,           Jianhui%Wang%NULL%1,           Yunbo%Mo%NULL%1,           Wei%Duan%NULL%1,           Guangjun%Xiang%NULL%1,           Ming%Yi%NULL%1,           Lei%Bao%NULL%1,           Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,           Lin%Sang%NULL%1,           Shihua%Du%NULL%1,           Tao%Li%NULL%0,           Yange%Chang%NULL%1,           Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,           Luigi%Frigerio%NULL%1,           Irene%Cetin%NULL%1,           Patrizia%Vergani%NULL%1,           Arsenio%Spinillo%NULL%1,           Federico%Prefumo%NULL%1,           Edda%Pellegrini%NULL%1,           Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,           Alexandre J.%Vivanti%NULL%1,           Nadine%Shehata%NULL%1,           Alexandra%Benachi%NULL%1,           Agnes%Le Gouez%NULL%1,           Celine%Desconclois%NULL%1,           Wendy%Whittle%NULL%1,           John%Snelgrove%NULL%1,           Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,           Itzel Carolina%Fuentes-Barahona%NULL%2,           Itzel Carolina%Fuentes-Barahona%NULL%0,           Daysi Anabell%Bejarano-Torres%NULL%1,           Carolina%Bustillo%NULL%2,           Gloria%Gonzales%NULL%1,           Gissela%Vallecillo-Chinchilla%NULL%1,           Fredal Eduardo%Sanchez-Martínez%NULL%2,           Fredal Eduardo%Sanchez-Martínez%NULL%0,           Jorge Alberto%Valle-Reconco%NULL%1,           Manuel%Sierra%NULL%2,           Manuel%Sierra%NULL%0,           D. Katterine%Bonilla-Aldana%NULL%2,           D. Katterine%Bonilla-Aldana%NULL%0,           Jaime A.%Cardona-Ospina%NULL%2,           Jaime A.%Cardona-Ospina%NULL%0,           Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,           Jihyang%Lee%NULL%6,           Jihyang%Lee%NULL%0,           Eunju%Kim%NULL%6,           Eunju%Kim%NULL%0,           Kyeongyoon%Woo%NULL%6,           Kyeongyoon%Woo%NULL%0,           Hak Youle%Park%NULL%6,           Hak Youle%Park%NULL%0,           Jihyun%An%NULL%6,           Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,          Kalafat%Erkan%coreGivesNoEmail%1,          KO\u00c7%ASLI%coreGivesNoEmail%1,          Ozisik%S.%coreGivesNoEmail%1,          UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,          VARLI%BULUT%coreGivesNoEmail%1,          Yaprak%E.%coreGivesNoEmail%1,          \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,           Maliheh%Naghavi%NULL%1,           Abdolamir%Feyzi%NULL%1,           Mehdi%Aghamohammadi%NULL%1,           Mohammad Sadegh%Novin%NULL%1,           Ahmadreza%Mobaien%NULL%1,           Mohamad%Qorbanisani%NULL%1,           Aida%Karami%NULL%1,           Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,           Benjamin%Bopp%NULL%2,           Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,           J.%Ocampo Pérez%NULL%1,           L.%González Bautista%NULL%1,           L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,           Tania%Paredes%NULL%4,           Tania%Paredes%NULL%0,           David%Caceres%NULL%2,           Camille M.%Webb%NULL%2,           Luis M.%Valdez%NULL%2,           Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,           Rajesh%Kumari%NULL%1,           Garima%Kachhawa%NULL%1,           Anjolie%Chhabra%NULL%1,           Ramesh%Agarwal%NULL%1,           Akash%Sharma%NULL%1,           Sunesh%Kumar%NULL%1,           Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,            Caitlin%Baptiste%NULL%1,            Cynthia%Gyamfi-Bannerman%NULL%1,            Russell%Miller%NULL%1,            Rebecca%Martinez%NULL%1,            Kyra%Bernstein%NULL%1,            Laurence%Ring%NULL%1,            Ruth%Landau%NULL%1,            Stephanie%Purisch%NULL%1,            Alexander M.%Friedman%NULL%1,            Karin%Fuchs%NULL%1,            Desmond%Sutton%NULL%1,            Maria%Andrikopoulou%NULL%1,            Devon%Rupley%NULL%1,            Jean-Ju%Sheen%NULL%1,            Janice%Aubey%NULL%1,            Noelia%Zork%NULL%1,            Leslie%Moroz%NULL%1,            Mirella%Mourad%NULL%1,            Ronald%Wapner%NULL%1,            Lynn L.%Simpson%NULL%1,            Mary E.%D’Alton%NULL%1,            Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,            Munir%Nazir%NULL%1,            Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,            Jolene%Muscat%NULL%2,            Jolene%Muscat%NULL%0,            Eva%Hoffmann%NULL%1,            Nicole S.%John%NULL%1,            Rosanne%Vertichio%NULL%1,            Anthony M.%Vintzileos%NULL%1,            Duc%Vo%NULL%2,            Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,            Yousef%Al Ahwel%NULL%1,            Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,            Rachael%Overcash%NULL%2,            Neggin%Mokhtari%NULL%2,            Haleema%Saeed%NULL%2,            Stacey%Gold%NULL%2,            Tamika%Auguste%NULL%2,            Muhammad-Usman%Mirza%NULL%2,            Maria-Elena%Ruiz%NULL%2,            Joeffrey J.%Chahine%NULL%4,            Joeffrey J.%Chahine%NULL%0,            Masashi%Waga%NULL%4,            Masashi%Waga%NULL%0,            Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,            Jennifer B.%Linfert%NULL%1,            Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,            Juanjuan%Guo%NULL%2,            Cuifang%Fan%NULL%1,            Juan%Juan%NULL%1,            Xuechen%Yu%NULL%2,            Jiafu%Li%NULL%2,            Ling%Feng%NULL%1,            Chunyan%Li%NULL%1,            Huijun%Chen%NULL%1,            Yuan%Qiao%NULL%1,            Di%Lei%NULL%1,            Chen%Wang%NULL%3,            Guoping%Xiong%NULL%1,            Fengyi%Xiao%NULL%1,            Wencong%He%NULL%1,            Qiumei%Pang%NULL%3,            Xiaoling%Hu%NULL%1,            Suqing%Wang%NULL%1,            Dunjin%Chen%NULL%1,            Yuanzhen%Zhang%NULL%2,            Liona C.%Poon%NULL%1,            Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,            Zhiqiang%Zhou%NULL%1,            Jianping%Zhang%NULL%1,            Fengfeng%Zhu%NULL%1,            Yongyan%Tang%NULL%1,            Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,            Yue%Sun%101799@qdfe.com%1,            Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,            Huan%Yang%NULL%1,            Junfeng%Kong%NULL%2,            Junfeng%Kong%NULL%0,            Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,            Mingxing%Li%NULL%1,            Kai%Guo%NULL%1,            Weijia%Wang%NULL%1,            Binfei%Li%NULL%1,            Jianwei%Li%NULL%2,            Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,            Hong%Wei%NULL%2,            Hong%Wei%NULL%0,            Zhihong%Zhang%NULL%1,            Jing%Chang%NULL%1,            Xiaopeng%Ma%NULL%1,            Xiang%Gao%NULL%1,            Qiang%Chen%qiangchen2015@sina.com%1,            Qiumei%Pang%pqm19650930@sina.com%0,            Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,            Jianhui%Wang%NULL%1,            Yunbo%Mo%NULL%1,            Wei%Duan%NULL%1,            Guangjun%Xiang%NULL%1,            Ming%Yi%NULL%1,            Lei%Bao%NULL%1,            Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,            Lin%Sang%NULL%1,            Shihua%Du%NULL%1,            Tao%Li%NULL%0,            Yange%Chang%NULL%1,            Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,            Luigi%Frigerio%NULL%1,            Irene%Cetin%NULL%1,            Patrizia%Vergani%NULL%1,            Arsenio%Spinillo%NULL%1,            Federico%Prefumo%NULL%1,            Edda%Pellegrini%NULL%1,            Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,            Alexandre J.%Vivanti%NULL%1,            Nadine%Shehata%NULL%1,            Alexandra%Benachi%NULL%1,            Agnes%Le Gouez%NULL%1,            Celine%Desconclois%NULL%1,            Wendy%Whittle%NULL%1,            John%Snelgrove%NULL%1,            Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,            Itzel Carolina%Fuentes-Barahona%NULL%2,            Itzel Carolina%Fuentes-Barahona%NULL%0,            Daysi Anabell%Bejarano-Torres%NULL%1,            Carolina%Bustillo%NULL%2,            Gloria%Gonzales%NULL%1,            Gissela%Vallecillo-Chinchilla%NULL%1,            Fredal Eduardo%Sanchez-Martínez%NULL%2,            Fredal Eduardo%Sanchez-Martínez%NULL%0,            Jorge Alberto%Valle-Reconco%NULL%1,            Manuel%Sierra%NULL%2,            Manuel%Sierra%NULL%0,            D. Katterine%Bonilla-Aldana%NULL%2,            D. Katterine%Bonilla-Aldana%NULL%0,            Jaime A.%Cardona-Ospina%NULL%2,            Jaime A.%Cardona-Ospina%NULL%0,            Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,            Jihyang%Lee%NULL%6,            Jihyang%Lee%NULL%0,            Eunju%Kim%NULL%6,            Eunju%Kim%NULL%0,            Kyeongyoon%Woo%NULL%6,            Kyeongyoon%Woo%NULL%0,            Hak Youle%Park%NULL%6,            Hak Youle%Park%NULL%0,            Jihyun%An%NULL%6,            Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,           Kalafat%Erkan%coreGivesNoEmail%1,           KO\u00c7%ASLI%coreGivesNoEmail%1,           Ozisik%S.%coreGivesNoEmail%1,           UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,           VARLI%BULUT%coreGivesNoEmail%1,           Yaprak%E.%coreGivesNoEmail%1,           \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,            Maliheh%Naghavi%NULL%1,            Abdolamir%Feyzi%NULL%1,            Mehdi%Aghamohammadi%NULL%1,            Mohammad Sadegh%Novin%NULL%1,            Ahmadreza%Mobaien%NULL%1,            Mohamad%Qorbanisani%NULL%1,            Aida%Karami%NULL%1,            Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,            Benjamin%Bopp%NULL%2,            Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,            J.%Ocampo Pérez%NULL%1,            L.%González Bautista%NULL%1,            L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,            Tania%Paredes%NULL%4,            Tania%Paredes%NULL%0,            David%Caceres%NULL%2,            Camille M.%Webb%NULL%2,            Luis M.%Valdez%NULL%2,            Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,            Rajesh%Kumari%NULL%1,            Garima%Kachhawa%NULL%1,            Anjolie%Chhabra%NULL%1,            Ramesh%Agarwal%NULL%1,            Akash%Sharma%NULL%1,            Sunesh%Kumar%NULL%1,            Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1370,7 +1514,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1399,7 +1543,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1428,7 +1572,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1457,7 +1601,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1486,7 +1630,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1515,7 +1659,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1544,7 +1688,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -1602,7 +1746,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1631,7 +1775,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1660,7 +1804,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1689,7 +1833,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1718,7 +1862,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -1747,7 +1891,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -1776,7 +1920,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -1805,7 +1949,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -1863,7 +2007,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -1892,7 +2036,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -1921,7 +2065,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -1979,7 +2123,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2008,7 +2152,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2037,7 +2181,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2066,7 +2210,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2095,7 +2239,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2124,7 +2268,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="394">
   <si>
     <t>Doi</t>
   </si>
@@ -1167,6 +1167,150 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,            Rajesh%Kumari%NULL%1,            Garima%Kachhawa%NULL%1,            Anjolie%Chhabra%NULL%1,            Ramesh%Agarwal%NULL%1,            Akash%Sharma%NULL%1,            Sunesh%Kumar%NULL%1,            Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,             Caitlin%Baptiste%NULL%1,             Cynthia%Gyamfi-Bannerman%NULL%1,             Russell%Miller%NULL%1,             Rebecca%Martinez%NULL%1,             Kyra%Bernstein%NULL%1,             Laurence%Ring%NULL%1,             Ruth%Landau%NULL%1,             Stephanie%Purisch%NULL%1,             Alexander M.%Friedman%NULL%1,             Karin%Fuchs%NULL%1,             Desmond%Sutton%NULL%1,             Maria%Andrikopoulou%NULL%1,             Devon%Rupley%NULL%1,             Jean-Ju%Sheen%NULL%1,             Janice%Aubey%NULL%1,             Noelia%Zork%NULL%1,             Leslie%Moroz%NULL%1,             Mirella%Mourad%NULL%1,             Ronald%Wapner%NULL%1,             Lynn L.%Simpson%NULL%1,             Mary E.%D’Alton%NULL%1,             Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,             Munir%Nazir%NULL%1,             Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,             Jolene%Muscat%NULL%2,             Jolene%Muscat%NULL%0,             Eva%Hoffmann%NULL%1,             Nicole S.%John%NULL%1,             Rosanne%Vertichio%NULL%1,             Anthony M.%Vintzileos%NULL%1,             Duc%Vo%NULL%2,             Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,             Yousef%Al Ahwel%NULL%1,             Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,             Rachael%Overcash%NULL%2,             Neggin%Mokhtari%NULL%2,             Haleema%Saeed%NULL%2,             Stacey%Gold%NULL%2,             Tamika%Auguste%NULL%2,             Muhammad-Usman%Mirza%NULL%2,             Maria-Elena%Ruiz%NULL%2,             Joeffrey J.%Chahine%NULL%4,             Joeffrey J.%Chahine%NULL%0,             Masashi%Waga%NULL%4,             Masashi%Waga%NULL%0,             Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,             Jennifer B.%Linfert%NULL%1,             Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,             Juanjuan%Guo%NULL%2,             Cuifang%Fan%NULL%1,             Juan%Juan%NULL%1,             Xuechen%Yu%NULL%2,             Jiafu%Li%NULL%2,             Ling%Feng%NULL%1,             Chunyan%Li%NULL%1,             Huijun%Chen%NULL%1,             Yuan%Qiao%NULL%1,             Di%Lei%NULL%1,             Chen%Wang%NULL%3,             Guoping%Xiong%NULL%1,             Fengyi%Xiao%NULL%1,             Wencong%He%NULL%1,             Qiumei%Pang%NULL%3,             Xiaoling%Hu%NULL%1,             Suqing%Wang%NULL%1,             Dunjin%Chen%NULL%1,             Yuanzhen%Zhang%NULL%2,             Liona C.%Poon%NULL%1,             Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,             Zhiqiang%Zhou%NULL%1,             Jianping%Zhang%NULL%1,             Fengfeng%Zhu%NULL%1,             Yongyan%Tang%NULL%1,             Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,             Yue%Sun%101799@qdfe.com%1,             Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,             Huan%Yang%NULL%1,             Junfeng%Kong%NULL%2,             Junfeng%Kong%NULL%0,             Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,             Mingxing%Li%NULL%1,             Kai%Guo%NULL%1,             Weijia%Wang%NULL%1,             Binfei%Li%NULL%1,             Jianwei%Li%NULL%2,             Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,             Hong%Wei%NULL%2,             Hong%Wei%NULL%0,             Zhihong%Zhang%NULL%1,             Jing%Chang%NULL%1,             Xiaopeng%Ma%NULL%1,             Xiang%Gao%NULL%1,             Qiang%Chen%qiangchen2015@sina.com%1,             Qiumei%Pang%pqm19650930@sina.com%0,             Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,             Jianhui%Wang%NULL%1,             Yunbo%Mo%NULL%1,             Wei%Duan%NULL%1,             Guangjun%Xiang%NULL%1,             Ming%Yi%NULL%1,             Lei%Bao%NULL%1,             Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,             Lin%Sang%NULL%1,             Shihua%Du%NULL%1,             Tao%Li%NULL%0,             Yange%Chang%NULL%1,             Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,             Luigi%Frigerio%NULL%1,             Irene%Cetin%NULL%1,             Patrizia%Vergani%NULL%1,             Arsenio%Spinillo%NULL%1,             Federico%Prefumo%NULL%1,             Edda%Pellegrini%NULL%1,             Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,             Alexandre J.%Vivanti%NULL%1,             Nadine%Shehata%NULL%1,             Alexandra%Benachi%NULL%1,             Agnes%Le Gouez%NULL%1,             Celine%Desconclois%NULL%1,             Wendy%Whittle%NULL%1,             John%Snelgrove%NULL%1,             Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,             Itzel Carolina%Fuentes-Barahona%NULL%2,             Itzel Carolina%Fuentes-Barahona%NULL%0,             Daysi Anabell%Bejarano-Torres%NULL%1,             Carolina%Bustillo%NULL%2,             Gloria%Gonzales%NULL%1,             Gissela%Vallecillo-Chinchilla%NULL%1,             Fredal Eduardo%Sanchez-Martínez%NULL%2,             Fredal Eduardo%Sanchez-Martínez%NULL%0,             Jorge Alberto%Valle-Reconco%NULL%1,             Manuel%Sierra%NULL%2,             Manuel%Sierra%NULL%0,             D. Katterine%Bonilla-Aldana%NULL%2,             D. Katterine%Bonilla-Aldana%NULL%0,             Jaime A.%Cardona-Ospina%NULL%2,             Jaime A.%Cardona-Ospina%NULL%0,             Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,             Jihyang%Lee%NULL%6,             Jihyang%Lee%NULL%0,             Eunju%Kim%NULL%6,             Eunju%Kim%NULL%0,             Kyeongyoon%Woo%NULL%6,             Kyeongyoon%Woo%NULL%0,             Hak Youle%Park%NULL%6,             Hak Youle%Park%NULL%0,             Jihyun%An%NULL%6,             Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,            Kalafat%Erkan%coreGivesNoEmail%1,            KO\u00c7%ASLI%coreGivesNoEmail%1,            Ozisik%S.%coreGivesNoEmail%1,            UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,            VARLI%BULUT%coreGivesNoEmail%1,            Yaprak%E.%coreGivesNoEmail%1,            \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,             Maliheh%Naghavi%NULL%1,             Abdolamir%Feyzi%NULL%1,             Mehdi%Aghamohammadi%NULL%1,             Mohammad Sadegh%Novin%NULL%1,             Ahmadreza%Mobaien%NULL%1,             Mohamad%Qorbanisani%NULL%1,             Aida%Karami%NULL%1,             Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,             Benjamin%Bopp%NULL%2,             Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,             J.%Ocampo Pérez%NULL%1,             L.%González Bautista%NULL%1,             L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,             Tania%Paredes%NULL%4,             Tania%Paredes%NULL%0,             David%Caceres%NULL%2,             Camille M.%Webb%NULL%2,             Luis M.%Valdez%NULL%2,             Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,             Rajesh%Kumari%NULL%1,             Garima%Kachhawa%NULL%1,             Anjolie%Chhabra%NULL%1,             Ramesh%Agarwal%NULL%1,             Akash%Sharma%NULL%1,             Sunesh%Kumar%NULL%1,             Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,              Caitlin%Baptiste%NULL%1,              Cynthia%Gyamfi-Bannerman%NULL%1,              Russell%Miller%NULL%1,              Rebecca%Martinez%NULL%1,              Kyra%Bernstein%NULL%1,              Laurence%Ring%NULL%1,              Ruth%Landau%NULL%1,              Stephanie%Purisch%NULL%1,              Alexander M.%Friedman%NULL%1,              Karin%Fuchs%NULL%1,              Desmond%Sutton%NULL%1,              Maria%Andrikopoulou%NULL%1,              Devon%Rupley%NULL%1,              Jean-Ju%Sheen%NULL%1,              Janice%Aubey%NULL%1,              Noelia%Zork%NULL%1,              Leslie%Moroz%NULL%1,              Mirella%Mourad%NULL%1,              Ronald%Wapner%NULL%1,              Lynn L.%Simpson%NULL%1,              Mary E.%D’Alton%NULL%1,              Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,              Munir%Nazir%NULL%1,              Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,              Jolene%Muscat%NULL%2,              Jolene%Muscat%NULL%0,              Eva%Hoffmann%NULL%1,              Nicole S.%John%NULL%1,              Rosanne%Vertichio%NULL%1,              Anthony M.%Vintzileos%NULL%1,              Duc%Vo%NULL%2,              Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,              Yousef%Al Ahwel%NULL%1,              Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,              Rachael%Overcash%NULL%2,              Neggin%Mokhtari%NULL%2,              Haleema%Saeed%NULL%2,              Stacey%Gold%NULL%2,              Tamika%Auguste%NULL%2,              Muhammad-Usman%Mirza%NULL%2,              Maria-Elena%Ruiz%NULL%2,              Joeffrey J.%Chahine%NULL%4,              Joeffrey J.%Chahine%NULL%0,              Masashi%Waga%NULL%4,              Masashi%Waga%NULL%0,              Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,              Jennifer B.%Linfert%NULL%1,              Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,              Juanjuan%Guo%NULL%2,              Cuifang%Fan%NULL%1,              Juan%Juan%NULL%1,              Xuechen%Yu%NULL%2,              Jiafu%Li%NULL%2,              Ling%Feng%NULL%1,              Chunyan%Li%NULL%1,              Huijun%Chen%NULL%1,              Yuan%Qiao%NULL%1,              Di%Lei%NULL%1,              Chen%Wang%NULL%3,              Guoping%Xiong%NULL%1,              Fengyi%Xiao%NULL%1,              Wencong%He%NULL%1,              Qiumei%Pang%NULL%3,              Xiaoling%Hu%NULL%1,              Suqing%Wang%NULL%1,              Dunjin%Chen%NULL%1,              Yuanzhen%Zhang%NULL%2,              Liona C.%Poon%NULL%1,              Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,              Zhiqiang%Zhou%NULL%1,              Jianping%Zhang%NULL%1,              Fengfeng%Zhu%NULL%1,              Yongyan%Tang%NULL%1,              Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,              Yue%Sun%101799@qdfe.com%1,              Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,              Huan%Yang%NULL%1,              Junfeng%Kong%NULL%2,              Junfeng%Kong%NULL%0,              Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,              Mingxing%Li%NULL%1,              Kai%Guo%NULL%1,              Weijia%Wang%NULL%1,              Binfei%Li%NULL%1,              Jianwei%Li%NULL%2,              Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,              Hong%Wei%NULL%2,              Hong%Wei%NULL%0,              Zhihong%Zhang%NULL%1,              Jing%Chang%NULL%1,              Xiaopeng%Ma%NULL%1,              Xiang%Gao%NULL%1,              Qiang%Chen%qiangchen2015@sina.com%1,              Qiumei%Pang%pqm19650930@sina.com%0,              Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,              Jianhui%Wang%NULL%1,              Yunbo%Mo%NULL%1,              Wei%Duan%NULL%1,              Guangjun%Xiang%NULL%1,              Ming%Yi%NULL%1,              Lei%Bao%NULL%1,              Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,              Lin%Sang%NULL%1,              Shihua%Du%NULL%1,              Tao%Li%NULL%0,              Yange%Chang%NULL%1,              Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,              Luigi%Frigerio%NULL%1,              Irene%Cetin%NULL%1,              Patrizia%Vergani%NULL%1,              Arsenio%Spinillo%NULL%1,              Federico%Prefumo%NULL%1,              Edda%Pellegrini%NULL%1,              Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,              Alexandre J.%Vivanti%NULL%1,              Nadine%Shehata%NULL%1,              Alexandra%Benachi%NULL%1,              Agnes%Le Gouez%NULL%1,              Celine%Desconclois%NULL%1,              Wendy%Whittle%NULL%1,              John%Snelgrove%NULL%1,              Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,              Itzel Carolina%Fuentes-Barahona%NULL%2,              Itzel Carolina%Fuentes-Barahona%NULL%0,              Daysi Anabell%Bejarano-Torres%NULL%1,              Carolina%Bustillo%NULL%2,              Gloria%Gonzales%NULL%1,              Gissela%Vallecillo-Chinchilla%NULL%1,              Fredal Eduardo%Sanchez-Martínez%NULL%2,              Fredal Eduardo%Sanchez-Martínez%NULL%0,              Jorge Alberto%Valle-Reconco%NULL%1,              Manuel%Sierra%NULL%2,              Manuel%Sierra%NULL%0,              D. Katterine%Bonilla-Aldana%NULL%2,              D. Katterine%Bonilla-Aldana%NULL%0,              Jaime A.%Cardona-Ospina%NULL%2,              Jaime A.%Cardona-Ospina%NULL%0,              Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,              Jihyang%Lee%NULL%6,              Jihyang%Lee%NULL%0,              Eunju%Kim%NULL%6,              Eunju%Kim%NULL%0,              Kyeongyoon%Woo%NULL%6,              Kyeongyoon%Woo%NULL%0,              Hak Youle%Park%NULL%6,              Hak Youle%Park%NULL%0,              Jihyun%An%NULL%6,              Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,             Kalafat%Erkan%coreGivesNoEmail%1,             KO\u00c7%ASLI%coreGivesNoEmail%1,             Ozisik%S.%coreGivesNoEmail%1,             UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,             VARLI%BULUT%coreGivesNoEmail%1,             Yaprak%E.%coreGivesNoEmail%1,             \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,              Maliheh%Naghavi%NULL%1,              Abdolamir%Feyzi%NULL%1,              Mehdi%Aghamohammadi%NULL%1,              Mohammad Sadegh%Novin%NULL%1,              Ahmadreza%Mobaien%NULL%1,              Mohamad%Qorbanisani%NULL%1,              Aida%Karami%NULL%1,              Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,              Benjamin%Bopp%NULL%2,              Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,              J.%Ocampo Pérez%NULL%1,              L.%González Bautista%NULL%1,              L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,              Tania%Paredes%NULL%4,              Tania%Paredes%NULL%0,              David%Caceres%NULL%2,              Camille M.%Webb%NULL%2,              Luis M.%Valdez%NULL%2,              Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,              Rajesh%Kumari%NULL%1,              Garima%Kachhawa%NULL%1,              Anjolie%Chhabra%NULL%1,              Ramesh%Agarwal%NULL%1,              Akash%Sharma%NULL%1,              Sunesh%Kumar%NULL%1,              Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1658,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1543,7 +1687,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1572,7 +1716,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1601,7 +1745,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1630,7 +1774,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1659,7 +1803,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1688,7 +1832,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -1746,7 +1890,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1775,7 +1919,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1804,7 +1948,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1833,7 +1977,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -1862,7 +2006,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -1891,7 +2035,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -1920,7 +2064,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -1949,7 +2093,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2007,7 +2151,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -2036,7 +2180,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2065,7 +2209,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -2123,7 +2267,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2152,7 +2296,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2181,7 +2325,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2210,7 +2354,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2239,7 +2383,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2268,7 +2412,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="418">
   <si>
     <t>Doi</t>
   </si>
@@ -1311,6 +1311,78 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,              Rajesh%Kumari%NULL%1,              Garima%Kachhawa%NULL%1,              Anjolie%Chhabra%NULL%1,              Ramesh%Agarwal%NULL%1,              Akash%Sharma%NULL%1,              Sunesh%Kumar%NULL%1,              Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,               Caitlin%Baptiste%NULL%1,               Cynthia%Gyamfi-Bannerman%NULL%1,               Russell%Miller%NULL%1,               Rebecca%Martinez%NULL%1,               Kyra%Bernstein%NULL%1,               Laurence%Ring%NULL%1,               Ruth%Landau%NULL%1,               Stephanie%Purisch%NULL%1,               Alexander M.%Friedman%NULL%1,               Karin%Fuchs%NULL%1,               Desmond%Sutton%NULL%1,               Maria%Andrikopoulou%NULL%1,               Devon%Rupley%NULL%1,               Jean-Ju%Sheen%NULL%1,               Janice%Aubey%NULL%1,               Noelia%Zork%NULL%1,               Leslie%Moroz%NULL%1,               Mirella%Mourad%NULL%1,               Ronald%Wapner%NULL%1,               Lynn L.%Simpson%NULL%1,               Mary E.%D’Alton%NULL%1,               Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,               Munir%Nazir%NULL%1,               Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,               Jolene%Muscat%NULL%2,               Jolene%Muscat%NULL%0,               Eva%Hoffmann%NULL%1,               Nicole S.%John%NULL%1,               Rosanne%Vertichio%NULL%1,               Anthony M.%Vintzileos%NULL%1,               Duc%Vo%NULL%2,               Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,               Yousef%Al Ahwel%NULL%1,               Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,               Rachael%Overcash%NULL%2,               Neggin%Mokhtari%NULL%2,               Haleema%Saeed%NULL%2,               Stacey%Gold%NULL%2,               Tamika%Auguste%NULL%2,               Muhammad-Usman%Mirza%NULL%2,               Maria-Elena%Ruiz%NULL%2,               Joeffrey J.%Chahine%NULL%4,               Joeffrey J.%Chahine%NULL%0,               Masashi%Waga%NULL%4,               Masashi%Waga%NULL%0,               Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,               Jennifer B.%Linfert%NULL%1,               Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,               Juanjuan%Guo%NULL%2,               Cuifang%Fan%NULL%1,               Juan%Juan%NULL%1,               Xuechen%Yu%NULL%2,               Jiafu%Li%NULL%2,               Ling%Feng%NULL%1,               Chunyan%Li%NULL%1,               Huijun%Chen%NULL%1,               Yuan%Qiao%NULL%1,               Di%Lei%NULL%1,               Chen%Wang%NULL%3,               Guoping%Xiong%NULL%1,               Fengyi%Xiao%NULL%1,               Wencong%He%NULL%1,               Qiumei%Pang%NULL%3,               Xiaoling%Hu%NULL%1,               Suqing%Wang%NULL%1,               Dunjin%Chen%NULL%1,               Yuanzhen%Zhang%NULL%2,               Liona C.%Poon%NULL%1,               Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,               Zhiqiang%Zhou%NULL%1,               Jianping%Zhang%NULL%1,               Fengfeng%Zhu%NULL%1,               Yongyan%Tang%NULL%1,               Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,               Yue%Sun%101799@qdfe.com%1,               Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,               Huan%Yang%NULL%1,               Junfeng%Kong%NULL%2,               Junfeng%Kong%NULL%0,               Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,               Mingxing%Li%NULL%1,               Kai%Guo%NULL%1,               Weijia%Wang%NULL%1,               Binfei%Li%NULL%1,               Jianwei%Li%NULL%2,               Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,               Hong%Wei%NULL%2,               Hong%Wei%NULL%0,               Zhihong%Zhang%NULL%1,               Jing%Chang%NULL%1,               Xiaopeng%Ma%NULL%1,               Xiang%Gao%NULL%1,               Qiang%Chen%qiangchen2015@sina.com%1,               Qiumei%Pang%pqm19650930@sina.com%0,               Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,               Jianhui%Wang%NULL%1,               Yunbo%Mo%NULL%1,               Wei%Duan%NULL%1,               Guangjun%Xiang%NULL%1,               Ming%Yi%NULL%1,               Lei%Bao%NULL%1,               Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,               Lin%Sang%NULL%1,               Shihua%Du%NULL%1,               Tao%Li%NULL%0,               Yange%Chang%NULL%1,               Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,               Luigi%Frigerio%NULL%1,               Irene%Cetin%NULL%1,               Patrizia%Vergani%NULL%1,               Arsenio%Spinillo%NULL%1,               Federico%Prefumo%NULL%1,               Edda%Pellegrini%NULL%1,               Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,               Alexandre J.%Vivanti%NULL%1,               Nadine%Shehata%NULL%1,               Alexandra%Benachi%NULL%1,               Agnes%Le Gouez%NULL%1,               Celine%Desconclois%NULL%1,               Wendy%Whittle%NULL%1,               John%Snelgrove%NULL%1,               Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,               Itzel Carolina%Fuentes-Barahona%NULL%2,               Itzel Carolina%Fuentes-Barahona%NULL%0,               Daysi Anabell%Bejarano-Torres%NULL%1,               Carolina%Bustillo%NULL%2,               Gloria%Gonzales%NULL%1,               Gissela%Vallecillo-Chinchilla%NULL%1,               Fredal Eduardo%Sanchez-Martínez%NULL%2,               Fredal Eduardo%Sanchez-Martínez%NULL%0,               Jorge Alberto%Valle-Reconco%NULL%1,               Manuel%Sierra%NULL%2,               Manuel%Sierra%NULL%0,               D. Katterine%Bonilla-Aldana%NULL%2,               D. Katterine%Bonilla-Aldana%NULL%0,               Jaime A.%Cardona-Ospina%NULL%2,               Jaime A.%Cardona-Ospina%NULL%0,               Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,               Jihyang%Lee%NULL%6,               Jihyang%Lee%NULL%0,               Eunju%Kim%NULL%6,               Eunju%Kim%NULL%0,               Kyeongyoon%Woo%NULL%6,               Kyeongyoon%Woo%NULL%0,               Hak Youle%Park%NULL%6,               Hak Youle%Park%NULL%0,               Jihyun%An%NULL%6,               Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,              Kalafat%Erkan%coreGivesNoEmail%1,              KO\u00c7%ASLI%coreGivesNoEmail%1,              Ozisik%S.%coreGivesNoEmail%1,              UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,              VARLI%BULUT%coreGivesNoEmail%1,              Yaprak%E.%coreGivesNoEmail%1,              \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,               Maliheh%Naghavi%NULL%1,               Abdolamir%Feyzi%NULL%1,               Mehdi%Aghamohammadi%NULL%1,               Mohammad Sadegh%Novin%NULL%1,               Ahmadreza%Mobaien%NULL%1,               Mohamad%Qorbanisani%NULL%1,               Aida%Karami%NULL%1,               Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,               Benjamin%Bopp%NULL%2,               Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,               J.%Ocampo Pérez%NULL%1,               L.%González Bautista%NULL%1,               L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,               Tania%Paredes%NULL%4,               Tania%Paredes%NULL%0,               David%Caceres%NULL%2,               Camille M.%Webb%NULL%2,               Luis M.%Valdez%NULL%2,               Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,               Rajesh%Kumari%NULL%1,               Garima%Kachhawa%NULL%1,               Anjolie%Chhabra%NULL%1,               Ramesh%Agarwal%NULL%1,               Akash%Sharma%NULL%1,               Sunesh%Kumar%NULL%1,               Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1730,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1687,7 +1759,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1716,7 +1788,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1745,7 +1817,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1774,7 +1846,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1803,7 +1875,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1832,7 +1904,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -1890,7 +1962,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1919,7 +1991,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -1948,7 +2020,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -1977,7 +2049,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2006,7 +2078,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2035,7 +2107,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2064,7 +2136,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -2093,7 +2165,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2151,7 +2223,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -2180,7 +2252,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2209,7 +2281,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -2267,7 +2339,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2296,7 +2368,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2325,7 +2397,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2354,7 +2426,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2383,7 +2455,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2412,7 +2484,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="442">
   <si>
     <t>Doi</t>
   </si>
@@ -1383,6 +1383,78 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,               Rajesh%Kumari%NULL%1,               Garima%Kachhawa%NULL%1,               Anjolie%Chhabra%NULL%1,               Ramesh%Agarwal%NULL%1,               Akash%Sharma%NULL%1,               Sunesh%Kumar%NULL%1,               Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                Caitlin%Baptiste%NULL%1,                Cynthia%Gyamfi-Bannerman%NULL%1,                Russell%Miller%NULL%1,                Rebecca%Martinez%NULL%1,                Kyra%Bernstein%NULL%1,                Laurence%Ring%NULL%1,                Ruth%Landau%NULL%1,                Stephanie%Purisch%NULL%1,                Alexander M.%Friedman%NULL%1,                Karin%Fuchs%NULL%1,                Desmond%Sutton%NULL%1,                Maria%Andrikopoulou%NULL%1,                Devon%Rupley%NULL%1,                Jean-Ju%Sheen%NULL%1,                Janice%Aubey%NULL%1,                Noelia%Zork%NULL%1,                Leslie%Moroz%NULL%1,                Mirella%Mourad%NULL%1,                Ronald%Wapner%NULL%1,                Lynn L.%Simpson%NULL%1,                Mary E.%D’Alton%NULL%1,                Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                Munir%Nazir%NULL%1,                Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                Jolene%Muscat%NULL%2,                Jolene%Muscat%NULL%0,                Eva%Hoffmann%NULL%1,                Nicole S.%John%NULL%1,                Rosanne%Vertichio%NULL%1,                Anthony M.%Vintzileos%NULL%1,                Duc%Vo%NULL%2,                Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                Yousef%Al Ahwel%NULL%1,                Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                Rachael%Overcash%NULL%2,                Neggin%Mokhtari%NULL%2,                Haleema%Saeed%NULL%2,                Stacey%Gold%NULL%2,                Tamika%Auguste%NULL%2,                Muhammad-Usman%Mirza%NULL%2,                Maria-Elena%Ruiz%NULL%2,                Joeffrey J.%Chahine%NULL%4,                Joeffrey J.%Chahine%NULL%0,                Masashi%Waga%NULL%4,                Masashi%Waga%NULL%0,                Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                Jennifer B.%Linfert%NULL%1,                Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                Juanjuan%Guo%NULL%2,                Cuifang%Fan%NULL%1,                Juan%Juan%NULL%1,                Xuechen%Yu%NULL%2,                Jiafu%Li%NULL%2,                Ling%Feng%NULL%1,                Chunyan%Li%NULL%1,                Huijun%Chen%NULL%1,                Yuan%Qiao%NULL%1,                Di%Lei%NULL%1,                Chen%Wang%NULL%3,                Guoping%Xiong%NULL%1,                Fengyi%Xiao%NULL%1,                Wencong%He%NULL%1,                Qiumei%Pang%NULL%3,                Xiaoling%Hu%NULL%1,                Suqing%Wang%NULL%1,                Dunjin%Chen%NULL%1,                Yuanzhen%Zhang%NULL%2,                Liona C.%Poon%NULL%1,                Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                Zhiqiang%Zhou%NULL%1,                Jianping%Zhang%NULL%1,                Fengfeng%Zhu%NULL%1,                Yongyan%Tang%NULL%1,                Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                Yue%Sun%101799@qdfe.com%1,                Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                Huan%Yang%NULL%1,                Junfeng%Kong%NULL%2,                Junfeng%Kong%NULL%0,                Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                Mingxing%Li%NULL%1,                Kai%Guo%NULL%1,                Weijia%Wang%NULL%1,                Binfei%Li%NULL%1,                Jianwei%Li%NULL%2,                Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                Hong%Wei%NULL%2,                Hong%Wei%NULL%0,                Zhihong%Zhang%NULL%1,                Jing%Chang%NULL%1,                Xiaopeng%Ma%NULL%1,                Xiang%Gao%NULL%1,                Qiang%Chen%qiangchen2015@sina.com%1,                Qiumei%Pang%pqm19650930@sina.com%0,                Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                Jianhui%Wang%NULL%1,                Yunbo%Mo%NULL%1,                Wei%Duan%NULL%1,                Guangjun%Xiang%NULL%1,                Ming%Yi%NULL%1,                Lei%Bao%NULL%1,                Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                Lin%Sang%NULL%1,                Shihua%Du%NULL%1,                Tao%Li%NULL%0,                Yange%Chang%NULL%1,                Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                Luigi%Frigerio%NULL%1,                Irene%Cetin%NULL%1,                Patrizia%Vergani%NULL%1,                Arsenio%Spinillo%NULL%1,                Federico%Prefumo%NULL%1,                Edda%Pellegrini%NULL%1,                Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                Alexandre J.%Vivanti%NULL%1,                Nadine%Shehata%NULL%1,                Alexandra%Benachi%NULL%1,                Agnes%Le Gouez%NULL%1,                Celine%Desconclois%NULL%1,                Wendy%Whittle%NULL%1,                John%Snelgrove%NULL%1,                Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                Itzel Carolina%Fuentes-Barahona%NULL%2,                Itzel Carolina%Fuentes-Barahona%NULL%0,                Daysi Anabell%Bejarano-Torres%NULL%1,                Carolina%Bustillo%NULL%2,                Gloria%Gonzales%NULL%1,                Gissela%Vallecillo-Chinchilla%NULL%1,                Fredal Eduardo%Sanchez-Martínez%NULL%2,                Fredal Eduardo%Sanchez-Martínez%NULL%0,                Jorge Alberto%Valle-Reconco%NULL%1,                Manuel%Sierra%NULL%2,                Manuel%Sierra%NULL%0,                D. Katterine%Bonilla-Aldana%NULL%2,                D. Katterine%Bonilla-Aldana%NULL%0,                Jaime A.%Cardona-Ospina%NULL%2,                Jaime A.%Cardona-Ospina%NULL%0,                Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                Jihyang%Lee%NULL%6,                Jihyang%Lee%NULL%0,                Eunju%Kim%NULL%6,                Eunju%Kim%NULL%0,                Kyeongyoon%Woo%NULL%6,                Kyeongyoon%Woo%NULL%0,                Hak Youle%Park%NULL%6,                Hak Youle%Park%NULL%0,                Jihyun%An%NULL%6,                Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,               Kalafat%Erkan%coreGivesNoEmail%1,               KO\u00c7%ASLI%coreGivesNoEmail%1,               Ozisik%S.%coreGivesNoEmail%1,               UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,               VARLI%BULUT%coreGivesNoEmail%1,               Yaprak%E.%coreGivesNoEmail%1,               \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                Maliheh%Naghavi%NULL%1,                Abdolamir%Feyzi%NULL%1,                Mehdi%Aghamohammadi%NULL%1,                Mohammad Sadegh%Novin%NULL%1,                Ahmadreza%Mobaien%NULL%1,                Mohamad%Qorbanisani%NULL%1,                Aida%Karami%NULL%1,                Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                Benjamin%Bopp%NULL%2,                Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                J.%Ocampo Pérez%NULL%1,                L.%González Bautista%NULL%1,                L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                Tania%Paredes%NULL%4,                Tania%Paredes%NULL%0,                David%Caceres%NULL%2,                Camille M.%Webb%NULL%2,                Luis M.%Valdez%NULL%2,                Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                Rajesh%Kumari%NULL%1,                Garima%Kachhawa%NULL%1,                Anjolie%Chhabra%NULL%1,                Ramesh%Agarwal%NULL%1,                Akash%Sharma%NULL%1,                Sunesh%Kumar%NULL%1,                Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1802,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1759,7 +1831,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1788,7 +1860,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1817,7 +1889,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1846,7 +1918,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1875,7 +1947,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1904,7 +1976,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -1962,7 +2034,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -1991,7 +2063,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2020,7 +2092,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2049,7 +2121,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2078,7 +2150,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2107,7 +2179,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>406</v>
+        <v>430</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2136,7 +2208,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -2165,7 +2237,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2223,7 +2295,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -2252,7 +2324,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>410</v>
+        <v>434</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2281,7 +2353,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -2339,7 +2411,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2368,7 +2440,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2397,7 +2469,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>414</v>
+        <v>438</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2426,7 +2498,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2455,7 +2527,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>416</v>
+        <v>440</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2484,7 +2556,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="490">
   <si>
     <t>Doi</t>
   </si>
@@ -1455,6 +1455,150 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,                Rajesh%Kumari%NULL%1,                Garima%Kachhawa%NULL%1,                Anjolie%Chhabra%NULL%1,                Ramesh%Agarwal%NULL%1,                Akash%Sharma%NULL%1,                Sunesh%Kumar%NULL%1,                Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                 Caitlin%Baptiste%NULL%1,                 Cynthia%Gyamfi-Bannerman%NULL%1,                 Russell%Miller%NULL%1,                 Rebecca%Martinez%NULL%1,                 Kyra%Bernstein%NULL%1,                 Laurence%Ring%NULL%1,                 Ruth%Landau%NULL%1,                 Stephanie%Purisch%NULL%1,                 Alexander M.%Friedman%NULL%1,                 Karin%Fuchs%NULL%1,                 Desmond%Sutton%NULL%1,                 Maria%Andrikopoulou%NULL%1,                 Devon%Rupley%NULL%1,                 Jean-Ju%Sheen%NULL%1,                 Janice%Aubey%NULL%1,                 Noelia%Zork%NULL%1,                 Leslie%Moroz%NULL%1,                 Mirella%Mourad%NULL%1,                 Ronald%Wapner%NULL%1,                 Lynn L.%Simpson%NULL%1,                 Mary E.%D’Alton%NULL%1,                 Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                 Munir%Nazir%NULL%1,                 Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                 Jolene%Muscat%NULL%2,                 Jolene%Muscat%NULL%0,                 Eva%Hoffmann%NULL%1,                 Nicole S.%John%NULL%1,                 Rosanne%Vertichio%NULL%1,                 Anthony M.%Vintzileos%NULL%1,                 Duc%Vo%NULL%2,                 Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                 Yousef%Al Ahwel%NULL%1,                 Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                 Rachael%Overcash%NULL%2,                 Neggin%Mokhtari%NULL%2,                 Haleema%Saeed%NULL%2,                 Stacey%Gold%NULL%2,                 Tamika%Auguste%NULL%2,                 Muhammad-Usman%Mirza%NULL%2,                 Maria-Elena%Ruiz%NULL%2,                 Joeffrey J.%Chahine%NULL%4,                 Joeffrey J.%Chahine%NULL%0,                 Masashi%Waga%NULL%4,                 Masashi%Waga%NULL%0,                 Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                 Jennifer B.%Linfert%NULL%1,                 Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                 Juanjuan%Guo%NULL%2,                 Cuifang%Fan%NULL%1,                 Juan%Juan%NULL%1,                 Xuechen%Yu%NULL%2,                 Jiafu%Li%NULL%2,                 Ling%Feng%NULL%1,                 Chunyan%Li%NULL%1,                 Huijun%Chen%NULL%1,                 Yuan%Qiao%NULL%1,                 Di%Lei%NULL%1,                 Chen%Wang%NULL%3,                 Guoping%Xiong%NULL%1,                 Fengyi%Xiao%NULL%1,                 Wencong%He%NULL%1,                 Qiumei%Pang%NULL%3,                 Xiaoling%Hu%NULL%1,                 Suqing%Wang%NULL%1,                 Dunjin%Chen%NULL%1,                 Yuanzhen%Zhang%NULL%2,                 Liona C.%Poon%NULL%1,                 Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                 Zhiqiang%Zhou%NULL%1,                 Jianping%Zhang%NULL%1,                 Fengfeng%Zhu%NULL%1,                 Yongyan%Tang%NULL%1,                 Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                 Yue%Sun%101799@qdfe.com%1,                 Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                 Huan%Yang%NULL%1,                 Junfeng%Kong%NULL%2,                 Junfeng%Kong%NULL%0,                 Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                 Mingxing%Li%NULL%1,                 Kai%Guo%NULL%1,                 Weijia%Wang%NULL%1,                 Binfei%Li%NULL%1,                 Jianwei%Li%NULL%2,                 Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                 Hong%Wei%NULL%2,                 Hong%Wei%NULL%0,                 Zhihong%Zhang%NULL%1,                 Jing%Chang%NULL%1,                 Xiaopeng%Ma%NULL%1,                 Xiang%Gao%NULL%1,                 Qiang%Chen%qiangchen2015@sina.com%1,                 Qiumei%Pang%pqm19650930@sina.com%0,                 Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                 Jianhui%Wang%NULL%1,                 Yunbo%Mo%NULL%1,                 Wei%Duan%NULL%1,                 Guangjun%Xiang%NULL%1,                 Ming%Yi%NULL%1,                 Lei%Bao%NULL%1,                 Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                 Lin%Sang%NULL%1,                 Shihua%Du%NULL%1,                 Tao%Li%NULL%0,                 Yange%Chang%NULL%1,                 Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                 Luigi%Frigerio%NULL%1,                 Irene%Cetin%NULL%1,                 Patrizia%Vergani%NULL%1,                 Arsenio%Spinillo%NULL%1,                 Federico%Prefumo%NULL%1,                 Edda%Pellegrini%NULL%1,                 Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                 Alexandre J.%Vivanti%NULL%1,                 Nadine%Shehata%NULL%1,                 Alexandra%Benachi%NULL%1,                 Agnes%Le Gouez%NULL%1,                 Celine%Desconclois%NULL%1,                 Wendy%Whittle%NULL%1,                 John%Snelgrove%NULL%1,                 Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                 Itzel Carolina%Fuentes-Barahona%NULL%2,                 Itzel Carolina%Fuentes-Barahona%NULL%0,                 Daysi Anabell%Bejarano-Torres%NULL%1,                 Carolina%Bustillo%NULL%2,                 Gloria%Gonzales%NULL%1,                 Gissela%Vallecillo-Chinchilla%NULL%1,                 Fredal Eduardo%Sanchez-Martínez%NULL%2,                 Fredal Eduardo%Sanchez-Martínez%NULL%0,                 Jorge Alberto%Valle-Reconco%NULL%1,                 Manuel%Sierra%NULL%2,                 Manuel%Sierra%NULL%0,                 D. Katterine%Bonilla-Aldana%NULL%2,                 D. Katterine%Bonilla-Aldana%NULL%0,                 Jaime A.%Cardona-Ospina%NULL%2,                 Jaime A.%Cardona-Ospina%NULL%0,                 Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                 Jihyang%Lee%NULL%6,                 Jihyang%Lee%NULL%0,                 Eunju%Kim%NULL%6,                 Eunju%Kim%NULL%0,                 Kyeongyoon%Woo%NULL%6,                 Kyeongyoon%Woo%NULL%0,                 Hak Youle%Park%NULL%6,                 Hak Youle%Park%NULL%0,                 Jihyun%An%NULL%6,                 Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                Kalafat%Erkan%coreGivesNoEmail%1,                KO\u00c7%ASLI%coreGivesNoEmail%1,                Ozisik%S.%coreGivesNoEmail%1,                UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                VARLI%BULUT%coreGivesNoEmail%1,                Yaprak%E.%coreGivesNoEmail%1,                \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                 Maliheh%Naghavi%NULL%1,                 Abdolamir%Feyzi%NULL%1,                 Mehdi%Aghamohammadi%NULL%1,                 Mohammad Sadegh%Novin%NULL%1,                 Ahmadreza%Mobaien%NULL%1,                 Mohamad%Qorbanisani%NULL%1,                 Aida%Karami%NULL%1,                 Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                 Benjamin%Bopp%NULL%2,                 Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                 J.%Ocampo Pérez%NULL%1,                 L.%González Bautista%NULL%1,                 L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                 Tania%Paredes%NULL%4,                 Tania%Paredes%NULL%0,                 David%Caceres%NULL%2,                 Camille M.%Webb%NULL%2,                 Luis M.%Valdez%NULL%2,                 Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                 Rajesh%Kumari%NULL%1,                 Garima%Kachhawa%NULL%1,                 Anjolie%Chhabra%NULL%1,                 Ramesh%Agarwal%NULL%1,                 Akash%Sharma%NULL%1,                 Sunesh%Kumar%NULL%1,                 Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                  Caitlin%Baptiste%NULL%1,                  Cynthia%Gyamfi-Bannerman%NULL%1,                  Russell%Miller%NULL%1,                  Rebecca%Martinez%NULL%1,                  Kyra%Bernstein%NULL%1,                  Laurence%Ring%NULL%1,                  Ruth%Landau%NULL%1,                  Stephanie%Purisch%NULL%1,                  Alexander M.%Friedman%NULL%1,                  Karin%Fuchs%NULL%1,                  Desmond%Sutton%NULL%1,                  Maria%Andrikopoulou%NULL%1,                  Devon%Rupley%NULL%1,                  Jean-Ju%Sheen%NULL%1,                  Janice%Aubey%NULL%1,                  Noelia%Zork%NULL%1,                  Leslie%Moroz%NULL%1,                  Mirella%Mourad%NULL%1,                  Ronald%Wapner%NULL%1,                  Lynn L.%Simpson%NULL%1,                  Mary E.%D’Alton%NULL%1,                  Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                  Munir%Nazir%NULL%1,                  Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                  Jolene%Muscat%NULL%2,                  Jolene%Muscat%NULL%0,                  Eva%Hoffmann%NULL%1,                  Nicole S.%John%NULL%1,                  Rosanne%Vertichio%NULL%1,                  Anthony M.%Vintzileos%NULL%1,                  Duc%Vo%NULL%2,                  Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                  Yousef%Al Ahwel%NULL%1,                  Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                  Rachael%Overcash%NULL%2,                  Neggin%Mokhtari%NULL%2,                  Haleema%Saeed%NULL%2,                  Stacey%Gold%NULL%2,                  Tamika%Auguste%NULL%2,                  Muhammad-Usman%Mirza%NULL%2,                  Maria-Elena%Ruiz%NULL%2,                  Joeffrey J.%Chahine%NULL%4,                  Joeffrey J.%Chahine%NULL%0,                  Masashi%Waga%NULL%4,                  Masashi%Waga%NULL%0,                  Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                  Jennifer B.%Linfert%NULL%1,                  Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                  Juanjuan%Guo%NULL%2,                  Cuifang%Fan%NULL%1,                  Juan%Juan%NULL%1,                  Xuechen%Yu%NULL%2,                  Jiafu%Li%NULL%2,                  Ling%Feng%NULL%1,                  Chunyan%Li%NULL%1,                  Huijun%Chen%NULL%1,                  Yuan%Qiao%NULL%1,                  Di%Lei%NULL%1,                  Chen%Wang%NULL%3,                  Guoping%Xiong%NULL%1,                  Fengyi%Xiao%NULL%1,                  Wencong%He%NULL%1,                  Qiumei%Pang%NULL%3,                  Xiaoling%Hu%NULL%1,                  Suqing%Wang%NULL%1,                  Dunjin%Chen%NULL%1,                  Yuanzhen%Zhang%NULL%2,                  Liona C.%Poon%NULL%1,                  Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                  Zhiqiang%Zhou%NULL%1,                  Jianping%Zhang%NULL%1,                  Fengfeng%Zhu%NULL%1,                  Yongyan%Tang%NULL%1,                  Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                  Yue%Sun%101799@qdfe.com%1,                  Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                  Huan%Yang%NULL%1,                  Junfeng%Kong%NULL%2,                  Junfeng%Kong%NULL%0,                  Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                  Mingxing%Li%NULL%1,                  Kai%Guo%NULL%1,                  Weijia%Wang%NULL%1,                  Binfei%Li%NULL%1,                  Jianwei%Li%NULL%2,                  Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                  Hong%Wei%NULL%2,                  Hong%Wei%NULL%0,                  Zhihong%Zhang%NULL%1,                  Jing%Chang%NULL%1,                  Xiaopeng%Ma%NULL%1,                  Xiang%Gao%NULL%1,                  Qiang%Chen%qiangchen2015@sina.com%1,                  Qiumei%Pang%pqm19650930@sina.com%0,                  Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                  Jianhui%Wang%NULL%1,                  Yunbo%Mo%NULL%1,                  Wei%Duan%NULL%1,                  Guangjun%Xiang%NULL%1,                  Ming%Yi%NULL%1,                  Lei%Bao%NULL%1,                  Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                  Lin%Sang%NULL%1,                  Shihua%Du%NULL%1,                  Tao%Li%NULL%0,                  Yange%Chang%NULL%1,                  Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                  Luigi%Frigerio%NULL%1,                  Irene%Cetin%NULL%1,                  Patrizia%Vergani%NULL%1,                  Arsenio%Spinillo%NULL%1,                  Federico%Prefumo%NULL%1,                  Edda%Pellegrini%NULL%1,                  Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                  Alexandre J.%Vivanti%NULL%1,                  Nadine%Shehata%NULL%1,                  Alexandra%Benachi%NULL%1,                  Agnes%Le Gouez%NULL%1,                  Celine%Desconclois%NULL%1,                  Wendy%Whittle%NULL%1,                  John%Snelgrove%NULL%1,                  Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                  Itzel Carolina%Fuentes-Barahona%NULL%2,                  Itzel Carolina%Fuentes-Barahona%NULL%0,                  Daysi Anabell%Bejarano-Torres%NULL%1,                  Carolina%Bustillo%NULL%2,                  Gloria%Gonzales%NULL%1,                  Gissela%Vallecillo-Chinchilla%NULL%1,                  Fredal Eduardo%Sanchez-Martínez%NULL%2,                  Fredal Eduardo%Sanchez-Martínez%NULL%0,                  Jorge Alberto%Valle-Reconco%NULL%1,                  Manuel%Sierra%NULL%2,                  Manuel%Sierra%NULL%0,                  D. Katterine%Bonilla-Aldana%NULL%2,                  D. Katterine%Bonilla-Aldana%NULL%0,                  Jaime A.%Cardona-Ospina%NULL%2,                  Jaime A.%Cardona-Ospina%NULL%0,                  Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                  Jihyang%Lee%NULL%6,                  Jihyang%Lee%NULL%0,                  Eunju%Kim%NULL%6,                  Eunju%Kim%NULL%0,                  Kyeongyoon%Woo%NULL%6,                  Kyeongyoon%Woo%NULL%0,                  Hak Youle%Park%NULL%6,                  Hak Youle%Park%NULL%0,                  Jihyun%An%NULL%6,                  Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                 Kalafat%Erkan%coreGivesNoEmail%1,                 KO\u00c7%ASLI%coreGivesNoEmail%1,                 Ozisik%S.%coreGivesNoEmail%1,                 UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                 VARLI%BULUT%coreGivesNoEmail%1,                 Yaprak%E.%coreGivesNoEmail%1,                 \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                  Maliheh%Naghavi%NULL%1,                  Abdolamir%Feyzi%NULL%1,                  Mehdi%Aghamohammadi%NULL%1,                  Mohammad Sadegh%Novin%NULL%1,                  Ahmadreza%Mobaien%NULL%1,                  Mohamad%Qorbanisani%NULL%1,                  Aida%Karami%NULL%1,                  Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                  Benjamin%Bopp%NULL%2,                  Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                  J.%Ocampo Pérez%NULL%1,                  L.%González Bautista%NULL%1,                  L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                  Tania%Paredes%NULL%4,                  Tania%Paredes%NULL%0,                  David%Caceres%NULL%2,                  Camille M.%Webb%NULL%2,                  Luis M.%Valdez%NULL%2,                  Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                  Rajesh%Kumari%NULL%1,                  Garima%Kachhawa%NULL%1,                  Anjolie%Chhabra%NULL%1,                  Ramesh%Agarwal%NULL%1,                  Akash%Sharma%NULL%1,                  Sunesh%Kumar%NULL%1,                  Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +1946,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1831,7 +1975,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1860,7 +2004,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -1889,7 +2033,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -1918,7 +2062,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -1947,7 +2091,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>471</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -1976,7 +2120,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>424</v>
+        <v>472</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -2034,7 +2178,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>425</v>
+        <v>473</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2063,7 +2207,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2092,7 +2236,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>427</v>
+        <v>475</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2121,7 +2265,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2150,7 +2294,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>429</v>
+        <v>477</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2179,7 +2323,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>430</v>
+        <v>478</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2208,7 +2352,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -2237,7 +2381,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2295,7 +2439,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -2324,7 +2468,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2353,7 +2497,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -2411,7 +2555,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2440,7 +2584,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2469,7 +2613,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2498,7 +2642,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2527,7 +2671,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2556,7 +2700,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2972" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="514">
   <si>
     <t>Doi</t>
   </si>
@@ -1599,6 +1599,78 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,                  Rajesh%Kumari%NULL%1,                  Garima%Kachhawa%NULL%1,                  Anjolie%Chhabra%NULL%1,                  Ramesh%Agarwal%NULL%1,                  Akash%Sharma%NULL%1,                  Sunesh%Kumar%NULL%1,                  Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                   Caitlin%Baptiste%NULL%1,                   Cynthia%Gyamfi-Bannerman%NULL%1,                   Russell%Miller%NULL%1,                   Rebecca%Martinez%NULL%1,                   Kyra%Bernstein%NULL%1,                   Laurence%Ring%NULL%1,                   Ruth%Landau%NULL%1,                   Stephanie%Purisch%NULL%1,                   Alexander M.%Friedman%NULL%1,                   Karin%Fuchs%NULL%1,                   Desmond%Sutton%NULL%1,                   Maria%Andrikopoulou%NULL%1,                   Devon%Rupley%NULL%1,                   Jean-Ju%Sheen%NULL%1,                   Janice%Aubey%NULL%1,                   Noelia%Zork%NULL%1,                   Leslie%Moroz%NULL%1,                   Mirella%Mourad%NULL%1,                   Ronald%Wapner%NULL%1,                   Lynn L.%Simpson%NULL%1,                   Mary E.%D’Alton%NULL%1,                   Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                   Munir%Nazir%NULL%1,                   Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                   Jolene%Muscat%NULL%2,                   Jolene%Muscat%NULL%0,                   Eva%Hoffmann%NULL%1,                   Nicole S.%John%NULL%1,                   Rosanne%Vertichio%NULL%1,                   Anthony M.%Vintzileos%NULL%1,                   Duc%Vo%NULL%2,                   Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                   Yousef%Al Ahwel%NULL%1,                   Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                   Rachael%Overcash%NULL%2,                   Neggin%Mokhtari%NULL%2,                   Haleema%Saeed%NULL%2,                   Stacey%Gold%NULL%2,                   Tamika%Auguste%NULL%2,                   Muhammad-Usman%Mirza%NULL%2,                   Maria-Elena%Ruiz%NULL%2,                   Joeffrey J.%Chahine%NULL%4,                   Joeffrey J.%Chahine%NULL%0,                   Masashi%Waga%NULL%4,                   Masashi%Waga%NULL%0,                   Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                   Jennifer B.%Linfert%NULL%1,                   Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                   Juanjuan%Guo%NULL%2,                   Cuifang%Fan%NULL%1,                   Juan%Juan%NULL%1,                   Xuechen%Yu%NULL%2,                   Jiafu%Li%NULL%2,                   Ling%Feng%NULL%1,                   Chunyan%Li%NULL%1,                   Huijun%Chen%NULL%1,                   Yuan%Qiao%NULL%1,                   Di%Lei%NULL%1,                   Chen%Wang%NULL%3,                   Guoping%Xiong%NULL%1,                   Fengyi%Xiao%NULL%1,                   Wencong%He%NULL%1,                   Qiumei%Pang%NULL%3,                   Xiaoling%Hu%NULL%1,                   Suqing%Wang%NULL%1,                   Dunjin%Chen%NULL%1,                   Yuanzhen%Zhang%NULL%2,                   Liona C.%Poon%NULL%1,                   Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                   Zhiqiang%Zhou%NULL%1,                   Jianping%Zhang%NULL%1,                   Fengfeng%Zhu%NULL%1,                   Yongyan%Tang%NULL%1,                   Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                   Yue%Sun%101799@qdfe.com%1,                   Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                   Huan%Yang%NULL%1,                   Junfeng%Kong%NULL%2,                   Junfeng%Kong%NULL%0,                   Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                   Mingxing%Li%NULL%1,                   Kai%Guo%NULL%1,                   Weijia%Wang%NULL%1,                   Binfei%Li%NULL%1,                   Jianwei%Li%NULL%2,                   Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                   Hong%Wei%NULL%2,                   Hong%Wei%NULL%0,                   Zhihong%Zhang%NULL%1,                   Jing%Chang%NULL%1,                   Xiaopeng%Ma%NULL%1,                   Xiang%Gao%NULL%1,                   Qiang%Chen%qiangchen2015@sina.com%1,                   Qiumei%Pang%pqm19650930@sina.com%0,                   Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                   Jianhui%Wang%NULL%1,                   Yunbo%Mo%NULL%1,                   Wei%Duan%NULL%1,                   Guangjun%Xiang%NULL%1,                   Ming%Yi%NULL%1,                   Lei%Bao%NULL%1,                   Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                   Lin%Sang%NULL%1,                   Shihua%Du%NULL%1,                   Tao%Li%NULL%0,                   Yange%Chang%NULL%1,                   Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                   Luigi%Frigerio%NULL%1,                   Irene%Cetin%NULL%1,                   Patrizia%Vergani%NULL%1,                   Arsenio%Spinillo%NULL%1,                   Federico%Prefumo%NULL%1,                   Edda%Pellegrini%NULL%1,                   Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                   Alexandre J.%Vivanti%NULL%1,                   Nadine%Shehata%NULL%1,                   Alexandra%Benachi%NULL%1,                   Agnes%Le Gouez%NULL%1,                   Celine%Desconclois%NULL%1,                   Wendy%Whittle%NULL%1,                   John%Snelgrove%NULL%1,                   Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                   Itzel Carolina%Fuentes-Barahona%NULL%2,                   Itzel Carolina%Fuentes-Barahona%NULL%0,                   Daysi Anabell%Bejarano-Torres%NULL%1,                   Carolina%Bustillo%NULL%2,                   Gloria%Gonzales%NULL%1,                   Gissela%Vallecillo-Chinchilla%NULL%1,                   Fredal Eduardo%Sanchez-Martínez%NULL%2,                   Fredal Eduardo%Sanchez-Martínez%NULL%0,                   Jorge Alberto%Valle-Reconco%NULL%1,                   Manuel%Sierra%NULL%2,                   Manuel%Sierra%NULL%0,                   D. Katterine%Bonilla-Aldana%NULL%2,                   D. Katterine%Bonilla-Aldana%NULL%0,                   Jaime A.%Cardona-Ospina%NULL%2,                   Jaime A.%Cardona-Ospina%NULL%0,                   Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                   Jihyang%Lee%NULL%6,                   Jihyang%Lee%NULL%0,                   Eunju%Kim%NULL%6,                   Eunju%Kim%NULL%0,                   Kyeongyoon%Woo%NULL%6,                   Kyeongyoon%Woo%NULL%0,                   Hak Youle%Park%NULL%6,                   Hak Youle%Park%NULL%0,                   Jihyun%An%NULL%6,                   Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                  Kalafat%Erkan%coreGivesNoEmail%1,                  KO\u00c7%ASLI%coreGivesNoEmail%1,                  Ozisik%S.%coreGivesNoEmail%1,                  UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                  VARLI%BULUT%coreGivesNoEmail%1,                  Yaprak%E.%coreGivesNoEmail%1,                  \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                   Maliheh%Naghavi%NULL%1,                   Abdolamir%Feyzi%NULL%1,                   Mehdi%Aghamohammadi%NULL%1,                   Mohammad Sadegh%Novin%NULL%1,                   Ahmadreza%Mobaien%NULL%1,                   Mohamad%Qorbanisani%NULL%1,                   Aida%Karami%NULL%1,                   Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                   Benjamin%Bopp%NULL%2,                   Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                   J.%Ocampo Pérez%NULL%1,                   L.%González Bautista%NULL%1,                   L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                   Tania%Paredes%NULL%4,                   Tania%Paredes%NULL%0,                   David%Caceres%NULL%2,                   Camille M.%Webb%NULL%2,                   Luis M.%Valdez%NULL%2,                   Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                   Rajesh%Kumari%NULL%1,                   Garima%Kachhawa%NULL%1,                   Anjolie%Chhabra%NULL%1,                   Ramesh%Agarwal%NULL%1,                   Akash%Sharma%NULL%1,                   Sunesh%Kumar%NULL%1,                   Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -1946,7 +2018,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -1975,7 +2047,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>491</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2004,7 +2076,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2033,7 +2105,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>493</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2062,7 +2134,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2091,7 +2163,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2120,7 +2192,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -2178,7 +2250,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2207,7 +2279,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2236,7 +2308,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>475</v>
+        <v>499</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2265,7 +2337,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2294,7 +2366,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>477</v>
+        <v>501</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2323,7 +2395,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2352,7 +2424,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>479</v>
+        <v>503</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -2381,7 +2453,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2439,7 +2511,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>481</v>
+        <v>505</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -2468,7 +2540,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2497,7 +2569,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>483</v>
+        <v>507</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -2555,7 +2627,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2584,7 +2656,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2613,7 +2685,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2642,7 +2714,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2671,7 +2743,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2700,7 +2772,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="545">
   <si>
     <t>Doi</t>
   </si>
@@ -1671,6 +1671,99 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,                   Rajesh%Kumari%NULL%1,                   Garima%Kachhawa%NULL%1,                   Anjolie%Chhabra%NULL%1,                   Ramesh%Agarwal%NULL%1,                   Akash%Sharma%NULL%1,                   Sunesh%Kumar%NULL%1,                   Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                    Caitlin%Baptiste%NULL%1,                    Cynthia%Gyamfi-Bannerman%NULL%1,                    Russell%Miller%NULL%1,                    Rebecca%Martinez%NULL%1,                    Kyra%Bernstein%NULL%1,                    Laurence%Ring%NULL%1,                    Ruth%Landau%NULL%1,                    Stephanie%Purisch%NULL%1,                    Alexander M.%Friedman%NULL%1,                    Karin%Fuchs%NULL%1,                    Desmond%Sutton%NULL%1,                    Maria%Andrikopoulou%NULL%1,                    Devon%Rupley%NULL%1,                    Jean-Ju%Sheen%NULL%1,                    Janice%Aubey%NULL%1,                    Noelia%Zork%NULL%1,                    Leslie%Moroz%NULL%1,                    Mirella%Mourad%NULL%1,                    Ronald%Wapner%NULL%1,                    Lynn L.%Simpson%NULL%1,                    Mary E.%D’Alton%NULL%1,                    Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                    Munir%Nazir%NULL%1,                    Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                    Jolene%Muscat%NULL%2,                    Jolene%Muscat%NULL%0,                    Eva%Hoffmann%NULL%1,                    Nicole S.%John%NULL%1,                    Rosanne%Vertichio%NULL%1,                    Anthony M.%Vintzileos%NULL%1,                    Duc%Vo%NULL%2,                    Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                    Yousef%Al Ahwel%NULL%1,                    Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                    Rachael%Overcash%NULL%2,                    Neggin%Mokhtari%NULL%2,                    Haleema%Saeed%NULL%2,                    Stacey%Gold%NULL%2,                    Tamika%Auguste%NULL%2,                    Muhammad-Usman%Mirza%NULL%2,                    Maria-Elena%Ruiz%NULL%2,                    Joeffrey J.%Chahine%NULL%4,                    Joeffrey J.%Chahine%NULL%0,                    Masashi%Waga%NULL%4,                    Masashi%Waga%NULL%0,                    Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                    Jennifer B.%Linfert%NULL%1,                    Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                    Juanjuan%Guo%NULL%2,                    Cuifang%Fan%NULL%1,                    Juan%Juan%NULL%1,                    Xuechen%Yu%NULL%2,                    Jiafu%Li%NULL%2,                    Ling%Feng%NULL%1,                    Chunyan%Li%NULL%1,                    Huijun%Chen%NULL%1,                    Yuan%Qiao%NULL%1,                    Di%Lei%NULL%1,                    Chen%Wang%NULL%3,                    Guoping%Xiong%NULL%1,                    Fengyi%Xiao%NULL%1,                    Wencong%He%NULL%1,                    Qiumei%Pang%NULL%3,                    Xiaoling%Hu%NULL%1,                    Suqing%Wang%NULL%1,                    Dunjin%Chen%NULL%1,                    Yuanzhen%Zhang%NULL%2,                    Liona C.%Poon%NULL%1,                    Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                    Zhiqiang%Zhou%NULL%1,                    Jianping%Zhang%NULL%1,                    Fengfeng%Zhu%NULL%1,                    Yongyan%Tang%NULL%1,                    Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                    Yue%Sun%101799@qdfe.com%1,                    Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                    Huan%Yang%NULL%1,                    Junfeng%Kong%NULL%2,                    Junfeng%Kong%NULL%0,                    Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                    Mingxing%Li%NULL%1,                    Kai%Guo%NULL%1,                    Weijia%Wang%NULL%1,                    Binfei%Li%NULL%1,                    Jianwei%Li%NULL%2,                    Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                    Hong%Wei%NULL%2,                    Hong%Wei%NULL%0,                    Zhihong%Zhang%NULL%1,                    Jing%Chang%NULL%1,                    Xiaopeng%Ma%NULL%1,                    Xiang%Gao%NULL%1,                    Qiang%Chen%qiangchen2015@sina.com%1,                    Qiumei%Pang%pqm19650930@sina.com%0,                    Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                    Jianhui%Wang%NULL%1,                    Yunbo%Mo%NULL%1,                    Wei%Duan%NULL%1,                    Guangjun%Xiang%NULL%1,                    Ming%Yi%NULL%1,                    Lei%Bao%NULL%1,                    Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                    Lin%Sang%NULL%1,                    Shihua%Du%NULL%1,                    Tao%Li%NULL%2,                    Yange%Chang%NULL%1,                    Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                    Luigi%Frigerio%NULL%1,                    Irene%Cetin%NULL%1,                    Patrizia%Vergani%NULL%1,                    Arsenio%Spinillo%NULL%1,                    Federico%Prefumo%NULL%1,                    Edda%Pellegrini%NULL%1,                    Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                    Alexandre J.%Vivanti%NULL%1,                    Nadine%Shehata%NULL%1,                    Alexandra%Benachi%NULL%1,                    Agnes%Le Gouez%NULL%1,                    Celine%Desconclois%NULL%1,                    Wendy%Whittle%NULL%1,                    John%Snelgrove%NULL%1,                    Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                    Itzel Carolina%Fuentes-Barahona%NULL%2,                    Itzel Carolina%Fuentes-Barahona%NULL%0,                    Daysi Anabell%Bejarano-Torres%NULL%1,                    Carolina%Bustillo%NULL%2,                    Gloria%Gonzales%NULL%1,                    Gissela%Vallecillo-Chinchilla%NULL%1,                    Fredal Eduardo%Sanchez-Martínez%NULL%2,                    Fredal Eduardo%Sanchez-Martínez%NULL%0,                    Jorge Alberto%Valle-Reconco%NULL%1,                    Manuel%Sierra%NULL%2,                    Manuel%Sierra%NULL%0,                    D. Katterine%Bonilla-Aldana%NULL%2,                    D. Katterine%Bonilla-Aldana%NULL%0,                    Jaime A.%Cardona-Ospina%NULL%2,                    Jaime A.%Cardona-Ospina%NULL%0,                    Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                    Jihyang%Lee%NULL%6,                    Jihyang%Lee%NULL%0,                    Eunju%Kim%NULL%6,                    Eunju%Kim%NULL%0,                    Kyeongyoon%Woo%NULL%6,                    Kyeongyoon%Woo%NULL%0,                    Hak Youle%Park%NULL%6,                    Hak Youle%Park%NULL%0,                    Jihyun%An%NULL%6,                    Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>"COVID\u201019 in pregnancy with comorbidities: More liberal testing strategy is needed"</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%2, Julia%Savchenko%xref no email%2, Thomas%Brune%xref no email%2, Hampus%Josefsson%xref no email%2]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                   Kalafat%Erkan%coreGivesNoEmail%1,                   KO\u00c7%ASLI%coreGivesNoEmail%1,                   Ozisik%S.%coreGivesNoEmail%1,                   UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                   VARLI%BULUT%coreGivesNoEmail%1,                   Yaprak%E.%coreGivesNoEmail%1,                   \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                    Maliheh%Naghavi%NULL%1,                    Abdolamir%Feyzi%NULL%1,                    Mehdi%Aghamohammadi%NULL%1,                    Mohammad Sadegh%Novin%NULL%1,                    Ahmadreza%Mobaien%NULL%1,                    Mohamad%Qorbanisani%NULL%1,                    Aida%Karami%NULL%1,                    Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                    Benjamin%Bopp%NULL%2,                    Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                    J.%Ocampo Pérez%NULL%1,                    L.%González Bautista%NULL%1,                    L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                    Tania%Paredes%NULL%4,                    Tania%Paredes%NULL%0,                    David%Caceres%NULL%2,                    Camille M.%Webb%NULL%2,                    Luis M.%Valdez%NULL%2,                    Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                    Rajesh%Kumari%NULL%1,                    Garima%Kachhawa%NULL%1,                    Anjolie%Chhabra%NULL%1,                    Ramesh%Agarwal%NULL%1,                    Akash%Sharma%NULL%1,                    Sunesh%Kumar%NULL%1,                    Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2018,7 +2111,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -2030,7 +2123,7 @@
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2047,7 +2140,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2059,7 +2152,7 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2076,7 +2169,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2088,7 +2181,7 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2105,7 +2198,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2117,7 +2210,7 @@
         <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2134,7 +2227,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2146,7 +2239,7 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2163,7 +2256,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2175,7 +2268,7 @@
         <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2192,7 +2285,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -2204,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2250,7 +2343,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>497</v>
+        <v>523</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2262,7 +2355,7 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2279,7 +2372,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2291,7 +2384,7 @@
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2308,7 +2401,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>499</v>
+        <v>525</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2320,7 +2413,7 @@
         <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2337,7 +2430,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2349,7 +2442,7 @@
         <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2366,7 +2459,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>501</v>
+        <v>527</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2378,7 +2471,7 @@
         <v>84</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2395,7 +2488,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2407,7 +2500,7 @@
         <v>88</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2424,7 +2517,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>503</v>
+        <v>529</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -2436,7 +2529,7 @@
         <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2453,7 +2546,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2465,7 +2558,7 @@
         <v>96</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2511,7 +2604,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -2523,7 +2616,7 @@
         <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2540,7 +2633,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2552,7 +2645,7 @@
         <v>103</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2569,7 +2662,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>507</v>
+        <v>533</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -2581,7 +2674,7 @@
         <v>107</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2592,22 +2685,22 @@
         <v>44013</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>534</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>535</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>536</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>537</v>
       </c>
       <c r="I22" t="s">
         <v>52</v>
@@ -2627,7 +2720,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>508</v>
+        <v>538</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2639,7 +2732,7 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>52</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2656,7 +2749,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2668,7 +2761,7 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2685,7 +2778,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2697,7 +2790,7 @@
         <v>113</v>
       </c>
       <c r="I25" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2714,7 +2807,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2726,7 +2819,7 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>127</v>
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2743,7 +2836,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2755,7 +2848,7 @@
         <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2772,7 +2865,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -2784,7 +2877,7 @@
         <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>128</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="570">
   <si>
     <t>Doi</t>
   </si>
@@ -1764,6 +1764,81 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,                    Rajesh%Kumari%NULL%1,                    Garima%Kachhawa%NULL%1,                    Anjolie%Chhabra%NULL%1,                    Ramesh%Agarwal%NULL%1,                    Akash%Sharma%NULL%1,                    Sunesh%Kumar%NULL%1,                    Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                     Caitlin%Baptiste%NULL%1,                     Cynthia%Gyamfi-Bannerman%NULL%1,                     Russell%Miller%NULL%1,                     Rebecca%Martinez%NULL%1,                     Kyra%Bernstein%NULL%1,                     Laurence%Ring%NULL%1,                     Ruth%Landau%NULL%1,                     Stephanie%Purisch%NULL%1,                     Alexander M.%Friedman%NULL%1,                     Karin%Fuchs%NULL%1,                     Desmond%Sutton%NULL%1,                     Maria%Andrikopoulou%NULL%1,                     Devon%Rupley%NULL%1,                     Jean-Ju%Sheen%NULL%1,                     Janice%Aubey%NULL%1,                     Noelia%Zork%NULL%1,                     Leslie%Moroz%NULL%1,                     Mirella%Mourad%NULL%1,                     Ronald%Wapner%NULL%1,                     Lynn L.%Simpson%NULL%1,                     Mary E.%D’Alton%NULL%1,                     Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                     Munir%Nazir%NULL%1,                     Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                     Jolene%Muscat%NULL%2,                     Jolene%Muscat%NULL%0,                     Eva%Hoffmann%NULL%1,                     Nicole S.%John%NULL%1,                     Rosanne%Vertichio%NULL%1,                     Anthony M.%Vintzileos%NULL%1,                     Duc%Vo%NULL%2,                     Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                     Yousef%Al Ahwel%NULL%1,                     Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                     Rachael%Overcash%NULL%2,                     Neggin%Mokhtari%NULL%2,                     Haleema%Saeed%NULL%2,                     Stacey%Gold%NULL%2,                     Tamika%Auguste%NULL%2,                     Muhammad-Usman%Mirza%NULL%2,                     Maria-Elena%Ruiz%NULL%2,                     Joeffrey J.%Chahine%NULL%4,                     Joeffrey J.%Chahine%NULL%0,                     Masashi%Waga%NULL%4,                     Masashi%Waga%NULL%0,                     Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                     Jennifer B.%Linfert%NULL%1,                     Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                     Juanjuan%Guo%NULL%2,                     Cuifang%Fan%NULL%1,                     Juan%Juan%NULL%1,                     Xuechen%Yu%NULL%2,                     Jiafu%Li%NULL%2,                     Ling%Feng%NULL%1,                     Chunyan%Li%NULL%1,                     Huijun%Chen%NULL%1,                     Yuan%Qiao%NULL%1,                     Di%Lei%NULL%1,                     Chen%Wang%NULL%3,                     Guoping%Xiong%NULL%1,                     Fengyi%Xiao%NULL%1,                     Wencong%He%NULL%1,                     Qiumei%Pang%NULL%3,                     Xiaoling%Hu%NULL%1,                     Suqing%Wang%NULL%1,                     Dunjin%Chen%NULL%1,                     Yuanzhen%Zhang%NULL%2,                     Liona C.%Poon%NULL%1,                     Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                     Zhiqiang%Zhou%NULL%1,                     Jianping%Zhang%NULL%1,                     Fengfeng%Zhu%NULL%1,                     Yongyan%Tang%NULL%1,                     Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                     Yue%Sun%101799@qdfe.com%1,                     Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                     Huan%Yang%NULL%1,                     Junfeng%Kong%NULL%2,                     Junfeng%Kong%NULL%0,                     Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                     Mingxing%Li%NULL%1,                     Kai%Guo%NULL%1,                     Weijia%Wang%NULL%1,                     Binfei%Li%NULL%1,                     Jianwei%Li%NULL%2,                     Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                     Hong%Wei%NULL%2,                     Hong%Wei%NULL%0,                     Zhihong%Zhang%NULL%1,                     Jing%Chang%NULL%1,                     Xiaopeng%Ma%NULL%1,                     Xiang%Gao%NULL%1,                     Qiang%Chen%qiangchen2015@sina.com%1,                     Qiumei%Pang%pqm19650930@sina.com%0,                     Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                     Jianhui%Wang%NULL%1,                     Yunbo%Mo%NULL%1,                     Wei%Duan%NULL%1,                     Guangjun%Xiang%NULL%1,                     Ming%Yi%NULL%1,                     Lei%Bao%NULL%1,                     Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                     Lin%Sang%NULL%1,                     Shihua%Du%NULL%1,                     Tao%Li%NULL%2,                     Yange%Chang%NULL%1,                     Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                     Luigi%Frigerio%NULL%1,                     Irene%Cetin%NULL%1,                     Patrizia%Vergani%NULL%1,                     Arsenio%Spinillo%NULL%1,                     Federico%Prefumo%NULL%1,                     Edda%Pellegrini%NULL%1,                     Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                     Alexandre J.%Vivanti%NULL%1,                     Nadine%Shehata%NULL%1,                     Alexandra%Benachi%NULL%1,                     Agnes%Le Gouez%NULL%1,                     Celine%Desconclois%NULL%1,                     Wendy%Whittle%NULL%1,                     John%Snelgrove%NULL%1,                     Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                     Itzel Carolina%Fuentes-Barahona%NULL%2,                     Itzel Carolina%Fuentes-Barahona%NULL%0,                     Daysi Anabell%Bejarano-Torres%NULL%1,                     Carolina%Bustillo%NULL%2,                     Gloria%Gonzales%NULL%1,                     Gissela%Vallecillo-Chinchilla%NULL%1,                     Fredal Eduardo%Sanchez-Martínez%NULL%2,                     Fredal Eduardo%Sanchez-Martínez%NULL%0,                     Jorge Alberto%Valle-Reconco%NULL%1,                     Manuel%Sierra%NULL%2,                     Manuel%Sierra%NULL%0,                     D. Katterine%Bonilla-Aldana%NULL%2,                     D. Katterine%Bonilla-Aldana%NULL%0,                     Jaime A.%Cardona-Ospina%NULL%2,                     Jaime A.%Cardona-Ospina%NULL%0,                     Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                     Jihyang%Lee%NULL%6,                     Jihyang%Lee%NULL%0,                     Eunju%Kim%NULL%6,                     Eunju%Kim%NULL%0,                     Kyeongyoon%Woo%NULL%6,                     Kyeongyoon%Woo%NULL%0,                     Hak Youle%Park%NULL%6,                     Hak Youle%Park%NULL%0,                     Jihyun%An%NULL%6,                     Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%2,  Julia%Savchenko%xref no email%2,  Thomas%Brune%xref no email%2,  Hampus%Josefsson%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                    Kalafat%Erkan%coreGivesNoEmail%1,                    KO\u00c7%ASLI%coreGivesNoEmail%1,                    Ozisik%S.%coreGivesNoEmail%1,                    UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                    VARLI%BULUT%coreGivesNoEmail%1,                    Yaprak%E.%coreGivesNoEmail%1,                    \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                     Maliheh%Naghavi%NULL%1,                     Abdolamir%Feyzi%NULL%1,                     Mehdi%Aghamohammadi%NULL%1,                     Mohammad Sadegh%Novin%NULL%1,                     Ahmadreza%Mobaien%NULL%1,                     Mohamad%Qorbanisani%NULL%1,                     Aida%Karami%NULL%1,                     Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                     Benjamin%Bopp%NULL%2,                     Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                     J.%Ocampo Pérez%NULL%1,                     L.%González Bautista%NULL%1,                     L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                     Tania%Paredes%NULL%4,                     Tania%Paredes%NULL%0,                     David%Caceres%NULL%2,                     Camille M.%Webb%NULL%2,                     Luis M.%Valdez%NULL%2,                     Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                     Rajesh%Kumari%NULL%1,                     Garima%Kachhawa%NULL%1,                     Anjolie%Chhabra%NULL%1,                     Ramesh%Agarwal%NULL%1,                     Akash%Sharma%NULL%1,                     Sunesh%Kumar%NULL%1,                     Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2111,7 +2186,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -2140,7 +2215,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>516</v>
+        <v>546</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2169,7 +2244,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2198,7 +2273,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>548</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2227,7 +2302,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>519</v>
+        <v>549</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2256,7 +2331,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>521</v>
+        <v>550</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2285,7 +2360,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>522</v>
+        <v>551</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -2343,7 +2418,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2372,7 +2447,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2401,7 +2476,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>525</v>
+        <v>554</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2430,7 +2505,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>526</v>
+        <v>555</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2459,7 +2534,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2488,7 +2563,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>528</v>
+        <v>557</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2517,7 +2592,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -2546,7 +2621,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>530</v>
+        <v>559</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2604,7 +2679,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>531</v>
+        <v>560</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -2633,7 +2708,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2662,7 +2737,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>533</v>
+        <v>562</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -2691,7 +2766,7 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -2720,7 +2795,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>538</v>
+        <v>564</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2749,7 +2824,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2778,7 +2853,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2807,7 +2882,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2836,7 +2911,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2865,7 +2940,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3560" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="696">
   <si>
     <t>Doi</t>
   </si>
@@ -1839,6 +1839,384 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,                     Rajesh%Kumari%NULL%1,                     Garima%Kachhawa%NULL%1,                     Anjolie%Chhabra%NULL%1,                     Ramesh%Agarwal%NULL%1,                     Akash%Sharma%NULL%1,                     Sunesh%Kumar%NULL%1,                     Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                      Caitlin%Baptiste%NULL%1,                      Cynthia%Gyamfi-Bannerman%NULL%1,                      Russell%Miller%NULL%1,                      Rebecca%Martinez%NULL%1,                      Kyra%Bernstein%NULL%1,                      Laurence%Ring%NULL%1,                      Ruth%Landau%NULL%1,                      Stephanie%Purisch%NULL%1,                      Alexander M.%Friedman%NULL%1,                      Karin%Fuchs%NULL%1,                      Desmond%Sutton%NULL%1,                      Maria%Andrikopoulou%NULL%1,                      Devon%Rupley%NULL%1,                      Jean-Ju%Sheen%NULL%1,                      Janice%Aubey%NULL%1,                      Noelia%Zork%NULL%1,                      Leslie%Moroz%NULL%1,                      Mirella%Mourad%NULL%1,                      Ronald%Wapner%NULL%1,                      Lynn L.%Simpson%NULL%1,                      Mary E.%D’Alton%NULL%1,                      Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                      Munir%Nazir%NULL%1,                      Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                      Jolene%Muscat%NULL%2,                      Jolene%Muscat%NULL%0,                      Eva%Hoffmann%NULL%1,                      Nicole S.%John%NULL%1,                      Rosanne%Vertichio%NULL%1,                      Anthony M.%Vintzileos%NULL%1,                      Duc%Vo%NULL%2,                      Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                      Yousef%Al Ahwel%NULL%1,                      Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                      Rachael%Overcash%NULL%2,                      Neggin%Mokhtari%NULL%2,                      Haleema%Saeed%NULL%2,                      Stacey%Gold%NULL%2,                      Tamika%Auguste%NULL%2,                      Muhammad-Usman%Mirza%NULL%2,                      Maria-Elena%Ruiz%NULL%2,                      Joeffrey J.%Chahine%NULL%4,                      Joeffrey J.%Chahine%NULL%0,                      Masashi%Waga%NULL%4,                      Masashi%Waga%NULL%0,                      Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                      Jennifer B.%Linfert%NULL%1,                      Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                      Juanjuan%Guo%NULL%2,                      Cuifang%Fan%NULL%1,                      Juan%Juan%NULL%1,                      Xuechen%Yu%NULL%2,                      Jiafu%Li%NULL%2,                      Ling%Feng%NULL%1,                      Chunyan%Li%NULL%1,                      Huijun%Chen%NULL%1,                      Yuan%Qiao%NULL%1,                      Di%Lei%NULL%1,                      Chen%Wang%NULL%3,                      Guoping%Xiong%NULL%1,                      Fengyi%Xiao%NULL%1,                      Wencong%He%NULL%1,                      Qiumei%Pang%NULL%3,                      Xiaoling%Hu%NULL%1,                      Suqing%Wang%NULL%1,                      Dunjin%Chen%NULL%1,                      Yuanzhen%Zhang%NULL%2,                      Liona C.%Poon%NULL%1,                      Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                      Zhiqiang%Zhou%NULL%1,                      Jianping%Zhang%NULL%1,                      Fengfeng%Zhu%NULL%1,                      Yongyan%Tang%NULL%1,                      Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                      Yue%Sun%101799@qdfe.com%1,                      Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                      Huan%Yang%NULL%1,                      Junfeng%Kong%NULL%2,                      Junfeng%Kong%NULL%0,                      Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                      Mingxing%Li%NULL%1,                      Kai%Guo%NULL%1,                      Weijia%Wang%NULL%1,                      Binfei%Li%NULL%1,                      Jianwei%Li%NULL%2,                      Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                      Hong%Wei%NULL%2,                      Hong%Wei%NULL%0,                      Zhihong%Zhang%NULL%1,                      Jing%Chang%NULL%1,                      Xiaopeng%Ma%NULL%1,                      Xiang%Gao%NULL%1,                      Qiang%Chen%qiangchen2015@sina.com%1,                      Qiumei%Pang%pqm19650930@sina.com%0,                      Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                      Jianhui%Wang%NULL%1,                      Yunbo%Mo%NULL%1,                      Wei%Duan%NULL%1,                      Guangjun%Xiang%NULL%1,                      Ming%Yi%NULL%1,                      Lei%Bao%NULL%1,                      Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                      Lin%Sang%NULL%1,                      Shihua%Du%NULL%1,                      Tao%Li%NULL%2,                      Yange%Chang%NULL%1,                      Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                      Luigi%Frigerio%NULL%1,                      Irene%Cetin%NULL%1,                      Patrizia%Vergani%NULL%1,                      Arsenio%Spinillo%NULL%1,                      Federico%Prefumo%NULL%1,                      Edda%Pellegrini%NULL%1,                      Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                      Alexandre J.%Vivanti%NULL%1,                      Nadine%Shehata%NULL%1,                      Alexandra%Benachi%NULL%1,                      Agnes%Le Gouez%NULL%1,                      Celine%Desconclois%NULL%1,                      Wendy%Whittle%NULL%1,                      John%Snelgrove%NULL%1,                      Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                      Itzel Carolina%Fuentes-Barahona%NULL%2,                      Itzel Carolina%Fuentes-Barahona%NULL%0,                      Daysi Anabell%Bejarano-Torres%NULL%1,                      Carolina%Bustillo%NULL%2,                      Gloria%Gonzales%NULL%1,                      Gissela%Vallecillo-Chinchilla%NULL%1,                      Fredal Eduardo%Sanchez-Martínez%NULL%2,                      Fredal Eduardo%Sanchez-Martínez%NULL%0,                      Jorge Alberto%Valle-Reconco%NULL%1,                      Manuel%Sierra%NULL%2,                      Manuel%Sierra%NULL%0,                      D. Katterine%Bonilla-Aldana%NULL%2,                      D. Katterine%Bonilla-Aldana%NULL%0,                      Jaime A.%Cardona-Ospina%NULL%2,                      Jaime A.%Cardona-Ospina%NULL%0,                      Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                      Jihyang%Lee%NULL%6,                      Jihyang%Lee%NULL%0,                      Eunju%Kim%NULL%6,                      Eunju%Kim%NULL%0,                      Kyeongyoon%Woo%NULL%6,                      Kyeongyoon%Woo%NULL%0,                      Hak Youle%Park%NULL%6,                      Hak Youle%Park%NULL%0,                      Jihyun%An%NULL%6,                      Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%0, Julia%Savchenko%xref no email%2, Thomas%Brune%xref no email%2, Hampus%Josefsson%xref no email%2]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Wiley</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                     Kalafat%Erkan%coreGivesNoEmail%1,                     KO\u00c7%ASLI%coreGivesNoEmail%1,                     Ozisik%S.%coreGivesNoEmail%1,                     UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                     VARLI%BULUT%coreGivesNoEmail%1,                     Yaprak%E.%coreGivesNoEmail%1,                     \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                      Maliheh%Naghavi%NULL%1,                      Abdolamir%Feyzi%NULL%1,                      Mehdi%Aghamohammadi%NULL%1,                      Mohammad Sadegh%Novin%NULL%1,                      Ahmadreza%Mobaien%NULL%1,                      Mohamad%Qorbanisani%NULL%1,                      Aida%Karami%NULL%1,                      Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                      Benjamin%Bopp%NULL%2,                      Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                      J.%Ocampo Pérez%NULL%1,                      L.%González Bautista%NULL%1,                      L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                      Tania%Paredes%NULL%4,                      Tania%Paredes%NULL%0,                      David%Caceres%NULL%2,                      Camille M.%Webb%NULL%2,                      Luis M.%Valdez%NULL%2,                      Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                      Rajesh%Kumari%NULL%1,                      Garima%Kachhawa%NULL%1,                      Anjolie%Chhabra%NULL%1,                      Ramesh%Agarwal%NULL%1,                      Akash%Sharma%NULL%1,                      Sunesh%Kumar%NULL%1,                      Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                       Caitlin%Baptiste%NULL%1,                       Cynthia%Gyamfi-Bannerman%NULL%1,                       Russell%Miller%NULL%1,                       Rebecca%Martinez%NULL%1,                       Kyra%Bernstein%NULL%1,                       Laurence%Ring%NULL%1,                       Ruth%Landau%NULL%1,                       Stephanie%Purisch%NULL%1,                       Alexander M.%Friedman%NULL%1,                       Karin%Fuchs%NULL%1,                       Desmond%Sutton%NULL%1,                       Maria%Andrikopoulou%NULL%1,                       Devon%Rupley%NULL%1,                       Jean-Ju%Sheen%NULL%1,                       Janice%Aubey%NULL%1,                       Noelia%Zork%NULL%1,                       Leslie%Moroz%NULL%1,                       Mirella%Mourad%NULL%1,                       Ronald%Wapner%NULL%1,                       Lynn L.%Simpson%NULL%1,                       Mary E.%D’Alton%NULL%1,                       Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                       Munir%Nazir%NULL%1,                       Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                       Jolene%Muscat%NULL%2,                       Jolene%Muscat%NULL%0,                       Eva%Hoffmann%NULL%1,                       Nicole S.%John%NULL%1,                       Rosanne%Vertichio%NULL%1,                       Anthony M.%Vintzileos%NULL%1,                       Duc%Vo%NULL%2,                       Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                       Yousef%Al Ahwel%NULL%1,                       Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                       Rachael%Overcash%NULL%2,                       Neggin%Mokhtari%NULL%2,                       Haleema%Saeed%NULL%2,                       Stacey%Gold%NULL%2,                       Tamika%Auguste%NULL%2,                       Muhammad-Usman%Mirza%NULL%2,                       Maria-Elena%Ruiz%NULL%2,                       Joeffrey J.%Chahine%NULL%4,                       Joeffrey J.%Chahine%NULL%0,                       Masashi%Waga%NULL%4,                       Masashi%Waga%NULL%0,                       Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                       Jennifer B.%Linfert%NULL%1,                       Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                       Juanjuan%Guo%NULL%2,                       Cuifang%Fan%NULL%1,                       Juan%Juan%NULL%1,                       Xuechen%Yu%NULL%2,                       Jiafu%Li%NULL%2,                       Ling%Feng%NULL%1,                       Chunyan%Li%NULL%1,                       Huijun%Chen%NULL%1,                       Yuan%Qiao%NULL%1,                       Di%Lei%NULL%1,                       Chen%Wang%NULL%3,                       Guoping%Xiong%NULL%1,                       Fengyi%Xiao%NULL%1,                       Wencong%He%NULL%1,                       Qiumei%Pang%NULL%3,                       Xiaoling%Hu%NULL%1,                       Suqing%Wang%NULL%1,                       Dunjin%Chen%NULL%1,                       Yuanzhen%Zhang%NULL%2,                       Liona C.%Poon%NULL%1,                       Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                       Zhiqiang%Zhou%NULL%1,                       Jianping%Zhang%NULL%1,                       Fengfeng%Zhu%NULL%1,                       Yongyan%Tang%NULL%1,                       Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                       Yue%Sun%101799@qdfe.com%1,                       Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                       Huan%Yang%NULL%1,                       Junfeng%Kong%NULL%2,                       Junfeng%Kong%NULL%0,                       Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                       Mingxing%Li%NULL%1,                       Kai%Guo%NULL%1,                       Weijia%Wang%NULL%1,                       Binfei%Li%NULL%1,                       Jianwei%Li%NULL%2,                       Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                       Hong%Wei%NULL%2,                       Hong%Wei%NULL%0,                       Zhihong%Zhang%NULL%1,                       Jing%Chang%NULL%1,                       Xiaopeng%Ma%NULL%1,                       Xiang%Gao%NULL%1,                       Qiang%Chen%qiangchen2015@sina.com%1,                       Qiumei%Pang%pqm19650930@sina.com%0,                       Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                       Jianhui%Wang%NULL%1,                       Yunbo%Mo%NULL%1,                       Wei%Duan%NULL%1,                       Guangjun%Xiang%NULL%1,                       Ming%Yi%NULL%1,                       Lei%Bao%NULL%1,                       Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                       Lin%Sang%NULL%1,                       Shihua%Du%NULL%1,                       Tao%Li%NULL%2,                       Yange%Chang%NULL%1,                       Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                       Luigi%Frigerio%NULL%1,                       Irene%Cetin%NULL%1,                       Patrizia%Vergani%NULL%1,                       Arsenio%Spinillo%NULL%1,                       Federico%Prefumo%NULL%1,                       Edda%Pellegrini%NULL%1,                       Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                       Alexandre J.%Vivanti%NULL%1,                       Nadine%Shehata%NULL%1,                       Alexandra%Benachi%NULL%1,                       Agnes%Le Gouez%NULL%1,                       Celine%Desconclois%NULL%1,                       Wendy%Whittle%NULL%1,                       John%Snelgrove%NULL%1,                       Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                       Itzel Carolina%Fuentes-Barahona%NULL%2,                       Itzel Carolina%Fuentes-Barahona%NULL%0,                       Daysi Anabell%Bejarano-Torres%NULL%1,                       Carolina%Bustillo%NULL%2,                       Gloria%Gonzales%NULL%1,                       Gissela%Vallecillo-Chinchilla%NULL%1,                       Fredal Eduardo%Sanchez-Martínez%NULL%2,                       Fredal Eduardo%Sanchez-Martínez%NULL%0,                       Jorge Alberto%Valle-Reconco%NULL%1,                       Manuel%Sierra%NULL%2,                       Manuel%Sierra%NULL%0,                       D. Katterine%Bonilla-Aldana%NULL%2,                       D. Katterine%Bonilla-Aldana%NULL%0,                       Jaime A.%Cardona-Ospina%NULL%2,                       Jaime A.%Cardona-Ospina%NULL%0,                       Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                       Jihyang%Lee%NULL%6,                       Jihyang%Lee%NULL%0,                       Eunju%Kim%NULL%6,                       Eunju%Kim%NULL%0,                       Kyeongyoon%Woo%NULL%6,                       Kyeongyoon%Woo%NULL%0,                       Hak Youle%Park%NULL%6,                       Hak Youle%Park%NULL%0,                       Jihyun%An%NULL%6,                       Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                      Kalafat%Erkan%coreGivesNoEmail%1,                      KO\u00c7%ASLI%coreGivesNoEmail%1,                      Ozisik%S.%coreGivesNoEmail%1,                      UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                      VARLI%BULUT%coreGivesNoEmail%1,                      Yaprak%E.%coreGivesNoEmail%1,                      \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                       Maliheh%Naghavi%NULL%1,                       Abdolamir%Feyzi%NULL%1,                       Mehdi%Aghamohammadi%NULL%1,                       Mohammad Sadegh%Novin%NULL%1,                       Ahmadreza%Mobaien%NULL%1,                       Mohamad%Qorbanisani%NULL%1,                       Aida%Karami%NULL%1,                       Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                       Benjamin%Bopp%NULL%2,                       Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                       J.%Ocampo Pérez%NULL%1,                       L.%González Bautista%NULL%1,                       L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                       Tania%Paredes%NULL%4,                       Tania%Paredes%NULL%0,                       David%Caceres%NULL%2,                       Camille M.%Webb%NULL%2,                       Luis M.%Valdez%NULL%2,                       Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                       Rajesh%Kumari%NULL%1,                       Garima%Kachhawa%NULL%1,                       Anjolie%Chhabra%NULL%1,                       Ramesh%Agarwal%NULL%1,                       Akash%Sharma%NULL%1,                       Sunesh%Kumar%NULL%1,                       Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                        Caitlin%Baptiste%NULL%1,                        Cynthia%Gyamfi-Bannerman%NULL%1,                        Russell%Miller%NULL%1,                        Rebecca%Martinez%NULL%1,                        Kyra%Bernstein%NULL%1,                        Laurence%Ring%NULL%1,                        Ruth%Landau%NULL%1,                        Stephanie%Purisch%NULL%1,                        Alexander M.%Friedman%NULL%1,                        Karin%Fuchs%NULL%1,                        Desmond%Sutton%NULL%1,                        Maria%Andrikopoulou%NULL%1,                        Devon%Rupley%NULL%1,                        Jean-Ju%Sheen%NULL%1,                        Janice%Aubey%NULL%1,                        Noelia%Zork%NULL%1,                        Leslie%Moroz%NULL%1,                        Mirella%Mourad%NULL%1,                        Ronald%Wapner%NULL%1,                        Lynn L.%Simpson%NULL%1,                        Mary E.%D’Alton%NULL%1,                        Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                        Munir%Nazir%NULL%1,                        Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                        Jolene%Muscat%NULL%2,                        Jolene%Muscat%NULL%0,                        Eva%Hoffmann%NULL%1,                        Nicole S.%John%NULL%1,                        Rosanne%Vertichio%NULL%1,                        Anthony M.%Vintzileos%NULL%1,                        Duc%Vo%NULL%2,                        Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                        Yousef%Al Ahwel%NULL%1,                        Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                        Rachael%Overcash%NULL%2,                        Neggin%Mokhtari%NULL%2,                        Haleema%Saeed%NULL%2,                        Stacey%Gold%NULL%2,                        Tamika%Auguste%NULL%2,                        Muhammad-Usman%Mirza%NULL%2,                        Maria-Elena%Ruiz%NULL%2,                        Joeffrey J.%Chahine%NULL%4,                        Joeffrey J.%Chahine%NULL%0,                        Masashi%Waga%NULL%4,                        Masashi%Waga%NULL%0,                        Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                        Jennifer B.%Linfert%NULL%1,                        Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                        Juanjuan%Guo%NULL%2,                        Cuifang%Fan%NULL%1,                        Juan%Juan%NULL%1,                        Xuechen%Yu%NULL%2,                        Jiafu%Li%NULL%2,                        Ling%Feng%NULL%1,                        Chunyan%Li%NULL%1,                        Huijun%Chen%NULL%1,                        Yuan%Qiao%NULL%1,                        Di%Lei%NULL%1,                        Chen%Wang%NULL%3,                        Guoping%Xiong%NULL%1,                        Fengyi%Xiao%NULL%1,                        Wencong%He%NULL%1,                        Qiumei%Pang%NULL%3,                        Xiaoling%Hu%NULL%1,                        Suqing%Wang%NULL%1,                        Dunjin%Chen%NULL%1,                        Yuanzhen%Zhang%NULL%2,                        Liona C.%Poon%NULL%1,                        Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                        Zhiqiang%Zhou%NULL%1,                        Jianping%Zhang%NULL%1,                        Fengfeng%Zhu%NULL%1,                        Yongyan%Tang%NULL%1,                        Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                        Yue%Sun%101799@qdfe.com%1,                        Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                        Huan%Yang%NULL%1,                        Junfeng%Kong%NULL%2,                        Junfeng%Kong%NULL%0,                        Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                        Mingxing%Li%NULL%1,                        Kai%Guo%NULL%1,                        Weijia%Wang%NULL%1,                        Binfei%Li%NULL%1,                        Jianwei%Li%NULL%2,                        Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                        Hong%Wei%NULL%2,                        Hong%Wei%NULL%0,                        Zhihong%Zhang%NULL%1,                        Jing%Chang%NULL%1,                        Xiaopeng%Ma%NULL%1,                        Xiang%Gao%NULL%1,                        Qiang%Chen%qiangchen2015@sina.com%1,                        Qiumei%Pang%pqm19650930@sina.com%0,                        Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                        Jianhui%Wang%NULL%1,                        Yunbo%Mo%NULL%1,                        Wei%Duan%NULL%1,                        Guangjun%Xiang%NULL%1,                        Ming%Yi%NULL%1,                        Lei%Bao%NULL%1,                        Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                        Lin%Sang%NULL%1,                        Shihua%Du%NULL%1,                        Tao%Li%NULL%2,                        Yange%Chang%NULL%1,                        Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                        Luigi%Frigerio%NULL%1,                        Irene%Cetin%NULL%1,                        Patrizia%Vergani%NULL%1,                        Arsenio%Spinillo%NULL%1,                        Federico%Prefumo%NULL%1,                        Edda%Pellegrini%NULL%1,                        Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                        Alexandre J.%Vivanti%NULL%1,                        Nadine%Shehata%NULL%1,                        Alexandra%Benachi%NULL%1,                        Agnes%Le Gouez%NULL%1,                        Celine%Desconclois%NULL%1,                        Wendy%Whittle%NULL%1,                        John%Snelgrove%NULL%1,                        Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                        Itzel Carolina%Fuentes-Barahona%NULL%2,                        Itzel Carolina%Fuentes-Barahona%NULL%0,                        Daysi Anabell%Bejarano-Torres%NULL%1,                        Carolina%Bustillo%NULL%2,                        Gloria%Gonzales%NULL%1,                        Gissela%Vallecillo-Chinchilla%NULL%1,                        Fredal Eduardo%Sanchez-Martínez%NULL%2,                        Fredal Eduardo%Sanchez-Martínez%NULL%0,                        Jorge Alberto%Valle-Reconco%NULL%1,                        Manuel%Sierra%NULL%2,                        Manuel%Sierra%NULL%0,                        D. Katterine%Bonilla-Aldana%NULL%2,                        D. Katterine%Bonilla-Aldana%NULL%0,                        Jaime A.%Cardona-Ospina%NULL%2,                        Jaime A.%Cardona-Ospina%NULL%0,                        Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                        Jihyang%Lee%NULL%6,                        Jihyang%Lee%NULL%0,                        Eunju%Kim%NULL%6,                        Eunju%Kim%NULL%0,                        Kyeongyoon%Woo%NULL%6,                        Kyeongyoon%Woo%NULL%0,                        Hak Youle%Park%NULL%6,                        Hak Youle%Park%NULL%0,                        Jihyun%An%NULL%6,                        Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%2,   Julia%Savchenko%xref no email%2,   Thomas%Brune%xref no email%2,   Hampus%Josefsson%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                       Kalafat%Erkan%coreGivesNoEmail%1,                       KO\u00c7%ASLI%coreGivesNoEmail%1,                       Ozisik%S.%coreGivesNoEmail%1,                       UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                       VARLI%BULUT%coreGivesNoEmail%1,                       Yaprak%E.%coreGivesNoEmail%1,                       \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                        Maliheh%Naghavi%NULL%1,                        Abdolamir%Feyzi%NULL%1,                        Mehdi%Aghamohammadi%NULL%1,                        Mohammad Sadegh%Novin%NULL%1,                        Ahmadreza%Mobaien%NULL%1,                        Mohamad%Qorbanisani%NULL%1,                        Aida%Karami%NULL%1,                        Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                        Benjamin%Bopp%NULL%2,                        Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                        J.%Ocampo Pérez%NULL%1,                        L.%González Bautista%NULL%1,                        L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                        Tania%Paredes%NULL%4,                        Tania%Paredes%NULL%0,                        David%Caceres%NULL%2,                        Camille M.%Webb%NULL%2,                        Luis M.%Valdez%NULL%2,                        Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                        Rajesh%Kumari%NULL%1,                        Garima%Kachhawa%NULL%1,                        Anjolie%Chhabra%NULL%1,                        Ramesh%Agarwal%NULL%1,                        Akash%Sharma%NULL%1,                        Sunesh%Kumar%NULL%1,                        Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                         Caitlin%Baptiste%NULL%1,                         Cynthia%Gyamfi-Bannerman%NULL%1,                         Russell%Miller%NULL%1,                         Rebecca%Martinez%NULL%1,                         Kyra%Bernstein%NULL%1,                         Laurence%Ring%NULL%1,                         Ruth%Landau%NULL%1,                         Stephanie%Purisch%NULL%1,                         Alexander M.%Friedman%NULL%1,                         Karin%Fuchs%NULL%1,                         Desmond%Sutton%NULL%1,                         Maria%Andrikopoulou%NULL%1,                         Devon%Rupley%NULL%1,                         Jean-Ju%Sheen%NULL%1,                         Janice%Aubey%NULL%1,                         Noelia%Zork%NULL%1,                         Leslie%Moroz%NULL%1,                         Mirella%Mourad%NULL%1,                         Ronald%Wapner%NULL%1,                         Lynn L.%Simpson%NULL%1,                         Mary E.%D’Alton%NULL%1,                         Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                         Munir%Nazir%NULL%1,                         Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                         Jolene%Muscat%NULL%2,                         Jolene%Muscat%NULL%0,                         Eva%Hoffmann%NULL%1,                         Nicole S.%John%NULL%1,                         Rosanne%Vertichio%NULL%1,                         Anthony M.%Vintzileos%NULL%1,                         Duc%Vo%NULL%2,                         Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                         Yousef%Al Ahwel%NULL%1,                         Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                         Rachael%Overcash%NULL%2,                         Neggin%Mokhtari%NULL%2,                         Haleema%Saeed%NULL%2,                         Stacey%Gold%NULL%2,                         Tamika%Auguste%NULL%2,                         Muhammad-Usman%Mirza%NULL%2,                         Maria-Elena%Ruiz%NULL%2,                         Joeffrey J.%Chahine%NULL%4,                         Joeffrey J.%Chahine%NULL%0,                         Masashi%Waga%NULL%4,                         Masashi%Waga%NULL%0,                         Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                         Jennifer B.%Linfert%NULL%1,                         Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                         Juanjuan%Guo%NULL%2,                         Cuifang%Fan%NULL%1,                         Juan%Juan%NULL%1,                         Xuechen%Yu%NULL%2,                         Jiafu%Li%NULL%2,                         Ling%Feng%NULL%1,                         Chunyan%Li%NULL%1,                         Huijun%Chen%NULL%1,                         Yuan%Qiao%NULL%1,                         Di%Lei%NULL%1,                         Chen%Wang%NULL%3,                         Guoping%Xiong%NULL%1,                         Fengyi%Xiao%NULL%1,                         Wencong%He%NULL%1,                         Qiumei%Pang%NULL%3,                         Xiaoling%Hu%NULL%1,                         Suqing%Wang%NULL%1,                         Dunjin%Chen%NULL%1,                         Yuanzhen%Zhang%NULL%2,                         Liona C.%Poon%NULL%1,                         Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                         Zhiqiang%Zhou%NULL%1,                         Jianping%Zhang%NULL%1,                         Fengfeng%Zhu%NULL%1,                         Yongyan%Tang%NULL%1,                         Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                         Yue%Sun%101799@qdfe.com%1,                         Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                         Huan%Yang%NULL%1,                         Junfeng%Kong%NULL%2,                         Junfeng%Kong%NULL%0,                         Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                         Mingxing%Li%NULL%1,                         Kai%Guo%NULL%1,                         Weijia%Wang%NULL%1,                         Binfei%Li%NULL%1,                         Jianwei%Li%NULL%2,                         Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                         Hong%Wei%NULL%2,                         Hong%Wei%NULL%0,                         Zhihong%Zhang%NULL%1,                         Jing%Chang%NULL%1,                         Xiaopeng%Ma%NULL%1,                         Xiang%Gao%NULL%1,                         Qiang%Chen%qiangchen2015@sina.com%1,                         Qiumei%Pang%pqm19650930@sina.com%0,                         Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                         Jianhui%Wang%NULL%1,                         Yunbo%Mo%NULL%1,                         Wei%Duan%NULL%1,                         Guangjun%Xiang%NULL%1,                         Ming%Yi%NULL%1,                         Lei%Bao%NULL%1,                         Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                         Lin%Sang%NULL%1,                         Shihua%Du%NULL%1,                         Tao%Li%NULL%2,                         Yange%Chang%NULL%1,                         Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                         Luigi%Frigerio%NULL%1,                         Irene%Cetin%NULL%1,                         Patrizia%Vergani%NULL%1,                         Arsenio%Spinillo%NULL%1,                         Federico%Prefumo%NULL%1,                         Edda%Pellegrini%NULL%1,                         Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                         Alexandre J.%Vivanti%NULL%1,                         Nadine%Shehata%NULL%1,                         Alexandra%Benachi%NULL%1,                         Agnes%Le Gouez%NULL%1,                         Celine%Desconclois%NULL%1,                         Wendy%Whittle%NULL%1,                         John%Snelgrove%NULL%1,                         Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                         Itzel Carolina%Fuentes-Barahona%NULL%2,                         Itzel Carolina%Fuentes-Barahona%NULL%0,                         Daysi Anabell%Bejarano-Torres%NULL%1,                         Carolina%Bustillo%NULL%2,                         Gloria%Gonzales%NULL%1,                         Gissela%Vallecillo-Chinchilla%NULL%1,                         Fredal Eduardo%Sanchez-Martínez%NULL%2,                         Fredal Eduardo%Sanchez-Martínez%NULL%0,                         Jorge Alberto%Valle-Reconco%NULL%1,                         Manuel%Sierra%NULL%2,                         Manuel%Sierra%NULL%0,                         D. Katterine%Bonilla-Aldana%NULL%2,                         D. Katterine%Bonilla-Aldana%NULL%0,                         Jaime A.%Cardona-Ospina%NULL%2,                         Jaime A.%Cardona-Ospina%NULL%0,                         Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                         Jihyang%Lee%NULL%6,                         Jihyang%Lee%NULL%0,                         Eunju%Kim%NULL%6,                         Eunju%Kim%NULL%0,                         Kyeongyoon%Woo%NULL%6,                         Kyeongyoon%Woo%NULL%0,                         Hak Youle%Park%NULL%6,                         Hak Youle%Park%NULL%0,                         Jihyun%An%NULL%6,                         Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%2,    Julia%Savchenko%xref no email%2,    Thomas%Brune%xref no email%2,    Hampus%Josefsson%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                        Kalafat%Erkan%coreGivesNoEmail%1,                        KO\u00c7%ASLI%coreGivesNoEmail%1,                        Ozisik%S.%coreGivesNoEmail%1,                        UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                        VARLI%BULUT%coreGivesNoEmail%1,                        Yaprak%E.%coreGivesNoEmail%1,                        \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                         Maliheh%Naghavi%NULL%1,                         Abdolamir%Feyzi%NULL%1,                         Mehdi%Aghamohammadi%NULL%1,                         Mohammad Sadegh%Novin%NULL%1,                         Ahmadreza%Mobaien%NULL%1,                         Mohamad%Qorbanisani%NULL%1,                         Aida%Karami%NULL%1,                         Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                         Benjamin%Bopp%NULL%2,                         Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                         J.%Ocampo Pérez%NULL%1,                         L.%González Bautista%NULL%1,                         L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                         Tania%Paredes%NULL%4,                         Tania%Paredes%NULL%0,                         David%Caceres%NULL%2,                         Camille M.%Webb%NULL%2,                         Luis M.%Valdez%NULL%2,                         Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                         Rajesh%Kumari%NULL%1,                         Garima%Kachhawa%NULL%1,                         Anjolie%Chhabra%NULL%1,                         Ramesh%Agarwal%NULL%1,                         Akash%Sharma%NULL%1,                         Sunesh%Kumar%NULL%1,                         Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                          Caitlin%Baptiste%NULL%1,                          Cynthia%Gyamfi-Bannerman%NULL%1,                          Russell%Miller%NULL%1,                          Rebecca%Martinez%NULL%1,                          Kyra%Bernstein%NULL%1,                          Laurence%Ring%NULL%1,                          Ruth%Landau%NULL%1,                          Stephanie%Purisch%NULL%1,                          Alexander M.%Friedman%NULL%1,                          Karin%Fuchs%NULL%1,                          Desmond%Sutton%NULL%1,                          Maria%Andrikopoulou%NULL%1,                          Devon%Rupley%NULL%1,                          Jean-Ju%Sheen%NULL%1,                          Janice%Aubey%NULL%1,                          Noelia%Zork%NULL%1,                          Leslie%Moroz%NULL%1,                          Mirella%Mourad%NULL%1,                          Ronald%Wapner%NULL%1,                          Lynn L.%Simpson%NULL%1,                          Mary E.%D’Alton%NULL%1,                          Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                          Munir%Nazir%NULL%1,                          Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                          Jolene%Muscat%NULL%2,                          Jolene%Muscat%NULL%0,                          Eva%Hoffmann%NULL%1,                          Nicole S.%John%NULL%1,                          Rosanne%Vertichio%NULL%1,                          Anthony M.%Vintzileos%NULL%1,                          Duc%Vo%NULL%2,                          Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                          Yousef%Al Ahwel%NULL%1,                          Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                          Rachael%Overcash%NULL%2,                          Neggin%Mokhtari%NULL%2,                          Haleema%Saeed%NULL%2,                          Stacey%Gold%NULL%2,                          Tamika%Auguste%NULL%2,                          Muhammad-Usman%Mirza%NULL%2,                          Maria-Elena%Ruiz%NULL%2,                          Joeffrey J.%Chahine%NULL%4,                          Joeffrey J.%Chahine%NULL%0,                          Masashi%Waga%NULL%4,                          Masashi%Waga%NULL%0,                          Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                          Jennifer B.%Linfert%NULL%1,                          Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                          Juanjuan%Guo%NULL%2,                          Cuifang%Fan%NULL%1,                          Juan%Juan%NULL%1,                          Xuechen%Yu%NULL%2,                          Jiafu%Li%NULL%2,                          Ling%Feng%NULL%1,                          Chunyan%Li%NULL%1,                          Huijun%Chen%NULL%1,                          Yuan%Qiao%NULL%1,                          Di%Lei%NULL%1,                          Chen%Wang%NULL%3,                          Guoping%Xiong%NULL%1,                          Fengyi%Xiao%NULL%1,                          Wencong%He%NULL%1,                          Qiumei%Pang%NULL%3,                          Xiaoling%Hu%NULL%1,                          Suqing%Wang%NULL%1,                          Dunjin%Chen%NULL%1,                          Yuanzhen%Zhang%NULL%2,                          Liona C.%Poon%NULL%1,                          Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                          Zhiqiang%Zhou%NULL%1,                          Jianping%Zhang%NULL%1,                          Fengfeng%Zhu%NULL%1,                          Yongyan%Tang%NULL%1,                          Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                          Yue%Sun%101799@qdfe.com%1,                          Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                          Huan%Yang%NULL%1,                          Junfeng%Kong%NULL%2,                          Junfeng%Kong%NULL%0,                          Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                          Mingxing%Li%NULL%1,                          Kai%Guo%NULL%1,                          Weijia%Wang%NULL%1,                          Binfei%Li%NULL%1,                          Jianwei%Li%NULL%2,                          Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                          Hong%Wei%NULL%2,                          Hong%Wei%NULL%0,                          Zhihong%Zhang%NULL%1,                          Jing%Chang%NULL%1,                          Xiaopeng%Ma%NULL%1,                          Xiang%Gao%NULL%1,                          Qiang%Chen%qiangchen2015@sina.com%1,                          Qiumei%Pang%pqm19650930@sina.com%0,                          Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                          Jianhui%Wang%NULL%1,                          Yunbo%Mo%NULL%1,                          Wei%Duan%NULL%1,                          Guangjun%Xiang%NULL%1,                          Ming%Yi%NULL%1,                          Lei%Bao%NULL%1,                          Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                          Lin%Sang%NULL%1,                          Shihua%Du%NULL%1,                          Tao%Li%NULL%2,                          Yange%Chang%NULL%1,                          Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                          Luigi%Frigerio%NULL%1,                          Irene%Cetin%NULL%1,                          Patrizia%Vergani%NULL%1,                          Arsenio%Spinillo%NULL%1,                          Federico%Prefumo%NULL%1,                          Edda%Pellegrini%NULL%1,                          Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                          Alexandre J.%Vivanti%NULL%1,                          Nadine%Shehata%NULL%1,                          Alexandra%Benachi%NULL%1,                          Agnes%Le Gouez%NULL%1,                          Celine%Desconclois%NULL%1,                          Wendy%Whittle%NULL%1,                          John%Snelgrove%NULL%1,                          Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                          Itzel Carolina%Fuentes-Barahona%NULL%2,                          Itzel Carolina%Fuentes-Barahona%NULL%0,                          Daysi Anabell%Bejarano-Torres%NULL%1,                          Carolina%Bustillo%NULL%2,                          Gloria%Gonzales%NULL%1,                          Gissela%Vallecillo-Chinchilla%NULL%1,                          Fredal Eduardo%Sanchez-Martínez%NULL%2,                          Fredal Eduardo%Sanchez-Martínez%NULL%0,                          Jorge Alberto%Valle-Reconco%NULL%1,                          Manuel%Sierra%NULL%2,                          Manuel%Sierra%NULL%0,                          D. Katterine%Bonilla-Aldana%NULL%2,                          D. Katterine%Bonilla-Aldana%NULL%0,                          Jaime A.%Cardona-Ospina%NULL%2,                          Jaime A.%Cardona-Ospina%NULL%0,                          Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                          Jihyang%Lee%NULL%6,                          Jihyang%Lee%NULL%0,                          Eunju%Kim%NULL%6,                          Eunju%Kim%NULL%0,                          Kyeongyoon%Woo%NULL%6,                          Kyeongyoon%Woo%NULL%0,                          Hak Youle%Park%NULL%6,                          Hak Youle%Park%NULL%0,                          Jihyun%An%NULL%6,                          Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%2,     Julia%Savchenko%xref no email%2,     Thomas%Brune%xref no email%2,     Hampus%Josefsson%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                         Kalafat%Erkan%coreGivesNoEmail%1,                         KO\u00c7%ASLI%coreGivesNoEmail%1,                         Ozisik%S.%coreGivesNoEmail%1,                         UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                         VARLI%BULUT%coreGivesNoEmail%1,                         Yaprak%E.%coreGivesNoEmail%1,                         \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                          Maliheh%Naghavi%NULL%1,                          Abdolamir%Feyzi%NULL%1,                          Mehdi%Aghamohammadi%NULL%1,                          Mohammad Sadegh%Novin%NULL%1,                          Ahmadreza%Mobaien%NULL%1,                          Mohamad%Qorbanisani%NULL%1,                          Aida%Karami%NULL%1,                          Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                          Benjamin%Bopp%NULL%2,                          Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                          J.%Ocampo Pérez%NULL%1,                          L.%González Bautista%NULL%1,                          L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                          Tania%Paredes%NULL%4,                          Tania%Paredes%NULL%0,                          David%Caceres%NULL%2,                          Camille M.%Webb%NULL%2,                          Luis M.%Valdez%NULL%2,                          Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                          Rajesh%Kumari%NULL%1,                          Garima%Kachhawa%NULL%1,                          Anjolie%Chhabra%NULL%1,                          Ramesh%Agarwal%NULL%1,                          Akash%Sharma%NULL%1,                          Sunesh%Kumar%NULL%1,                          Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2171,6 +2549,9 @@
       <c r="I1" t="s">
         <v>126</v>
       </c>
+      <c r="J1" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2186,7 +2567,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>545</v>
+        <v>671</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -2199,6 +2580,9 @@
       </c>
       <c r="I2" t="s">
         <v>515</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2215,7 +2599,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>546</v>
+        <v>672</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2228,6 +2612,9 @@
       </c>
       <c r="I3" t="s">
         <v>515</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2244,7 +2631,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>547</v>
+        <v>673</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2257,6 +2644,9 @@
       </c>
       <c r="I4" t="s">
         <v>515</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2273,7 +2663,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>548</v>
+        <v>674</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2286,6 +2676,9 @@
       </c>
       <c r="I5" t="s">
         <v>515</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2302,7 +2695,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>549</v>
+        <v>675</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2315,6 +2708,9 @@
       </c>
       <c r="I6" t="s">
         <v>520</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2331,7 +2727,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>550</v>
+        <v>676</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2344,6 +2740,9 @@
       </c>
       <c r="I7" t="s">
         <v>520</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2360,7 +2759,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>551</v>
+        <v>677</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -2373,6 +2772,9 @@
       </c>
       <c r="I8" t="s">
         <v>515</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2403,6 +2805,9 @@
       <c r="I9" t="s">
         <v>52</v>
       </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2418,7 +2823,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>552</v>
+        <v>678</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2431,6 +2836,9 @@
       </c>
       <c r="I10" t="s">
         <v>520</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2447,7 +2855,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>553</v>
+        <v>679</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2460,6 +2868,9 @@
       </c>
       <c r="I11" t="s">
         <v>515</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -2476,7 +2887,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>554</v>
+        <v>680</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2489,6 +2900,9 @@
       </c>
       <c r="I12" t="s">
         <v>520</v>
+      </c>
+      <c r="J12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2505,7 +2919,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>555</v>
+        <v>681</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2518,6 +2932,9 @@
       </c>
       <c r="I13" t="s">
         <v>515</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -2534,7 +2951,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>556</v>
+        <v>682</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2547,6 +2964,9 @@
       </c>
       <c r="I14" t="s">
         <v>520</v>
+      </c>
+      <c r="J14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2563,7 +2983,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>557</v>
+        <v>683</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -2576,6 +2996,9 @@
       </c>
       <c r="I15" t="s">
         <v>515</v>
+      </c>
+      <c r="J15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2592,7 +3015,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>558</v>
+        <v>684</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -2605,6 +3028,9 @@
       </c>
       <c r="I16" t="s">
         <v>520</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2621,7 +3047,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>559</v>
+        <v>685</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -2634,6 +3060,9 @@
       </c>
       <c r="I17" t="s">
         <v>520</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2664,6 +3093,9 @@
       <c r="I18" t="s">
         <v>52</v>
       </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
@@ -2679,7 +3111,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>560</v>
+        <v>686</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -2692,6 +3124,9 @@
       </c>
       <c r="I19" t="s">
         <v>515</v>
+      </c>
+      <c r="J19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2708,7 +3143,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>561</v>
+        <v>687</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -2721,6 +3156,9 @@
       </c>
       <c r="I20" t="s">
         <v>515</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2737,7 +3175,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>562</v>
+        <v>688</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -2750,6 +3188,9 @@
       </c>
       <c r="I21" t="s">
         <v>520</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2766,7 +3207,7 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>563</v>
+        <v>689</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -2779,6 +3220,9 @@
       </c>
       <c r="I22" t="s">
         <v>52</v>
+      </c>
+      <c r="J22" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -2795,7 +3239,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>564</v>
+        <v>690</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -2808,6 +3252,9 @@
       </c>
       <c r="I23" t="s">
         <v>539</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -2824,7 +3271,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>565</v>
+        <v>691</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -2837,6 +3284,9 @@
       </c>
       <c r="I24" t="s">
         <v>515</v>
+      </c>
+      <c r="J24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2853,7 +3303,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>566</v>
+        <v>692</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -2866,6 +3316,9 @@
       </c>
       <c r="I25" t="s">
         <v>520</v>
+      </c>
+      <c r="J25" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -2882,7 +3335,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>567</v>
+        <v>693</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -2895,6 +3348,9 @@
       </c>
       <c r="I26" t="s">
         <v>515</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -2911,7 +3367,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>568</v>
+        <v>694</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -2924,6 +3380,9 @@
       </c>
       <c r="I27" t="s">
         <v>520</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -2940,7 +3399,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>569</v>
+        <v>695</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
@@ -2953,6 +3412,9 @@
       </c>
       <c r="I28" t="s">
         <v>520</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/38.xlsx
+++ b/Covid_19_Dataset_and_References/References/38.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4680" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5128" uniqueCount="751">
   <si>
     <t>Doi</t>
   </si>
@@ -2217,6 +2217,173 @@
   </si>
   <si>
     <t>[K. Aparna%Sharma%NULL%1,                          Rajesh%Kumari%NULL%1,                          Garima%Kachhawa%NULL%1,                          Anjolie%Chhabra%NULL%1,                          Ramesh%Agarwal%NULL%1,                          Akash%Sharma%NULL%1,                          Sunesh%Kumar%NULL%1,                          Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                           Caitlin%Baptiste%NULL%1,                           Cynthia%Gyamfi-Bannerman%NULL%1,                           Russell%Miller%NULL%1,                           Rebecca%Martinez%NULL%1,                           Kyra%Bernstein%NULL%1,                           Laurence%Ring%NULL%1,                           Ruth%Landau%NULL%1,                           Stephanie%Purisch%NULL%1,                           Alexander M.%Friedman%NULL%1,                           Karin%Fuchs%NULL%1,                           Desmond%Sutton%NULL%1,                           Maria%Andrikopoulou%NULL%1,                           Devon%Rupley%NULL%1,                           Jean-Ju%Sheen%NULL%1,                           Janice%Aubey%NULL%1,                           Noelia%Zork%NULL%1,                           Leslie%Moroz%NULL%1,                           Mirella%Mourad%NULL%1,                           Ronald%Wapner%NULL%1,                           Lynn L.%Simpson%NULL%1,                           Mary E.%D’Alton%NULL%1,                           Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                           Munir%Nazir%NULL%1,                           Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                           Jolene%Muscat%NULL%2,                           Jolene%Muscat%NULL%0,                           Eva%Hoffmann%NULL%1,                           Nicole S.%John%NULL%1,                           Rosanne%Vertichio%NULL%1,                           Anthony M.%Vintzileos%NULL%1,                           Duc%Vo%NULL%2,                           Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                           Yousef%Al Ahwel%NULL%1,                           Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                           Rachael%Overcash%NULL%2,                           Neggin%Mokhtari%NULL%2,                           Haleema%Saeed%NULL%2,                           Stacey%Gold%NULL%2,                           Tamika%Auguste%NULL%2,                           Muhammad-Usman%Mirza%NULL%2,                           Maria-Elena%Ruiz%NULL%2,                           Joeffrey J.%Chahine%NULL%4,                           Joeffrey J.%Chahine%NULL%0,                           Masashi%Waga%NULL%4,                           Masashi%Waga%NULL%0,                           Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                           Jennifer B.%Linfert%NULL%1,                           Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                           Juanjuan%Guo%NULL%2,                           Cuifang%Fan%NULL%1,                           Juan%Juan%NULL%1,                           Xuechen%Yu%NULL%2,                           Jiafu%Li%NULL%2,                           Ling%Feng%NULL%1,                           Chunyan%Li%NULL%1,                           Huijun%Chen%NULL%1,                           Yuan%Qiao%NULL%1,                           Di%Lei%NULL%1,                           Chen%Wang%NULL%3,                           Guoping%Xiong%NULL%1,                           Fengyi%Xiao%NULL%1,                           Wencong%He%NULL%1,                           Qiumei%Pang%NULL%3,                           Xiaoling%Hu%NULL%1,                           Suqing%Wang%NULL%1,                           Dunjin%Chen%NULL%1,                           Yuanzhen%Zhang%NULL%2,                           Liona C.%Poon%NULL%1,                           Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                           Zhiqiang%Zhou%NULL%1,                           Jianping%Zhang%NULL%1,                           Fengfeng%Zhu%NULL%1,                           Yongyan%Tang%NULL%1,                           Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                           Yue%Sun%101799@qdfe.com%1,                           Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                           Huan%Yang%NULL%1,                           Junfeng%Kong%NULL%2,                           Junfeng%Kong%NULL%0,                           Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                           Mingxing%Li%NULL%1,                           Kai%Guo%NULL%1,                           Weijia%Wang%NULL%1,                           Binfei%Li%NULL%1,                           Jianwei%Li%NULL%2,                           Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                           Hong%Wei%NULL%2,                           Hong%Wei%NULL%0,                           Zhihong%Zhang%NULL%1,                           Jing%Chang%NULL%1,                           Xiaopeng%Ma%NULL%1,                           Xiang%Gao%NULL%1,                           Qiang%Chen%qiangchen2015@sina.com%1,                           Qiumei%Pang%pqm19650930@sina.com%0,                           Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                           Jianhui%Wang%NULL%1,                           Yunbo%Mo%NULL%1,                           Wei%Duan%NULL%1,                           Guangjun%Xiang%NULL%1,                           Ming%Yi%NULL%1,                           Lei%Bao%NULL%1,                           Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                           Lin%Sang%NULL%1,                           Shihua%Du%NULL%1,                           Tao%Li%NULL%2,                           Yange%Chang%NULL%1,                           Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                           Luigi%Frigerio%NULL%1,                           Irene%Cetin%NULL%1,                           Patrizia%Vergani%NULL%1,                           Arsenio%Spinillo%NULL%1,                           Federico%Prefumo%NULL%1,                           Edda%Pellegrini%NULL%1,                           Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t>A pregnant woman and the SARS-CoV-2 infection: how are barriers easily crossed?</t>
+  </si>
+  <si>
+    <t>A case of SARS-CoV-2 in a pregnant woman is described. How the case has crossed the barriers is highlighted, hoping this will be useful in planning appropriate intervention in cases of infected pregnant women.</t>
+  </si>
+  <si>
+    <t>[ Ugo%Indraccolo%elasticNoEmail%1]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                           Alexandre J.%Vivanti%NULL%1,                           Nadine%Shehata%NULL%1,                           Alexandra%Benachi%NULL%1,                           Agnes%Le Gouez%NULL%1,                           Celine%Desconclois%NULL%1,                           Wendy%Whittle%NULL%1,                           John%Snelgrove%NULL%1,                           Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                           Itzel Carolina%Fuentes-Barahona%NULL%2,                           Itzel Carolina%Fuentes-Barahona%NULL%0,                           Daysi Anabell%Bejarano-Torres%NULL%1,                           Carolina%Bustillo%NULL%2,                           Gloria%Gonzales%NULL%1,                           Gissela%Vallecillo-Chinchilla%NULL%1,                           Fredal Eduardo%Sanchez-Martínez%NULL%2,                           Fredal Eduardo%Sanchez-Martínez%NULL%0,                           Jorge Alberto%Valle-Reconco%NULL%1,                           Manuel%Sierra%NULL%2,                           Manuel%Sierra%NULL%0,                           D. Katterine%Bonilla-Aldana%NULL%2,                           D. Katterine%Bonilla-Aldana%NULL%0,                           Jaime A.%Cardona-Ospina%NULL%2,                           Jaime A.%Cardona-Ospina%NULL%0,                           Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                           Jihyang%Lee%NULL%6,                           Jihyang%Lee%NULL%0,                           Eunju%Kim%NULL%6,                           Eunju%Kim%NULL%0,                           Kyeongyoon%Woo%NULL%6,                           Kyeongyoon%Woo%NULL%0,                           Hak Youle%Park%NULL%6,                           Hak Youle%Park%NULL%0,                           Jihyun%An%NULL%6,                           Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%2,      Julia%Savchenko%xref no email%2,      Thomas%Brune%xref no email%2,      Hampus%Josefsson%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                          Kalafat%Erkan%coreGivesNoEmail%1,                          KO\u00c7%ASLI%coreGivesNoEmail%1,                          Ozisik%S.%coreGivesNoEmail%1,                          UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                          VARLI%BULUT%coreGivesNoEmail%1,                          Yaprak%E.%coreGivesNoEmail%1,                          \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                           Maliheh%Naghavi%NULL%1,                           Abdolamir%Feyzi%NULL%1,                           Mehdi%Aghamohammadi%NULL%1,                           Mohammad Sadegh%Novin%NULL%1,                           Ahmadreza%Mobaien%NULL%1,                           Mohamad%Qorbanisani%NULL%1,                           Aida%Karami%NULL%1,                           Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                           Benjamin%Bopp%NULL%2,                           Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                           J.%Ocampo Pérez%NULL%1,                           L.%González Bautista%NULL%1,                           L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                           Tania%Paredes%NULL%4,                           Tania%Paredes%NULL%0,                           David%Caceres%NULL%2,                           Camille M.%Webb%NULL%2,                           Luis M.%Valdez%NULL%2,                           Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                           Rajesh%Kumari%NULL%1,                           Garima%Kachhawa%NULL%1,                           Anjolie%Chhabra%NULL%1,                           Ramesh%Agarwal%NULL%1,                           Akash%Sharma%NULL%1,                           Sunesh%Kumar%NULL%1,                           Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Noelle%Breslin%nb2565@cumc.columbia.edu%0,                            Caitlin%Baptiste%NULL%1,                            Cynthia%Gyamfi-Bannerman%NULL%1,                            Russell%Miller%NULL%1,                            Rebecca%Martinez%NULL%1,                            Kyra%Bernstein%NULL%1,                            Laurence%Ring%NULL%1,                            Ruth%Landau%NULL%1,                            Stephanie%Purisch%NULL%1,                            Alexander M.%Friedman%NULL%1,                            Karin%Fuchs%NULL%1,                            Desmond%Sutton%NULL%1,                            Maria%Andrikopoulou%NULL%1,                            Devon%Rupley%NULL%1,                            Jean-Ju%Sheen%NULL%1,                            Janice%Aubey%NULL%1,                            Noelia%Zork%NULL%1,                            Leslie%Moroz%NULL%1,                            Mirella%Mourad%NULL%1,                            Ronald%Wapner%NULL%1,                            Lynn L.%Simpson%NULL%1,                            Mary E.%D’Alton%NULL%1,                            Dena%Goffman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alexander%Juusela%alex.l.juusela@gmail.com%1,                            Munir%Nazir%NULL%1,                            Martin%Gimovsky%NULL%1]</t>
+  </si>
+  <si>
+    <t>[William S.%Vintzileos%NULL%1,                            Jolene%Muscat%NULL%2,                            Jolene%Muscat%NULL%0,                            Eva%Hoffmann%NULL%1,                            Nicole S.%John%NULL%1,                            Rosanne%Vertichio%NULL%1,                            Anthony M.%Vintzileos%NULL%1,                            Duc%Vo%NULL%2,                            Duc%Vo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[William T.%Schnettler%william_schnettler@trihealth.com%2,                            Yousef%Al Ahwel%NULL%1,                            Anju%Suhag%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sara N.%Iqbal%NULL%2,                            Rachael%Overcash%NULL%2,                            Neggin%Mokhtari%NULL%2,                            Haleema%Saeed%NULL%2,                            Stacey%Gold%NULL%2,                            Tamika%Auguste%NULL%2,                            Muhammad-Usman%Mirza%NULL%2,                            Maria-Elena%Ruiz%NULL%2,                            Joeffrey J.%Chahine%NULL%4,                            Joeffrey J.%Chahine%NULL%0,                            Masashi%Waga%NULL%4,                            Masashi%Waga%NULL%0,                            Glenn%Wortmann%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Paul C.%Browne%NULL%1,                            Jennifer B.%Linfert%NULL%1,                            Emilio%Perez-Jorge%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jie%Yan%NULL%0,                            Juanjuan%Guo%NULL%2,                            Cuifang%Fan%NULL%1,                            Juan%Juan%NULL%1,                            Xuechen%Yu%NULL%2,                            Jiafu%Li%NULL%2,                            Ling%Feng%NULL%1,                            Chunyan%Li%NULL%1,                            Huijun%Chen%NULL%1,                            Yuan%Qiao%NULL%1,                            Di%Lei%NULL%1,                            Chen%Wang%NULL%3,                            Guoping%Xiong%NULL%1,                            Fengyi%Xiao%NULL%1,                            Wencong%He%NULL%1,                            Qiumei%Pang%NULL%3,                            Xiaoling%Hu%NULL%1,                            Suqing%Wang%NULL%1,                            Dunjin%Chen%NULL%1,                            Yuanzhen%Zhang%NULL%2,                            Liona C.%Poon%NULL%1,                            Huixia%Yang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xiaotong%Wang%NULL%3,                            Zhiqiang%Zhou%NULL%1,                            Jianping%Zhang%NULL%1,                            Fengfeng%Zhu%NULL%1,                            Yongyan%Tang%NULL%1,                            Xinghua%Shen%luckydrx@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Rong%Wen%wenxueqian_1111@163.com%1,                            Yue%Sun%101799@qdfe.com%1,                            Quan-Sheng%Xing%xingquansheng@qdfe.com%1]</t>
+  </si>
+  <si>
+    <t>[Xinggui%Liao%NULL%1,                            Huan%Yang%NULL%1,                            Junfeng%Kong%NULL%2,                            Junfeng%Kong%NULL%0,                            Hongbing%Yang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Liusheng%Hou%NULL%1,                            Mingxing%Li%NULL%1,                            Kai%Guo%NULL%1,                            Weijia%Wang%NULL%1,                            Binfei%Li%NULL%1,                            Jianwei%Li%NULL%2,                            Yong%Yuan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xiali%Xiong%NULL%2,                            Hong%Wei%NULL%2,                            Hong%Wei%NULL%0,                            Zhihong%Zhang%NULL%1,                            Jing%Chang%NULL%1,                            Xiaopeng%Ma%NULL%1,                            Xiang%Gao%NULL%1,                            Qiang%Chen%qiangchen2015@sina.com%1,                            Qiumei%Pang%pqm19650930@sina.com%0,                            Qiumei%Pang%pqm19650930@sina.com%0]</t>
+  </si>
+  <si>
+    <t>[Zhoujie%Peng%NULL%2,                            Jianhui%Wang%NULL%1,                            Yunbo%Mo%NULL%1,                            Wei%Duan%NULL%1,                            Guangjun%Xiang%NULL%1,                            Ming%Yi%NULL%1,                            Lei%Bao%NULL%1,                            Yuan%Shi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Dawei%Lu%NULL%2,                            Lin%Sang%NULL%1,                            Shihua%Du%NULL%1,                            Tao%Li%NULL%2,                            Yange%Chang%NULL%1,                            Xiu‐An%Yang%yangxiuan07@mails.ucas.edu.cn%1]</t>
+  </si>
+  <si>
+    <t>[Enrico M.%Ferrazzi%enrico.ferrazzi@unimi.it%0,                            Luigi%Frigerio%NULL%1,                            Irene%Cetin%NULL%1,                            Patrizia%Vergani%NULL%1,                            Arsenio%Spinillo%NULL%1,                            Federico%Prefumo%NULL%1,                            Edda%Pellegrini%NULL%1,                            Gianluigi%Gargantini%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A case of SARS-CoV-2 in a pregnant woman is described.
+ How the case has crossed the barriers is highlighted, hoping this will be useful in planning appropriate intervention in cases of infected pregnant women.
+</t>
+  </si>
+  <si>
+    <t>[Evangelia%Vlachodimitropoulou Koumoutsea%NULL%1,                            Alexandre J.%Vivanti%NULL%1,                            Nadine%Shehata%NULL%1,                            Alexandra%Benachi%NULL%1,                            Agnes%Le Gouez%NULL%1,                            Celine%Desconclois%NULL%1,                            Wendy%Whittle%NULL%1,                            John%Snelgrove%NULL%1,                            Ann Kinga%Malinowski%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lysien I.%Zambrano%NULL%1,                            Itzel Carolina%Fuentes-Barahona%NULL%2,                            Itzel Carolina%Fuentes-Barahona%NULL%0,                            Daysi Anabell%Bejarano-Torres%NULL%1,                            Carolina%Bustillo%NULL%2,                            Gloria%Gonzales%NULL%1,                            Gissela%Vallecillo-Chinchilla%NULL%1,                            Fredal Eduardo%Sanchez-Martínez%NULL%2,                            Fredal Eduardo%Sanchez-Martínez%NULL%0,                            Jorge Alberto%Valle-Reconco%NULL%1,                            Manuel%Sierra%NULL%2,                            Manuel%Sierra%NULL%0,                            D. Katterine%Bonilla-Aldana%NULL%2,                            D. Katterine%Bonilla-Aldana%NULL%0,                            Jaime A.%Cardona-Ospina%NULL%2,                            Jaime A.%Cardona-Ospina%NULL%0,                            Alfonso J.%Rodríguez-Morales%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dong Hwan%Lee%NULL%4,                            Jihyang%Lee%NULL%6,                            Jihyang%Lee%NULL%0,                            Eunju%Kim%NULL%6,                            Eunju%Kim%NULL%0,                            Kyeongyoon%Woo%NULL%6,                            Kyeongyoon%Woo%NULL%0,                            Hak Youle%Park%NULL%6,                            Hak Youle%Park%NULL%0,                            Jihyun%An%NULL%6,                            Jihyun%An%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Sebastian%Gidl\u00f6f%xref no email%2,       Julia%Savchenko%xref no email%2,       Thomas%Brune%xref no email%2,       Hampus%Josefsson%xref no email%2]</t>
+  </si>
+  <si>
+    <t>[AZAP%ALPAY%coreGivesNoEmail%2,                           Kalafat%Erkan%coreGivesNoEmail%1,                           KO\u00c7%ASLI%coreGivesNoEmail%1,                           Ozisik%S.%coreGivesNoEmail%1,                           UZUN%\u00c7A\u011eLAR%coreGivesNoEmail%1,                           VARLI%BULUT%coreGivesNoEmail%1,                           Yaprak%E.%coreGivesNoEmail%1,                           \u00c7INAR%G\u00dcLE%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Parisa%Karami%NULL%1,                            Maliheh%Naghavi%NULL%1,                            Abdolamir%Feyzi%NULL%1,                            Mehdi%Aghamohammadi%NULL%1,                            Mohammad Sadegh%Novin%NULL%1,                            Ahmadreza%Mobaien%NULL%1,                            Mohamad%Qorbanisani%NULL%1,                            Aida%Karami%NULL%1,                            Amir Hossein%Norooznezhad%norooznezhad@gmail.com%1]</t>
+  </si>
+  <si>
+    <t>[Belinda%Lowe%Belinda.lowe2@health.qld.gov.au%1,                            Benjamin%Bopp%NULL%2,                            Benjamin%Bopp%NULL%0]</t>
+  </si>
+  <si>
+    <t>[D.%González Romero%NULL%1,                            J.%Ocampo Pérez%NULL%1,                            L.%González Bautista%NULL%1,                            L.%Santana-Cabrera%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria Claudia%Alzamora%NULL%3,                            Tania%Paredes%NULL%4,                            Tania%Paredes%NULL%0,                            David%Caceres%NULL%2,                            Camille M.%Webb%NULL%2,                            Luis M.%Valdez%NULL%2,                            Mauricio%La Rosa%NULL%2]</t>
+  </si>
+  <si>
+    <t>[K. Aparna%Sharma%NULL%1,                            Rajesh%Kumari%NULL%1,                            Garima%Kachhawa%NULL%1,                            Anjolie%Chhabra%NULL%1,                            Ramesh%Agarwal%NULL%1,                            Akash%Sharma%NULL%1,                            Sunesh%Kumar%NULL%1,                            Neerja%Bhatla%neerja.bhatla07@gmail.com%1]</t>
   </si>
 </sst>
 </file>
@@ -2567,7 +2734,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>671</v>
+        <v>725</v>
       </c>
       <c r="F2" t="s">
         <v>45</v>
@@ -2599,7 +2766,7 @@
         <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>672</v>
+        <v>726</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2631,7 +2798,7 @@
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>673</v>
+        <v>727</v>
       </c>
       <c r="F4" t="s">
         <v>53</v>
@@ -2663,7 +2830,7 @@
         <v>55</v>
       </c>
       <c r="E5" t="s">
-        <v>674</v>
+        <v>728</v>
       </c>
       <c r="F5" t="s">
         <v>56</v>
@@ -2695,7 +2862,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>729</v>
       </c>
       <c r="F6" t="s">
         <v>59</v>
@@ -2727,7 +2894,7 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>676</v>
+        <v>730</v>
       </c>
       <c r="F7" t="s">
         <v>62</v>
@@ -2759,7 +2926,7 @@
         <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>677</v>
+        <v>731</v>
       </c>
       <c r="F8" t="s">
         <v>66</v>
@@ -2823,7 +2990,7 @@
         <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>678</v>
+        <v>732</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2855,7 +3022,7 @@
         <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>679</v>
+        <v>733</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2887,7 +3054,7 @@
         <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>680</v>
+        <v>734</v>
       </c>
       <c r="F12" t="s">
         <v>75</v>
@@ -2919,7 +3086,7 @@
         <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>681</v>
+        <v>735</v>
       </c>
       <c r="F13" t="s">
         <v>79</v>
@@ -2951,7 +3118,7 @@
         <v>82</v>
       </c>
       <c r="E14" t="s">
-        <v>682</v>
+        <v>736</v>
       </c>
       <c r="F14" t="s">
         <v>83</v>
@@ -2983,7 +3150,7 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>683</v>
+        <v>737</v>
       </c>
       <c r="F15" t="s">
         <v>87</v>
@@ -3015,7 +3182,7 @@
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>684</v>
+        <v>738</v>
       </c>
       <c r="F16" t="s">
         <v>91</v>
@@ -3047,7 +3214,7 @@
         <v>94</v>
       </c>
       <c r="E17" t="s">
-        <v>685</v>
+        <v>739</v>
       </c>
       <c r="F17" t="s">
         <v>95</v>
@@ -3073,22 +3240,22 @@
         <v>43922</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>711</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>740</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>713</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>714</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
         <v>52</v>
@@ -3111,7 +3278,7 @@
         <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>686</v>
+        <v>741</v>
       </c>
       <c r="F19" t="s">
         <v>99</v>
@@ -3143,7 +3310,7 @@
         <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="F20" t="s">
         <v>102</v>
@@ -3175,7 +3342,7 @@
         <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="F21" t="s">
         <v>106</v>
@@ -3207,7 +3374,7 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="F22" t="s">
         <v>25</v>
@@ -3239,7 +3406,7 @@
         <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="F23" t="s">
         <v>26</v>
@@ -3271,7 +3438,7 @@
         <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>691</v>
+        <v>746</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -3303,7 +3470,7 @@
         <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="F25" t="s">
         <v>112</v>
@@ -3335,7 +3502,7 @@
         <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>693</v>
+        <v>748</v>
       </c>
       <c r="F26" t="s">
         <v>115</v>
@@ -3367,7 +3534,7 @@
         <v>117</v>
       </c>
       <c r="E27" t="s">
-        <v>694</v>
+        <v>749</v>
       </c>
       <c r="F27" t="s">
         <v>118</v>
@@ -3399,7 +3566,7 @@
         <v>120</v>
       </c>
       <c r="E28" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="F28" t="s">
         <v>121</v>
